--- a/dataset/driving-thinking.xlsx
+++ b/dataset/driving-thinking.xlsx
@@ -1,225 +1,2051 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\THU\HCI\Driving Style\dataset\Driving-Thinking-Dataset\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD2587-3808-460E-9DC2-AE79A3B1C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="司机各工况语料整理（访谈记录版本）" sheetId="2" r:id="rId5"/>
-    <sheet name="司机各工况语料整理（回溯录频补充修正版本）" sheetId="3" r:id="rId6"/>
-    <sheet name="司机各工况语料整理（基于修正版本的中英版）" sheetId="4" r:id="rId7"/>
+    <sheet name="Original Interview ver." sheetId="2" r:id="rId1"/>
+    <sheet name="Supplementary ver." sheetId="3" r:id="rId2"/>
+    <sheet name="Bilingual ver." sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="480">
+  <si>
+    <t>司机编号/工况类别</t>
+  </si>
+  <si>
+    <t>转弯</t>
+  </si>
+  <si>
+    <t>进入主路</t>
+  </si>
+  <si>
+    <t>稳速直行</t>
+  </si>
+  <si>
+    <t>直线加速</t>
+  </si>
+  <si>
+    <t>变道超车</t>
+  </si>
+  <si>
+    <t>掉头</t>
+  </si>
+  <si>
+    <t>通过路口</t>
+  </si>
+  <si>
+    <t>D01（普通司机）</t>
+  </si>
+  <si>
+    <t>先踩刹车，刹车慢下来再打方向盘；分左右转向情况，弯中间会补油。
+回方向习惯慢一些，靠着轮胎带着方向盘回，根据车速，一般单手搓。
+先车头探出去，便于观察直行的机动车和非机动车。</t>
+  </si>
+  <si>
+    <t>感觉视野盲区多，看不到路，要探身
+先往前开，慢慢往里进，看到视野盲区的车再做决定</t>
+  </si>
+  <si>
+    <t>不限速能开到100，有车慢慢走
+在里侧开，会开很快//正常速度行驶时跟车习惯通常较近</t>
+  </si>
+  <si>
+    <t>不会让车
+两个车距离大的时候超车
+不看左道距离够不够，一般不会过半个车头</t>
+  </si>
+  <si>
+    <t>通常贴右边线，由于不能把握车宽，所以今天不太敢贴右边线，//内侧道没车就走</t>
+  </si>
+  <si>
+    <t>三轮车在右前头才看到</t>
+  </si>
+  <si>
+    <t>D02（普通司机）</t>
+  </si>
+  <si>
+    <t>右转，先看右后视镜没有行人车辆会快速通过，通常不会过于注意左边，只会大略看一眼，先看左后看右。左转反之。认为右转比左转容易，可能因为是右利手原因，右手右转打方向盘更容易。///进辅路没有很在意道路内侧后方非机动车，且发现其有减速意图。///路况比较好的时候没有减速喜欢，甚至个别情况还会稍微加速。</t>
+  </si>
+  <si>
+    <t>过绿化带后看左后视镜，判断后车较远，直接加速快速进入主路。如果车多的话也会一点点往前挪，否则会挡视线。进入主路后会立即加速。</t>
+  </si>
+  <si>
+    <t>四环，限速80时，白天可能开70，晚上车少可能会适当超速，但超速20%以内。</t>
+  </si>
+  <si>
+    <t>提前压中线了，看对面有没有车，发现没有车，且按了一下喇叭提醒前车。白天用喇叭，晚上也用喇叭多一下，不太喜欢远光灯晃眼。</t>
+  </si>
+  <si>
+    <t>掉头前主动向右侧打方向了，凭感觉估计和右侧车距离。没有让后侧转进的车，认为车距离较远。一把掉头成功。</t>
+  </si>
+  <si>
+    <t>D03（专家司机）</t>
+  </si>
+  <si>
+    <t>先减速，多注意视野盲区（绿化、路边车辆）////右转：左右观察都很多，但更注重右侧，因为左侧视野很大，扫一眼即可，而右侧视野逐渐变小，很担心拐弯后路上的逆行非机动车。////车流多时转弯仅能慢慢往前蹭，才能别住非机动车。/////左转：左右反光镜都多次观察///右转进四环很早看左侧的自行车，防止停下准备直行的车辆后影响视野，挡住突然冲出的非机动车这类。</t>
+  </si>
+  <si>
+    <t>进主路过度阶段很长，因此不直接往里切，在过度区域前行至反光镜视野清楚后才进主路。</t>
+  </si>
+  <si>
+    <t>完全按限速开，能开快不会开慢，开慢基本上是基于路况原因</t>
+  </si>
+  <si>
+    <t>超车习惯：一定不能犹豫，必须给油门超过。</t>
+  </si>
+  <si>
+    <t>看右后视镜为了先往右打一下，掉头过程中停了一下为了避免速度过快一把转不过，并且多次看左后视镜，担心左侧其他掉头车辆等。//////很早掉头方向的路况。</t>
+  </si>
+  <si>
+    <t>无信号灯路况：直接跟前车右转，而且明确看出以行人站住不动，且看右后视镜有无后方非机动车</t>
+  </si>
+  <si>
+    <t>D04（普通司机）</t>
+  </si>
+  <si>
+    <t>右转弯：先看右边后视镜，有无人、非机动车，再看左前方直行车辆，确定左边没车后将车头探出。之后不用看左边，只用看右边，没人没车转弯就可以。因为左边的车肯定能见我。
+左转会观察左前方非机动车是否会碰到左车头或车门的位置</t>
+  </si>
+  <si>
+    <t>看不到主路路况，先降速，慢慢磨，等到能看见的时候，确定没车了，酒赶紧变道。一般选择让行。</t>
+  </si>
+  <si>
+    <t>平常道路不会超过60，其他道路按照最高限速走。限速60跟车距离3个车位/15米，高速跟车50m之外</t>
+  </si>
+  <si>
+    <t>平时开的车因为转弯半径小，所以不会提前向右靠，实验时有意向右打方向。看车距，让行对面车辆。较近车道无车时会先用车身占住车道。一把完成掉头。</t>
+  </si>
+  <si>
+    <t>右后视镜看不见，车速降的很慢，转弯让行直行非机动车</t>
+  </si>
+  <si>
+    <t>D05（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：先看左再看右，左侧注意直行来车，比较注意右侧可能有逆行的车辆、非机动车、行人。
+左转：
+会主动让行人</t>
+  </si>
+  <si>
+    <t>左反光镜，看后侧来车，逐一变道（不连续变道）</t>
+  </si>
+  <si>
+    <t>速度维持限速边缘，车多时车距比较近，车况较好时40码左右行驶会保持一个车身，60码大概2个车身，高速上不会跟车，尽量50到100米</t>
+  </si>
+  <si>
+    <t>优先左侧超车，先看后车再看前车，看有没有别的车道有要超车的车</t>
+  </si>
+  <si>
+    <t>看红绿灯，对向有车会先让，一次没掉过来调过来看后视镜或者倒车影像</t>
+  </si>
+  <si>
+    <t>先看左后看右，脚一直在刹车位置上</t>
+  </si>
+  <si>
+    <t>D06（专家司机）</t>
+  </si>
+  <si>
+    <t>右转：先看左边的自行车和机动车，同时会注意右边，因为右侧有很多非机动车逆行（辅路上），路口看右侧非机动车很多。看左边更多。//左转：弯比较大，视线比较好，看右边比较少，还是更注意左边/////很早看后视镜，路口前15米左右观察辅路情况，看后车车速，停了一下看辅路自行车情况，后视镜视野完全清晰后才转弯通过。///优先让直行</t>
+  </si>
+  <si>
+    <t>先看左后视镜，主要关注后侧车的车速和距离，后车车速快可能会停下，其他情况基本加速通过</t>
+  </si>
+  <si>
+    <t>习惯靠护栏走，因为很少有突然出现的车、行人等，基本按限速开，偶尔可能会超速，40码城市道路习惯保持的车距是2个车的距离，60码基本两个白线的距离，80码近似保持两个半车身的距离。高速上车距不超过100米，习惯开130/140迈。</t>
+  </si>
+  <si>
+    <t>超车习惯：观察其他车车速，比其他车超10迈左右即可，喜欢从右边超车，因为右侧车速慢。先看右后视镜，向右变道再加速。所以习惯走中间车道，便于超车等行为。</t>
+  </si>
+  <si>
+    <t>倒了一下，掉了两次，习惯看对向来车，绿灯基本优先让对向车先走。因为前面大车掉头可能困难，自己也没有向人行道上开掉大弯。</t>
+  </si>
+  <si>
+    <t>没有信号灯所以要先看左边，直到左侧车辆都要右转时有足够时间穿过后开始看右侧</t>
+  </si>
+  <si>
+    <t>D07（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：先看左边，主要是非机动车，其次看机动车，再看右边行人或者逆行的非机动车///////左转：也先看左边，要并入直行之后才会看右边////////右转进四环直接拐入主路</t>
+  </si>
+  <si>
+    <t>看左后方的机动车，看到后车有一个安全距离之后就会加速通过进入主路</t>
+  </si>
+  <si>
+    <t>比限速低一点点，郊区可能开到100码左右/////80码行车可能保持三个车身左右，15米左右；60码保持两个车身，10米左右</t>
+  </si>
+  <si>
+    <t>慢慢加速</t>
+  </si>
+  <si>
+    <t>只会往左边超车，看左边后面的车距判断能否安全超车</t>
+  </si>
+  <si>
+    <t>提前往右打了方向且后面没车，划了大圈一把掉头通过，且红灯掉头对向没有来车</t>
+  </si>
+  <si>
+    <t>无信号灯路口左转：先看人行道上的人，再看左侧才看右侧有无来车</t>
+  </si>
+  <si>
+    <t>D08（专家司机）</t>
+  </si>
+  <si>
+    <t>两边路况看清楚。边走边准备好让道。</t>
+  </si>
+  <si>
+    <t>大转向、减速、慢慢往里切，看后视镜。</t>
+  </si>
+  <si>
+    <t>保持限速最高速，看左右后视镜；
+习惯贴栏杆，更有安全感，给后车留空间；
+根据速度调整车距：一到两个车的距离（40km/h, 10m; 60km/h, 20m，以此类推）</t>
+  </si>
+  <si>
+    <t>看后方有没有车，和速度，能超就一把超</t>
+  </si>
+  <si>
+    <t>防加塞，半个车身车距。虚线要比实线近一点，因为要放插队。
+一把能否掉过来，能掉，就往右贴，不能掉，就不贴；尽可能一把掉</t>
+  </si>
+  <si>
+    <t>特别小心</t>
+  </si>
+  <si>
+    <t>D09（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：余光看有没有人，有没有车，再过；先看左边，右边余光能看到，不会特意看</t>
+  </si>
+  <si>
+    <t>先打灯，看左边，先摆正车在缓冲段，看后视镜</t>
+  </si>
+  <si>
+    <t>没车就60，稍微超一点，65，10%以下；
+基本卡限速，有时候会超一点；
+车距：平时开高速，远一点。100km/H，75-100米
+城市：2个车身距离左右</t>
+  </si>
+  <si>
+    <t>习惯在最左侧开，往右超车</t>
+  </si>
+  <si>
+    <t>右边没有车就往右打方向，一把掉头
+感觉车头不会碰绿化带</t>
+  </si>
+  <si>
+    <t>D10（专家司机）</t>
+  </si>
+  <si>
+    <t>右转：看左边更多一点，特别是直行路上有车的时候，会有一个提前的判断</t>
+  </si>
+  <si>
+    <t>进主路有辆车挡住了，司机想优先让这辆车过，但发现这辆车有2-3秒停住没动，判断应该是要让，所以加速通过了；且在主路后方没车的时候习惯一次性并入最内道</t>
+  </si>
+  <si>
+    <t>跟着限速走，甚至超速一点点，城市道路和高速上基本保持超速10%以内驾驶。城市道路车距保持也较短，通常1-2个车身</t>
+  </si>
+  <si>
+    <t>比较习惯超车，优先左侧超车，看左后方有无来车</t>
+  </si>
+  <si>
+    <t>没有掉头指示灯的情况下，通常先看对向来车。实验过程中压到人行道掉头，为了掉头空间更大一点。</t>
+  </si>
+  <si>
+    <t>D11（专家司机）</t>
+  </si>
+  <si>
+    <t>在转弯之前很早就会看左右侧反光镜；右转：先看左边（主要看左边），右边会看一眼防止右侧逆行外卖车，转弯会轻带着一点刹车，为了预防一些突发情况，在车转弯后基本顺正的时候会加速，不会让方向盘自己回正，会让车晃，会主动控制方向盘的力度；右转有绿化带干扰时实际更喜欢看右后窗，原则上应该停住让非机动车，但自己更喜欢带着一半的刹车。一定要把车头顶出来，大约占道一半左右，给后侧行人和非机动车一个信号。////右转：前面有一个摩托车堵了车道，实验中从车右侧超车了，但是可能突然绿灯摩托车起步可能会撞到自己，但实际自己会借非机动车道会更安全////转弯前有时不会完全降速，会让自己左右看的频率更高，第一遍看路况，第二遍是再确认一下////右转发现左侧红灯时，就会主要看右侧非机动车，甚至大路口自己会停下让右侧直行非机动车，由于这些时候非机动车通常会赶灯。绕大圈，车速慢，所以方向盘也不用打的很快，。</t>
+  </si>
+  <si>
+    <t>看左后视镜不断并线，由于后侧有车，且绿化带干扰视线，并道时基本没给油，也没踩刹车，在后车超过时，且看到该车车尾时会开始给油加速；如果与后车车距足够时候会主动给油；</t>
+  </si>
+  <si>
+    <t>保持车距，三四个车位的时候脚就会准备带刹车了，让车头保持让它车难以加塞的距离；路况好的时候会顶限速开；</t>
+  </si>
+  <si>
+    <t>从左侧超车，会先探出一半车身判断自己是否具备超车条件，以及会看前车行驶较慢是不是前方有意外状况，这种情况下自己不会超车。</t>
+  </si>
+  <si>
+    <t>没有在路口掉头，先不断看右侧，尽量让车往右靠，然后对向绿灯，一直看对向来车，掉过来之后挂倒挡前应该先看右边，可能有刹不住的大车；掉头过程中一直看左边</t>
+  </si>
+  <si>
+    <t>无信号灯路口右转：先看左后看右，对向车打了右转灯所以没让；左转：先看左再看右//////这类转弯观察优先级是车&gt;非机动车&gt;人（因为他们的速度以及可能对自己造成的 风险等级）
+过人行横道时都不会给油，减速，脚会在刹车上准备但通常不会踩；路两边有单位出入口等都会准备刹车，担心突然驶出的车，很早会有一定的防范意识。</t>
+  </si>
+  <si>
+    <t>D12（专家司机）</t>
+  </si>
+  <si>
+    <t>转弯时会看车窗比看反光镜更多，先看左后看右，同时会看反光镜，车身转正后且左右侧保证安全后才会加油门；转弯让直行，车多时可能会以近似停下的速度转弯，可能会踩30%到80%左右的刹车。//////提前知道要右转后，提前100米左右开始观察右侧辅路///T字路口无信号灯左转很担心右侧突然驶过的直行车辆，也不能过度减速，要结合距离控制速度（避让非机动车）///四环路口：先看右边非机动车道、再看人行道行人，会让直行机动车和非机动车////右转：先看辅路，用余光看主路</t>
+  </si>
+  <si>
+    <t>提前很早打转向灯，且逐一并线，发现后车有超车意图，又发现后车返回原车道，自己继续并道</t>
+  </si>
+  <si>
+    <t>城市道路保持20米左右车距，大约三个车身</t>
+  </si>
+  <si>
+    <t>尽量都不超车，超车、并线很容易发生事故</t>
+  </si>
+  <si>
+    <t>还有50米左右要停的时候已经收油了，准备开始慢刹车。车少，所以留了较大车距掉头，不担心加塞问题，掉头前靠右侧开所以一把，且车身掉过之后一直看左反光镜。左侧有一个外卖车。</t>
+  </si>
+  <si>
+    <t>无信号灯右转：主要看右边，然后会不断扫视左边，很担心右侧突然冲出来的车，有死角（视野盲区）</t>
+  </si>
+  <si>
+    <t>D13（专家司机）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【出停车场】
+1.先左再右，看对面，习惯
+2. 出停车场踩着刹车，拐弯一般，10-20%；人、车移动的东西都观察
+一扫而过，用余光扫
+3. 方向盘：一定的速度内，一定要缓，顺势；左手到点，右手接上
+手托在方向盘底下；1：1：1？；
+【路口转弯+辅路】
+1. 提前踩刹车；先脚踏在油门上没踩下，很软按下去，给得很轻，看到行人提前收油，脚放刹车
+2. 过弯前看左边，辅路后面的大概情况，看右后侧反光镜看右后方来车（自行车）
+3. 刹车上放着脚，转过来后切换到油门，轻轻给油门；
+4. 外卖小哥，突然从后面出现估计不到，我在自己的道上，避不开，看到之后会收油，不踩油门，让他先过，加油门会撞上
+5. 靠边逆行非机动车，不管
+6. 30-40米开外前车亮灯，先松油门，脚放刹车，迫不得已才会急刹
+【掉头后右转】
+1. 右后方有没有车，辅道的车观察
+【无红绿灯左转】
+1. 左右观察，行人、非机动车更注意
+2. 先关注左边，再右边
+3. </t>
+  </si>
+  <si>
+    <t>1. 左后方关注
+2. 丝滑进主路，车轮搭到主路一般回方向盘，四轮都在车上，给油门；要有自己的路权再给油门</t>
+  </si>
+  <si>
+    <t>1. 看红绿灯：直行红灯，150米就松油门，慢慢减速，比加塞更重要的是稳
+2. 有加塞，轻点油门，停稳</t>
+  </si>
+  <si>
+    <t>1. 油门平稳一点，慢慢踩，判断下个路口的操作，做一些预防措施</t>
+  </si>
+  <si>
+    <t>1. 判断能否一把掉过来，
+2. 关注对向来车、行人
+3. 先看车头离马路牙子距离，然后看周围
+4. 调过来后关注左侧来车
+5. 平稳：主要是速度慢就可以</t>
+  </si>
+  <si>
+    <t>1. 前20米，人多路口，松油门脚放刹车；慢慢开，眼神，她看到了我要过去，就不让了过去了
+2. 两边都要看
+3. 匀速行驶看对面车是否会变道</t>
+  </si>
+  <si>
+    <t>D14（专家司机）</t>
+  </si>
+  <si>
+    <t>习惯：提前打转向灯；1）先看左边电动车、汽车 2）然后看右边有没有逆行的；3）如果远处有车，根据车速来判断；
+ 出停车场右转：一般50米提前看，
+08：26 R1:87%左右开始给油；
+R2八字右转1:09：11 弯不能拐小，怕逆行；</t>
+  </si>
+  <si>
+    <t>3.5.10秒左右看反光镜；
+-晚上有灯光还能看到有车；
+-速度保持习惯：07.01 大概开40/50，
+-注意力习惯： 红灯绿灯，再决定如何匀速决策；绿灯会加油，但稍微看旁边人行道的红绿灯是否会闪。
+-车距：喜欢跟车，一个车身的距离，7/8米</t>
+  </si>
+  <si>
+    <t>1. 前车慢：想超车，先看左边，预判车速，先打开转向灯。如果车道空，再回车道。</t>
+  </si>
+  <si>
+    <t>1. 算是失误，没有一把过，往右打尽量不压线；
+2. 看路基：确定车头是否可以一把过；</t>
+  </si>
+  <si>
+    <t>D15（专家司机）</t>
+  </si>
+  <si>
+    <t>1. 平时习惯：1）观察拐弯方向相反方向；2）再观察转弯方向对侧；3）如果有隔离墩，后视镜；
+2. 平时观察：1）观察有没有自行车，外卖车；
+右转会更关注一些；
+右转A3: 先看有没有非机动车，提前预判机动车非机动车（19.54.230）；给油意图，斑马线的自行车过完马路后（20.01.846）；
+右转A4: 不看左侧原因是，灯是红的，即使有人闯红灯，对向车会先减速；
+左转L1: 
+左转L2:  (211.56.384) 快速看一下有后面有没有快速的来车；
+右转R2: 先观察左侧，因为现在右侧是红灯；灯变绿了，就减速了；左侧已经直行了，不会再有车了；
+1. 转弯技巧：1）方向盘固定在一个角度，不要拐过来之后扭来扭去；2）出弯道时弯心给油，保证转弯是匀速的；3）回方向盘时顺着车的自己的回弯速度就行；</t>
+  </si>
+  <si>
+    <t>1. 进入辅路：1）左后方有没有来车，2）然后快速进弯；
+2. 进入主路：正常；</t>
+  </si>
+  <si>
+    <t>1. 习惯：如果前面有读秒的红绿灯，会加速；如果没秒数，会正常速度行驶；
+2. 本次的路段：50速度作用；高峰时段不让别人插进来（30公分）；平时的话会保证2-3米的车距；</t>
+  </si>
+  <si>
+    <t>1. 平时驾驶习惯：今天跟超车类似（19.26.888）；
+油门控制：（19.19.216 确定没有车了）停的，(19.22.119 给油 30%-60%， 20% 30%（本MKZ） 不会感到推背感)</t>
+  </si>
+  <si>
+    <t>1. 平时的超车习惯（VIP）：规矩，具备确定左前方，渐进匀速通过；自己会二三十迈超过，VIP的话不让有推背感；
+2. 观察习惯：1）左前方超车距离是否足够；2）要超越的车辆是否有意图超越其他车的意图；
+判断：1）假如想超车辆前车载货，他一定想超车；
+自我意图提醒：1）一直打着左转向灯和闪灯；</t>
+  </si>
+  <si>
+    <t>平时习惯：1）首先确认是否需要观察信号灯；2）可以将车身往右，确保可以一把过；3）</t>
+  </si>
+  <si>
+    <t>1. 无交通信号灯十字路口：1）确定目视范围内有没有危险的东西；</t>
+  </si>
+  <si>
+    <t>D16（专家司机）</t>
+  </si>
+  <si>
+    <t>右转：先看左侧（来车）再右侧（同向的非机动车、行人等），（习惯扫视）//////////很早看右侧非机动车。然后看左侧再右侧，转弯后没有选择超车，担心前车不稳定。
+左转：1）关注左前对侧车辆；2）
+柔刹：贴着刹车，不是点刹；提前收油；
+右转A4: 综合看，右边也会看，注意非机动车；
+L2: 看右边，是因为注意到有人；看见路口，怕有人；
+右转R2: 不看左边的原因是，绿灯，左边不会有车；</t>
+  </si>
+  <si>
+    <t>很早看左后后视镜，但草丛影响视野，且扭头范围很大，除了看后视镜，还会直接看车窗外，能看过草丛后情况；</t>
+  </si>
+  <si>
+    <t>城市道路40-50，城市道路通常跟车跑，60码以上可能会跑70米左右，40码可能跟车50米，环线上高速行驶顶着限速跑，并且可能突然堵起来，车距大约100米，防止这种情况</t>
+  </si>
+  <si>
+    <t>今天没有变道超车；
+超车条件：1）观察车辆前方，前车的前车；同时扫描左前方车道的车，看有没有肉的车；
+超车过程中观察的：
+超车过程中的操作：1）打转向灯；脚的油门处于松弛状态；2）观察前车会不会也有相同的超车意图；</t>
+  </si>
+  <si>
+    <t>红绿灯掉头看黄线虚实是否需要压斑马线、考虑车身长度以及转弯半径，或者是否能进辅路，红灯时只需要注意左侧右转车和右侧左转车，绿灯看对向车，掉头中提前刹车、控车距等保证乘客舒适度</t>
+  </si>
+  <si>
+    <t>D17（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：先向左看（左侧来车，机动车）后向右看（路况、非机动车等等），左边没车的话直接往右看打直了////左转：先看右窗，看右侧来车，然后看左后视镜确认一下后方车况/////进四环右转，右侧有一辆闯红灯的非机动车，如果距离较远的话自己可能会直接避让，但这量非机动车也不减速直接冲出，自己就停下避让了，且转弯直接转进中间车道，因为认为右边非机动车太多，想离它们更远一些。</t>
+  </si>
+  <si>
+    <t>看左后视镜（左窗），没车的话会直接并到最左边，脚基本放在刹车上，有一个后侧来的白车在视线盲区，没有注意到，在进主路过渡区踩了一脚刹车；且到了过渡区尽头还没有进入主路，到了尽头需要猛打方向盘进入主路</t>
+  </si>
+  <si>
+    <t>城市道路在40-60左右，车况好会到80，跟车距离通常比较近，一个车身的距离左右，自己能确定可以刹停即可；ps今天行驶过程中猛踩了几下油门，试一下车，而且考虑到今天有乘客，跟车相对自己平常驾驶会稍远一点；直行习惯靠左行驶，近乎左侧压线</t>
+  </si>
+  <si>
+    <t>喜欢提速，会猛踩油门</t>
+  </si>
+  <si>
+    <t>车距比较远的时候可能不会打转向，直接打方向盘过去了；基本按交规左侧超车；虽然要右转还是左侧超前车，超车超的很快很迅速的给油门，看左后视镜有没有车，超完后尽量马上回原道，按喇叭提醒后车自己在超车，避免后车再突然提速；超车后没再看右后视镜因为后车一辆大车占道，认为右侧不会再来车</t>
+  </si>
+  <si>
+    <t>不太喜欢等红灯掉头，一把掉不过去，掉之前往右靠了一下，让雕图空间更大一些；且今天车比较少，自己需要看一下后视镜，确认后面有没有车，需要稍微倒一下车再继续掉头；（雷达响的太敏感）；转弯后要倒的时候来回看左右侧后视镜</t>
+  </si>
+  <si>
+    <t>先看左右两侧，也会看对向来车</t>
+  </si>
+  <si>
+    <t>D18（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：先看左边有没有来车，或者对向有没有左转，这一类将驶入同向的车，最后看右侧非机动车等。通常进弯前就松油门，必要时转弯过程中会踩一点油门，要出弯车较少时会开始踩油门。转弯转的很大，认为更安全一些，因为离驾驶位比较远，距离难以判断，也给行人更多一些反应时间，可以多看一点后视镜。</t>
+  </si>
+  <si>
+    <t>车多时会在路口停一下，车少会加速直接驶入，更习惯从左侧车窗看，视野会更好，左后侧有一辆黑车让它先通过了，还有一辆和自己速度持平的</t>
+  </si>
+  <si>
+    <t>规避其他车辆，和前车会离很远，如果前方车很近会超车，会低于限速标准开，且驾驶比较激进，具体速度喜欢参照其他车来开</t>
+  </si>
+  <si>
+    <t>提速通常比较快</t>
+  </si>
+  <si>
+    <t>判断一个安全距离进行超车，主要是车头和对方车尾的距离，会给对方留10到20米反应，高速时超车距离会更远。不要急打方向，尽量不要踩刹车，超车超出前车一半的距离就会松开油门，并且脚会放到刹车上准备踩，但也不能直接明显降速。</t>
+  </si>
+  <si>
+    <t>为了保证安全会自己最后再转，先让其他车先走，（四方都有车时），发现提前向右打一下方向能够一把掉过来///有一辆大车挡住了直行道，认为很安全，没有驶入的直行车//////雷达报警过于敏感可能让乘客有心理压力</t>
+  </si>
+  <si>
+    <t>D19（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：路口前减速先看主路路况，判断其他车辆距离预估自己能否直接行驶通过（不会持续关注左边，因为视野较大），再往弯的内侧（右侧）车窗看，更加注重一些行人、非机动车及地上的障碍物，同时要确保车尾也能完全通过，因此也会开的稍靠前转较大的弯（脚后跟过了停止线）。方向调整基于一个pid原理。转向前打方向较快，回方向盘时候方向回正较慢。刹车会建立压力感受前轮的抓地力，然后达到预计峰值，最后会慢慢松刹车。油门控制也是逐步达到预期峰值的过程，类似刹车，先是一个试探的过程。/////////左转：先左后视镜，确认后方有没有超车，然后往路口里（自己即将驶入的方向看（突然出现的车辆），最后再往右看（默认右侧出现的车会更慢，而且往右看只是为了验证而不是为了预防）。也是先滑行减速，带一点刹车，开始打方向后会松开刹车。</t>
+  </si>
+  <si>
+    <t>先观察左后视镜，直到汇入口，再扭头往主路看，因为在车头偏离时后视镜有盲区。且自己驶入主路后有一辆突然出现的车，在后视镜盲区完全没有提前注意到，松了油门没有踩刹车，认为踩刹车收益并不高，已经刹车晚了，而且刹车会影响舒适性，自己会选择打一下方向，且自己处理方式的判断基于白车速度比自己车速更快（自己任何在反应时内的行为收益都不高，认为打方向会比踩刹车更快，表现在对车的控制上以及自己的反应上</t>
+  </si>
+  <si>
+    <t>会扫视三个后视镜，不会刻意关注车速，而是关注油门的恒定开度，其他油门控制取决于路况速度需求，也会逐渐加油门感知加速度，因此感知速度主要靠体感加速度以及车外动态环境。车距保持两个车身左右</t>
+  </si>
+  <si>
+    <t>会根据有没有乘客，自己开的时候加速会很快，基本直接踩到预期加速的位置，但有乘客时会缓慢加速</t>
+  </si>
+  <si>
+    <t>首先要判断前车的意图（变慢的原因），比如走走停停，它可能是要找停车位，可能靠边或者要掉头；突然刹车这一类基本是需要停下；刹车灯没亮时认为车主可能会走神，不会主动超车，然后车靠左行驶（超出边线）给前车一个信号，如果前车刹车灯亮了或者向右，则认为前车看到自己将要超车；还会关注视野，如果是在特殊路况（幼儿园，公交车站）这一类的慢速行驶自己也会担心存在鬼探头；以及注意左侧车道路况，相对距离变大或者后车较远自己会采取超车</t>
+  </si>
+  <si>
+    <t>提前向右靠，给一个更大的掉头空间，主要关注要调入的方向的车道，掉头前看左后视镜，然后看左车窗（都在打方向之前），认为对向来车很早会提前观察到，松油门滑行，确定轨迹能一把掉过去后会加速调过去，甚至比预期的转弯半径更小就会加速出弯。（自己会有一个风险收益的衡量，认为即使调不过去也只会碰到绿化带，所以尝试一把调，判断距离靠车窗右下角）判断右侧车辆也会给自己留空间掉头，依据车与路的标线距离。看了一下人行道，主要觉得自己有认知盈余，所以会多关注一下行人。</t>
+  </si>
+  <si>
+    <t>D20（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：可能先看右边的后视镜（行人、非机动车），再看上面的后视镜（因为常开suv，上方后视镜视野广），基本不看左后视镜；先观察正中心离自己最近的车辆，然后看左右（无顺序的扫视），离车道左侧很近；T字路口右转只会看右反光镜来注意辅路情况；打方向会一点点调整而不是一下转很大，自己转弯会尽量划直角（拐大弯），在弯中间就会开始一点点回正方向了（会自己带一点力）；转弯前已经减速了，脚会一直在刹车上但可能不会踩，超过人行横道之后才会开始加速//////////左转：转向前会左右看还有前方路况（行人、自行车等），拐到一半时看右反光镜（看右侧直行车、后方非机动车等）；对向车道没车、非机动车没人没车的时候会走小弯</t>
+  </si>
+  <si>
+    <t>提前50米左右就会打转向灯，然后提前看主路情况，依然贴近左侧开，担心右侧突然出现行人、非机动车（鬼探头类），不看中间的后视镜，会刹车、看左反光镜，看主路车辆情况决定自己在辅路过渡区域的哪个部分进主路，直接并到主路最内侧车道了，因为发现这个车道没有车，</t>
+  </si>
+  <si>
+    <t>市区限速60左右的没摄像头时候可能会稍微超速到80，环路车况好可能会开更快（也会超速，一直偏左侧行驶（车上乘客可能会感觉更安全），行驶中和前车距离比较近（一个车身）</t>
+  </si>
+  <si>
+    <t>往左车道超车时候前先看左反光镜，然后看中间的后视镜（能看到后面几个车道的情况），目测一下后车的距离还有速度，速度和距离够的话自己就会加速超车（在观察后车的同时基本已经开始变道了），没有超车条件后会再把速度降下来，道路空旷和车上有人时候自己会变方向比较慢，但和左后方车车距很小的时候会猛打一下方向，油门刹车轻重取决于车型</t>
+  </si>
+  <si>
+    <t>会往右靠一点，然后看中间的后视镜（看后车），然后看对向道路来车，其他左转右转车辆都会看（要驶入和自己相同车道的所有车），左右反光镜都会看（没有顺序，取决于路况），向右靠目测距离够了之后会直接往左打死，然后会主动回正而不是仅用方向盘自己回正的力，而且很早不踩油门了，靠带速走；对向有车时自己会先探出车头，让对向的车看到自己要掉头，车身完全掉过来有足够空间后就会开始踩油门</t>
+  </si>
+  <si>
+    <t>（没信号灯的）整个大视野都会很关注，前方、左右都回看，包括反光镜、车窗等等，没有观察顺序，都会观察，速度也会变慢，认为左右转没什么区别，在这种路况可能会更注意行人（突然要走或者又停下的行人）
+到路口（任何行人可能出来的开口处）自己都会习惯踩一下刹车</t>
+  </si>
+  <si>
+    <t>D21（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：先看左侧正常行驶车辆、行人，其中重点关注外卖非机动车，确认可以通过后会关注自己右后侧的外卖车和行人。通常拐弯前在人行横道前或停止线前就会轻踩一下刹车，无特殊情况就会直接转过去了，拐弯时可能会轻踩一点刹车，主要靠车带速通过，确认左后方没有车辆了会给油，方向盘打到一定角度后就会一直保持，在实验中会让方向盘自己回正，但实验中还是主动将方向盘回正了。基本不看左后视镜////////左转：区别，左侧会有来车，不会看左右后视镜，主要开左右和前车窗，先关注右侧来车，确认右侧可以通过后，马上看左侧有无直行车辆。</t>
+  </si>
+  <si>
+    <t>提前通过左侧车窗看主路情况，主要是为了避免看不见和自己并行的车，然后会减速，到了进主路的口基本会刹停（不管主路有没有车），然后通过左后视镜看主路情况判断自己什么时候驶入主路，方向盘通常打很小，不会猛变方向</t>
+  </si>
+  <si>
+    <t>习惯在车道中间行驶，城市内车速40-60之间，通常油门保持一个力度就不动了，不太会选择溜车，车距习惯保持一个车身，堵车时为了避免被加塞，会有意缩短车距</t>
+  </si>
+  <si>
+    <t>根据前方路况，或者右侧有没有入口判断自己要不要加速，比自己均速行驶的时候会观察更多。会慢慢踩油门，不喜欢突然加速，必要情况下可能会踩的实一点但也不是猛加速</t>
+  </si>
+  <si>
+    <t>有护栏全是同向行驶车辆时决定要超车时先看左后视镜，借道超车时会探出车头观察对向有无车辆，会超出前车半个到一个车身让后车看到自己的转向灯才会并回原车道，并且回原车道只看右后视镜</t>
+  </si>
+  <si>
+    <t>过了栏杆后关注对向车道情况，并且靠车道右侧行驶，基本不看后视镜了，因为自己不会给后面的车留出掉头的空间，基本过了栏杆自己就掉头，确认能掉头了就会把方向盘打死（不会停下车来打方向），靠带速通过，油门基本不踩，实验中差不多掉了一半了就开始倒车了（会正倒）掉第二把了，判断能不能一把过全靠感觉，没有参照物。再起步时自己就会踩油门加速直行（担心自己掉头太久会造成堵车），车很少的时候自己不会主动加油</t>
+  </si>
+  <si>
+    <t>D22（普通司机）</t>
+  </si>
+  <si>
+    <t>右转：过停止线后视野范围充足时（停止线前也在看，可能五米左右开始打转向灯，但视野可能受限），先看左边来车（通过左车窗和挡风玻璃，主要看机动车，但非机动车也会观察到）再看右边非机动车和行人，车头快要出弯时开始看左后视镜。（关注非机动车更多，认为更危险，尤其是又后视镜看到的非机动车）拐弯幅度正常，习惯左手单手开，只有方向盘需要急转时会两只手控制。转弯前5米左右，脚开始放在刹车上但不一定踩不踩，根据路况决定是否踩刹车。过停止线开始打方向，习惯一边向前开一边转，车快打直时将方向盘回正，看车的情况决定是否需要主动给力回正方向盘。往回打方向盘的时候就会开始给油，车身基本打直后会踩油门更深一点。担心转弯时车飘了所以油门和刹车都会慢踩。//////////左转：也是看左右，但可能右侧没车实验中只看了左侧</t>
+  </si>
+  <si>
+    <t>看左后视镜来看主路的车，会踩刹车，进入主路后会提速</t>
+  </si>
+  <si>
+    <t>限速多少开多少，可能会超速20%以内，而且会习惯超车，车距习惯保持25米左右</t>
+  </si>
+  <si>
+    <t>路况较好时会油门会踩很重，达到预期速度时会基本送开油门溜车。</t>
+  </si>
+  <si>
+    <t>前方车明显低于限速水平的时候会习惯超车。习惯：先看左后视镜，没车先并到左侧，看原道前车情况，是单纯低速还是前方多辆车堵住，然后加速（油门也踩比较急），可能基本会在这个车道上继续行驶了，该车道前方有车才会开回原道。后视镜中能看到左后侧车的距离25米左右，判断可以超车。方向通常打很快变道。并回原道可能需要自己车身超过前车大半个车身后可以回原道，打方向也很大。（四环路有超车）</t>
+  </si>
+  <si>
+    <t>先向右打一点方向基本车轮压倒右侧实线的位置，红灯掉头基本直接打过，绿灯时观察对向来车，其他方向来车以及行人非机动车等等，更关注对向更靠近自己车道的来车。转弯自己掉头转到一半的位置后（车基本横过来时），自己就不会管其他方向车辆了，尽量自己快点通过。保证两个车道都没有车时候才会掉头。全程可能带一点油门，或者带速通过，可能轻踩一下然后脚放刹车上，看一次能不能通过，方向都会直接打死，出弯方向往回打的时候就会开始踩油门，或者掉两次的情况倒车结束后也会开始踩油门。可能看后视镜防非机动车。</t>
+  </si>
+  <si>
+    <t>无信号灯路口：一直看前方和右后视镜，然后直接右转了，快转过来后会浅看一下左后视镜</t>
+  </si>
+  <si>
+    <t>D23（普通司机）</t>
+  </si>
+  <si>
+    <t>1. 观察：右转弯习惯：转之前，慢下来看左侧来车，机动、非机动。在停止线之前减速。油车就停，没有就继续转。减速取决于路况。右边很容易看到，主要关注左边。转之前会先看右前方。
+车多：刹停，不多-步行速度
+2. 方向盘：预计车少-一边观察一边转；预计车多：先观察。今天介于两者之间。一边转一边加方向。左右调整。回方向，还差20-30°摆正的时候。
+3. 油门：回方向开始补油了。</t>
+  </si>
+  <si>
+    <t>1. 盲区：左后方先看一下。
+2. 慢慢切近主路，
+3. 刹车：进过渡区之前就刹。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 旁边的车速度为标准， </t>
+  </si>
+  <si>
+    <t>1. 路上有车，车的速度，没车，限速，保持恒定速度</t>
+  </si>
+  <si>
+    <t>这次没有变道超车。
+看后视镜，看后面的车，安全，就并过去。超车后尽可能留在超车道。
+油门速度提到限速或其他车的速度。限速速度不够超车，那就没必要超。
+后视镜能完整看到车的车头，代表安全了。</t>
+  </si>
+  <si>
+    <t>1. 开始掉头前确保没车，两个车道都没车
+2. 先刹停再起步
+3. 30°左右掉头加油、回方向：取决于路况
+4. 向右借道，获得更多掉头空间</t>
+  </si>
+  <si>
+    <t>1. 先看右边，行人</t>
+  </si>
+  <si>
+    <t>D24（普通司机）</t>
+  </si>
+  <si>
+    <t>右转弯驾驶习惯：
+1）观察右后视镜镜有没有非机动车，2）然后会计算转弯的力；3）不看左后方；
+实验驾驶操作：
+30米(05:52) 观察右后视镜；
+（05：50 / 05:58）开始刹车，开始看左前方；
+右转比左转更难，因为要看非机动车。
+方向盘习惯：
+慢慢线性达到位，边走边打方向盘。回方向盘，60°时，通常通过阻力把车线性回方向盘。当有速度损失的时候，开始补油门。
+A3右转：看不见后视镜，靠车窗。
+A4右转：
+右转：提早刹车；</t>
+  </si>
+  <si>
+    <t>平时驾驶习惯：
+实验操作：
+1）观察，通过眼睛余光瞟一眼，车速快不快，堵不堵车。包括左后视镜。
+2）操作：后面完全没有车，直接连续向左变道至最左车道。</t>
+  </si>
+  <si>
+    <t>平时驾驶习惯：
+1）车速，跟着前车的驾驶速度。保持车流是最安全的方式。
+2）车距，不太近也不太远。不能一概而论。跟时间段有关。享受匀速的感觉。（大概20米）
+3）习惯在路偏左。尽量让车贴近左边。</t>
+  </si>
+  <si>
+    <t>平时习惯：
+1）油门，找到引擎舒适区，让转速和动力都很均衡。3000转？2500转？让汽车地输出功率是恒定的。
+2）会加速到当前道路限速。</t>
+  </si>
+  <si>
+    <t>平时习惯：
+1）超车会选择一个相差速度更大的时候，尽可能快地超过它。
+2）观察：超车道后方有没有车，前面地车有没有变道，蜗牛车前面的车有没有变道意图。
+3）习惯，不会把车往左一点点看前车。
+4）后视镜一点点的时候，左快速变道。尽快超车不超过5秒，smart车的时候要给地板油。
+10:50 超车；
+11：37 超车非机动车；</t>
+  </si>
+  <si>
+    <t>驾驶习惯：
+1）追求越快一把过；
+2）观察：对向车流，会综合评估。如果对向车道的车快慢不一，就会不掉头。
+3）还会观察右面的路口；通过右前车窗，不靠后视镜。靠头大幅度地转。
+4）方向盘打死，不看右后视镜。
+5）不靠怠速走，会让车充满动力。</t>
+  </si>
+  <si>
+    <t>无交通信号灯路口：
+1）观察：哪里车辆密集，东西速度快，就看哪里。</t>
+  </si>
+  <si>
+    <t>先踩刹车，刹车慢下来再打方向盘；分左右转向情况，弯中间会补油。
+//回方向习惯慢一些，靠着轮胎带着方向盘回，根据车速，一般单手搓。
+//先车头探出去，便于观察直行的机动车和非机动车。</t>
+  </si>
+  <si>
+    <t>感觉视野盲区多，看不到路，要探身先往前开，慢慢往里进，看到视野盲区的车再做决定</t>
+  </si>
+  <si>
+    <t>前面没车的时候仔细查看路口清空，踩着刹车走。前面有车会跟车，如果前车能过那我也能过去。</t>
+  </si>
+  <si>
+    <t>右转，先看右后视镜没有行人车辆，会快速通过，通常不会过于注意左边，只会大约看一眼，先看左后看右。左转反之。认为右转比左转容易，可能因为是右利手原因，右手右转打方向盘更容易。
+//进辅路没有很在意道路内侧后方非机动车，且发现其有减速意图。
+//路况比较好的时候没有减速习惯，甚至个别情况还会稍微加速。</t>
+  </si>
+  <si>
+    <t>掉头前主动向右侧打方向了，凭感觉估计和右侧车距离。没有避让后侧转进的车，认为车距离较远。一把掉头成功。</t>
+  </si>
+  <si>
+    <t>有人过路口我会完全的让行，比如这个人在往斑马线走，那哪怕是绿灯我也得停下。</t>
+  </si>
+  <si>
+    <t>先减速，多注意视野盲区，比如绿化带和路边车辆。
+//右转：左右观察都很多，但更注重右侧，因为左侧视野很大，扫一眼即可，而右侧视野逐渐变小，很担心拐弯后路上的逆行非机动车。
+//车流多时转弯仅能慢慢往前蹭，才能别住非机动车。
+//左转：左右反光镜都多次观察///右转进四环很早看左侧的自行车，防止停下准备直行的车辆后影响视野，挡住突然冲出的非机动车这类。</t>
+  </si>
+  <si>
+    <t>进主路过度阶段很长，因此不直接往里切，在过度区域前行至后视镜视野清楚后才进主路。</t>
+  </si>
+  <si>
+    <t>超车一定不能犹豫，必须给油门超过。</t>
+  </si>
+  <si>
+    <t>看右后视镜为了先往右打一下，掉头过程中停了一下为了避免速度过快一把转不过，并且多次看左后视镜，担心左侧其他掉头车辆等。
+//很早观察掉头方向的路况。</t>
+  </si>
+  <si>
+    <t>无信号灯路况：直接跟前车右转，而且明确看出行人站住不动，且看右后视镜有无后方非机动车</t>
+  </si>
+  <si>
+    <t>右转弯：先看右边后视镜，有无行人和非机动车，再看左前方直行车辆，确定左边没车后将车头探出。之后不用看左边，只用看右边，没人没车转弯就可以。因为左边的车肯定能看见我。
+//左转会观察左前方非机动车是否会碰到左车头或车门的位置。</t>
+  </si>
+  <si>
+    <t>看不到主路路况，先降速，慢慢开，等到能看见的时候，确定没车了，就赶紧变道。后方有车情况一般选择让行。</t>
+  </si>
+  <si>
+    <t>有意向右打方向。看车距，让行对面车辆。较近车道无车时会先用车身占住车道，一把完成掉头。</t>
+  </si>
+  <si>
+    <t>右后视镜看不见，车速降到很慢，转弯让行直行非机动车。</t>
+  </si>
+  <si>
+    <t>右转：先看左再看右，左侧注意直行来车，比较注意右侧可能有逆行的车辆、非机动车、行人。
+//会主动避让行人</t>
+  </si>
+  <si>
+    <t>从左反光镜看后侧来车，打转向灯逐一变道，不连续变道。</t>
+  </si>
+  <si>
+    <t>看红绿灯，对向有车会先避让，掉头过后会看后视镜。</t>
+  </si>
+  <si>
+    <t>先看左后看右，脚一直在刹车位置上，就车速慢一点，脚一直带在刹车上就行，然后就左右两次观察就行，主要就是看你这个A柱盲区这块。</t>
+  </si>
+  <si>
+    <t>右转：先看左边的自行车和机动车，同时会注意右边，因为右侧有很多非机动车逆行（辅路上），路口右侧非机动车很多，整体观察左边更多。
+//左转：弯比较大，视线比较好，看右边比较少，还是更注意左边。
+//很早看后视镜，路口前15米左右观察辅路情况，看后车车速，停了一下看辅路非机动车情况，后视镜视野完全清晰后才转弯通过。
+//优先让直行</t>
+  </si>
+  <si>
+    <t>先看左后视镜，主要关注后侧车的车速和距离，后车车速快可能会停下，其他情况基本加速通过。</t>
+  </si>
+  <si>
+    <t>习惯靠护栏走，因为很少有突然出现的车、行人等，基本按限速开，偶尔可能会超速，40码城市道路习惯保持的车距是2个车的距离，60码基本两个白线的距离，80码近似保持两个半车身的距离。
+//高速上车距不超过100米，习惯开130/140迈。</t>
+  </si>
+  <si>
+    <t>习惯看对向来车，绿灯基本优先让对向车先走。因为前面大车掉头可能困难，自己也没有向人行道上开掉大弯。</t>
+  </si>
+  <si>
+    <t>没有信号灯所以要先看左边，直到左侧车辆都要右转时有足够时间穿过后开始看右侧。</t>
+  </si>
+  <si>
+    <t>右转：先看左边，主要是非机动车，其次看机动车，再看右边行人或者逆行的非机动车
+//左转：也先看左边，要并入直行之后才会看右边。</t>
+  </si>
+  <si>
+    <t>看左后方的机动车，看到后车有一个安全距离之后就会加速通过进入主路。</t>
+  </si>
+  <si>
+    <t>比限速低一点点，郊区可能开到100码左右。
+//80码行车可能保持三个车身左右，15米左右；60码保持两个车身，10米左右</t>
+  </si>
+  <si>
+    <t>只会往左边超车，看左边后面的车距判断能否安全超车。</t>
+  </si>
+  <si>
+    <t>提前往右打了方向且后面没车，划了大圈一把掉头通过，且红灯掉头对向没有来车。</t>
+  </si>
+  <si>
+    <t>无信号灯路口左转：先看人行道上的人，再看左侧再看右侧有无来车。</t>
+  </si>
+  <si>
+    <t>我肯定先看看人行道这有没有人要过来，然后看看左边有没有车过来，两边路况看清楚。
+//边走边准备好让道。要看看斑马线两侧有没有行人。有行人通过基本上就是停车状态，一是让行，二是观察。</t>
+  </si>
+  <si>
+    <t>打转向灯减速，通过后视镜观察。因为这种情况下后视镜是看不见这边有没有的，是因为这个草丛挡着，不能说贴着它就往外拐，那这种情况就慢慢的往里贴。</t>
+  </si>
+  <si>
+    <t>看后方有没有车，和后方车辆的速度，情况允许超车就超车。</t>
+  </si>
+  <si>
+    <t>防加塞，保持半个车身的车距。虚线要比实线近一点，因为要放插队。
+能否一次性完成掉头，能掉，就往右贴，不能掉，就不贴；尽可能一次性完成掉头。</t>
+  </si>
+  <si>
+    <t>我过路口的时候我都得踩脚刹车，把速度降下来，我都得看看有没有闯红灯的。有没有逆行的？
+我不管走到哪个路口，行人过马路还是要贴着我的车拐弯。首先我会踩一脚让他一下，看看他到底怎么着，如果说他要过马路，我要让他一下，他又没反应。他也不走，我又有充足的空间和时间能过去，那我那种情况下我会走。</t>
+  </si>
+  <si>
+    <t>右转：余光看有没有人，有没有车，再过；先看左边，右边余光能看到，不会特意看。</t>
+  </si>
+  <si>
+    <t>先打灯，看左边，先摆正车在缓冲段，看后视镜。</t>
+  </si>
+  <si>
+    <t>习惯在最左侧开，往右超车。</t>
+  </si>
+  <si>
+    <t>右边没有车就往右打方向，一次性完成掉头。
+//感觉车头不会碰绿化带。</t>
+  </si>
+  <si>
+    <t>速度会比较慢一点，看到行人后会停车，让人先过</t>
+  </si>
+  <si>
+    <t>右转：看左边更多一点，特别是直行路上有车的时候，会有一个提前的判断。</t>
+  </si>
+  <si>
+    <t>进主路有辆车挡住了，想让这辆车先过，但发现这辆车有2-3秒停住没动，判断应该是要让行，所以加速通过了；且在主路后方没车的时候习惯一次性并入最内道。</t>
+  </si>
+  <si>
+    <t>除了慢，就是要多观察，对向车道，横向车道都要观察，这是习惯</t>
+  </si>
+  <si>
+    <t>在转弯之前很早就会看左右侧反光镜；右转：先看左边（主要看左边），右边会看一眼防止右侧逆行外卖车，转弯会轻带着一点刹车，为了预防一些突发情况，在车转弯后车身基本竖直的时候会加速，不会让方向盘自己回正，防止车晃，会主动控制方向盘的力度；右转有绿化带干扰时实际更喜欢看右后窗，原则上应该停住让非机动车，但自己更喜欢带着一半的刹车。一定要把车头顶出来，大约占道一半左右，给后侧行人和非机动车一个信号。
+//右转：前面有一个摩托车堵了车道，实验中从车右侧超车了，但是可能突然绿灯摩托车起步可能会撞到自己，但实际自己会借非机动车道会更安全。
+//转弯前有时不会完全降速，会让自己左右看的频率更高，第一遍看路况，第二遍是再确认一下。
+//右转发现左侧红灯时，就会主要看右侧非机动车，甚至大路口自己会停下让右侧直行非机动车，由于这些时候非机动车通常会赶灯。绕大圈，车速慢，所以方向盘也不用打的很快。</t>
+  </si>
+  <si>
+    <t>看左后视镜不断并线，由于后侧有车，且绿化带干扰视线，并道时基本没给油，也没踩刹车。
+在后车超过时，且看到该车车尾时会开始给油加速；如果与后车车距足够时候会主动给油；</t>
+  </si>
+  <si>
+    <t>保持车距，三四个车位的时候脚就会准备带刹车了，让车头保持其他车辆难以加塞的距离；路况好的时候会顶限速开；</t>
+  </si>
+  <si>
+    <t>没有在路口掉头，先不断看右侧，尽量让车往右靠，然后对向绿灯，一直看对向来车，掉过来之后挂倒挡前应该先看右边，可能有刹不住的大车；掉头过程中一直看左边。</t>
+  </si>
+  <si>
+    <t>无信号灯路口右转：先看左后看右，对向车打了右转灯所以没让；左转：先看左再看右
+//这类转弯观察优先级是车&gt;非机动车&gt;人（因为他们的速度以及可能对自己造成的 风险等级）
+//过人行横道时都不会给油，减速，脚会在刹车上准备但通常不会踩；路两边有单位出入口等都会准备刹车，担心突然驶出的车，很早会有一定的防范意识。</t>
+  </si>
+  <si>
+    <t>转弯时会看车窗比看反光镜更多，先看左后看右，同时会看反光镜，车身转正后且左右侧保证安全后才会加油门；转弯让直行，车多时可能会以近似停下的速度转弯，可能会踩30%到80%左右的刹车。
+//提前知道要右转后，提前100米左右开始观察右侧辅路。
+//T字路口无信号灯左转很担心右侧突然驶过的直行车辆，也不能过度减速，要结合距离控制速度，避让非机动车。
+//四环路口：先看右边非机动车道、再看人行道行人，会让直行机动车和非机动车。
+//右转：先看辅路，用余光看主路。</t>
+  </si>
+  <si>
+    <t>提前很早打转向灯，且逐一并线，发现后车有超车意图，又发现后车返回原车道，自己继续并道。</t>
+  </si>
+  <si>
+    <t>城市道路保持20米左右车距，大约三个车身。</t>
+  </si>
+  <si>
+    <t>尽量都不超车，超车、并线很容易发生事故。</t>
+  </si>
+  <si>
+    <t>还有50米左右要停的时候已经收油了，准备开始慢刹车。车少，所以留了较大车距掉头，不担心加塞问题，掉头前靠右侧开所以一次性掉头，且车身掉头之后一直看左反光镜。</t>
+  </si>
+  <si>
+    <t>【出停车场】
+1.先左再右，看对面，习惯。
+2. 出停车场踩着刹车，拐弯一般，10-20%；人、车移动的东西都观察，一扫而过，用余光扫。
+3. 方向盘：一定的速度内，一定要缓，顺势；握方向盘左手转到一个点后，右手接上，手托在方向盘底下；
+【路口转弯+辅路】
+1. 提前踩刹车；先脚踏在油门上没踩下，油门给得很轻，看到行人提前收油，脚放刹车。
+2. 过弯前看左边，辅路后面的大概情况，看右后侧反光镜看右后方来车（自行车）
+3. 刹车上放着脚，转过来后切换到油门，轻轻给油门；
+4. 外卖小哥，突然从后面出现，我在自己的道上，避不开，看到之后会收油，不踩油门，让他先过，加油门会撞上。
+5. 靠边逆行非机动车，不管。
+6. 30-40米开外前车亮刹车灯，先松油门，脚放刹车，迫不得已才会急刹。
+【掉头后右转】
+1. 观察右后方有没有车，观察辅道的车。
+【无红绿灯左转】
+1. 左右观察，行人、非机动车更注意
+2. 先关注左边，再右边</t>
+  </si>
+  <si>
+    <t>1. 关注左后方
+2. 丝滑进主路，车轮搭到主路时，一般开始回方向盘，四轮都在主路上，给油门；要有自己的路权再给油门。</t>
+  </si>
+  <si>
+    <t>1. 看红绿灯：直行红灯，150米就松油门，慢慢减速，比加塞更重要的是稳。
+2. 有加塞，轻点油门，停稳。</t>
+  </si>
+  <si>
+    <t>1. 油门平稳一点，慢慢踩，判断下个路口的操作，做一些预防措施。</t>
+  </si>
+  <si>
+    <t>1. 判断能否一次性掉头。
+2. 关注对向来车、行人。
+3. 先看车头离马路边缘的距离，然后看周围。
+4. 掉头过来后关注左侧来车
+5. 平稳：主要是速度慢就可以</t>
+  </si>
+  <si>
+    <t>1. 距离路口20-30米开始判断路口状况，人多的路口立刻松油门脚放刹车上。以备随时停车。
+2. 两边都要看
+3. 匀速行驶看对面车是否会变道</t>
+  </si>
+  <si>
+    <t>习惯：提前打转向灯；1）先看左边电动车、汽车 2）然后看右边有没有逆行的；3）如果远处有车，根据车速来判断，
+一般50米提前看。弯不能拐小，怕逆行；</t>
+  </si>
+  <si>
+    <t>到了路口，那我都会尽量踩刹车减速。减速以后我就会稍微歪一下脑袋看远一点。看远一点儿，看着远车的车速，如果没有车，我就会直接进来打着转向灯，如果看有车过来。我就会我提前打转向灯，然后我直接就停下。你先走，让过去我再上。</t>
+  </si>
+  <si>
+    <t>3.5.10秒左右看反光镜；
+-晚上有灯光还能看到有车；
+-速度保持习惯：大概开40/50，
+-注意力习惯： 红灯绿灯，再决定如何匀速决策；绿灯会加油，但稍微看旁边人行道的红绿灯是否会闪。
+-车距：喜欢跟车，一个车身的距离，7/8米</t>
+  </si>
+  <si>
+    <t>1. 算是失误，没有一次性掉头，往右靠近尽量不压线；
+2. 看路基：确定车头距离，判断是否可以一次性完成掉头；</t>
+  </si>
+  <si>
+    <t>到路口一定要减速，这是最基本的，我肯定是先减速。要往右拐。我就先看左边。看完左边以后，我再看一眼右边，然后我再看左边。有非机动车过来我就停下，等它过去再走。</t>
+  </si>
+  <si>
+    <t>1. 平时习惯：1）观察拐弯方向相反方向；2）再观察转弯方向对侧；3）如果有隔离墩，观察后视镜；
+2. 平时观察：1）观察有没有自行车，外卖车；
+右转会更关注一些；
+右转A3: 先看有没有非机动车，提前预判机动车非机动车；给油意图，斑马线的自行车过完马路后；
+右转A4: 不看左侧原因是，是红灯，即使有人闯红灯，对向车会先减速；
+左转L2:  快速看一下有后面有没有快速的来车；
+右转R2: 先观察左侧，因为现在右侧是红灯；灯变绿了，就减速了；左侧已经直行了，不会再有车了；
+1. 转弯技巧：1）方向盘固定在一个角度，不要拐过来之后扭来扭去；2）出弯道时在弯的中心给油，保证转弯是匀速的；3）回方向盘时顺着车的自己的回弯速度就行；</t>
+  </si>
+  <si>
+    <t>1. 习惯：如果前面有读秒的红绿灯，会加速；如果没秒数，会正常速度行驶；
+2. 本次的路段：50公里时速，高峰时段不让别人插进来，车距30公分；平时的话会保证2-3米的车距；</t>
+  </si>
+  <si>
+    <t>1. 平时驾驶习惯：今天跟超车类似；
+油门控制：确定没有车了，给油 30%-60%， 20% 30% 不会感到推背感</t>
+  </si>
+  <si>
+    <t>平时习惯：1）首先确认是否需要观察信号灯；2）可以将车身往右，确保可以一次性掉头；</t>
+  </si>
+  <si>
+    <t>右转：先看左侧来车，再再右侧，也就是同向的非机动车、行人等，习惯来回扫视。转弯后没有选择超车，担心前车不稳定。
+采用柔和的刹车方式：贴着刹车，不是点刹，提前收油门；
+右转A4: 综合看，右边也会看，注意非机动车；
+L2: 看右边，是因为注意到有人；看见路口，怕有人；
+右转R2: 不看左边的原因是，绿灯，左边不会有车；</t>
+  </si>
+  <si>
+    <t>很早看左后视镜，但草丛影响视野，且扭头范围很大，除了看后视镜，还会直接看车窗外，能看过草丛后情况；</t>
+  </si>
+  <si>
+    <t>城市道路40-50，城市道路通常跟车跑，60码以上可能车距70米左右，40码可能跟车50米，环线上高速行驶顶着限速跑，并且可能突然堵起来，车距大约100米，防止这种情况。</t>
+  </si>
+  <si>
+    <t>超车条件：1）观察车辆前方，前车的前车；同时扫描左前方车道的车，看有没有慢的车；
+超车过程中的操作：1）打转向灯；脚的油门处于松弛状态；2）观察前车会不会也有相同的超车意图；</t>
+  </si>
+  <si>
+    <t>红绿灯掉头看黄线虚实是否需要压斑马线、考虑车身长度以及转弯半径，或者是否能进辅路。
+红灯时只需要注意左侧右转车和右侧左转车，绿灯看对向车，掉头中提前刹车、控车距等保证乘客舒适度。</t>
+  </si>
+  <si>
+    <t>右转：先向左看，看左侧来车和非机动车，后向右看，路况、非机动车等等，左边没车的话直接往右看打直了
+//左转：先看右窗，看右侧来车，然后看左后视镜确认一下后方车况。
+//进四环右转，右侧有一辆闯红灯的非机动车，如果距离较远的话自己可能会直接避让，但这量非机动车也不减速直接冲出，自己就停下避让了，且转弯直接转进中间车道，因为认为右边非机动车太多，想离它们更远一些。</t>
+  </si>
+  <si>
+    <t>看左后视镜和左窗，没车的话会直接并到最左边，脚基本放在刹车上，有一个后侧来的白车在视线盲区，没有注意到，在进主路过渡区踩了一脚刹车；且到了过渡区尽头还没有进入主路，到了尽头需要猛打方向盘进入主路</t>
+  </si>
+  <si>
+    <t>城市道路在40-60左右，车况好会到80，跟车距离通常比较近，一个车身的距离左右，自己能确定可以刹停即可；今天行驶过程中猛踩了几下油门，试一下车，而且考虑到今天有乘客，跟车相对自己平常驾驶会稍远一点；直行习惯靠左行驶，近乎左侧压线</t>
+  </si>
+  <si>
+    <t>车距比较远的时候可能不会打转向，直接打方向盘过去了；基本按交通规则左侧超车；虽然要右转还是左侧超前车，超车超的很快很迅速的给油门，看左后视镜有没有车，超完后尽量马上回原道，按喇叭提醒后车自己在超车，避免后车再突然提速；超车后没再看右后视镜因为后车一辆大车占道，认为右侧不会再来车。</t>
+  </si>
+  <si>
+    <t>不太喜欢等红灯掉头，一次性掉头困难比较大，掉之前往右靠了一下，让掉头空间更大一些；且今天车比较少，自己需要看一下后视镜，确认后面有没有车，需要稍微倒一下车再继续掉头；（雷达响的太敏感）；转弯后要倒的时候来回看左右侧后视镜。</t>
+  </si>
+  <si>
+    <t>右转：先看左边有没有来车，或者对向有没有左转，这一类将驶入同向的车，最后看右侧非机动车等。
+//通常进弯前就松油门，必要时转弯过程中会踩一点油门，要出弯车较少时会开始踩油门。转弯转的很大，认为更安全一些，因为离驾驶位比较远，距离难以判断，也给行人更多一些反应时间，可以多看一点后视镜。</t>
+  </si>
+  <si>
+    <t>车多时会在路口停一下，车少会加速直接驶入，更习惯从左侧车窗看，视野会更好，左后侧有一辆黑车让它先通过了，还有一辆和自己速度持平的。</t>
+  </si>
+  <si>
+    <t>规避其他车辆，和前车会离很远，如果前方车很近会超车，会低于限速标准开，且驾驶比较激进，具体速度喜欢参照其他车来开。</t>
+  </si>
+  <si>
+    <t>四方都有车时，为了保证安全会自己最后再转，先让其他车先走，提前向右打一下方向能够实现一次性掉头
+//有一辆大车挡住了直行道，认为很安全，没有驶入的直行车
+//雷达报警过于敏感可能让乘客有心理压力</t>
+  </si>
+  <si>
+    <t>右转：路口前减速先看主路路况，判断其他车辆距离预估自己能否直接行驶通过，不会持续关注左边，因为视野较大，再往弯的内侧车窗看，更加注重一些行人、非机动车及地上的障碍物，同时要确保车尾也能完全通过，因此也会开的稍靠前转较大的弯，车后轮过了停止线。
+//方向调整基于一个pid原理。转向前打方向较快，回方向盘时候方向回正较慢。刹车会建立压力感受前轮的抓地力，然后达到预计峰值，最后会慢慢松刹车。油门控制也是逐步达到预期峰值的过程，类似刹车，先是一个试探的过程。
+//左转：先左后视镜，确认后方有没有超车，然后往路口里就是自己即将驶入的方向看是否有突然出现的车辆，最后再往右看，因为会默认右侧出现的车会更慢，而且往右看只是为了验证而不是为了预防。也是先滑行减速，带一点刹车，开始打方向后会松开刹车。</t>
+  </si>
+  <si>
+    <t>先观察左后视镜，直到汇入口，再扭头往主路看，因为在车头偏离时后视镜有盲区。且自己驶入主路后有一辆突然出现的车，在后视镜盲区完全没有提前注意到，松了油门没有踩刹车，认为踩刹车收益并不高，已经刹车晚了，而且刹车会影响舒适性，自己会选择打一下方向，且自己处理方式的判断基于白车速度比自己车速更快。</t>
+  </si>
+  <si>
+    <t>会扫视三个后视镜，不会刻意关注车速，而是关注油门的恒定开度，其他油门控制取决于路况速度需求，也会逐渐加油门感知加速度，因此感知速度主要靠体感加速度以及车外动态环境。车距保持两个车身左右。</t>
+  </si>
+  <si>
+    <t>首先要判断前车的意图，比如走走停停，它可能是要找停车位，可能靠边或者要掉头；突然刹车这一类基本是需要停下；刹车灯没亮时认为车主可能会走神，不会主动超车，然后车靠左行驶，超出边线，给前车一个信号，如果前车刹车灯亮了或者向右，则认为前车看到自己将要超车；还会关注视野，如果是在特殊路况例如幼儿园，公交车站这一类的会慢速行驶。自己也会担心存在鬼探头；以及注意左侧车道路况，相对距离变大或者后车较远自己会采取超车。</t>
+  </si>
+  <si>
+    <t>提前向右靠，给一个更大的掉头空间，主要关注要调入的方向的车道，掉头前看左后视镜，然后看左车窗。
+//认为对向来车很早会提前观察到，松油门滑行，确定轨迹能一把掉过去后会加速调过去，甚至比预期的转弯半径更小就会加速出弯。
+//自己会有一个风险收益的衡量，认为即使调不过去也只会碰到绿化带，所以尝试一把调，判断距离靠车窗右下角，判断右侧车辆也会给自己留空间掉头，依据车与路的标线距离。看了一下人行道，主要觉得自己有认知盈余，所以会多关注一下行人。</t>
+  </si>
+  <si>
+    <t>右转：先看右边的后视镜，看行人、非机动车，再看上面的后视镜，上方后视镜视野广，基本不看左后视镜；先观察正中心离自己最近的车辆，然后看左右，无顺序的扫视，离车道左侧很近；T字路口右转只会看右反光镜来注意辅路情况；打方向会一点点调整而不是一下转很大，自己转弯会尽量划直角，拐大弯，在弯中间就会开始一点点回正方向了，控制方向盘会自己带一点力；转弯前已经减速了，脚会一直在刹车上但可能不会踩，超过人行横道之后才会开始加速。
+//左转：转向前会左右看还有前方路况，行人、自行车等，拐到一半时看右反光镜，看右侧直行车、后方非机动车等；对向车道没车、非机动车没人没车的时候会走小弯</t>
+  </si>
+  <si>
+    <t>提前50米左右就会打转向灯，然后提前看主路情况，依然贴近左侧开，担心右侧突然出现行人、非机动车，不看中间的后视镜，会刹车、看左反光镜，看主路车辆情况决定自己在辅路过渡区域的哪个部分进主路，直接并到主路最内侧车道了，因为发现这个车道没有车。</t>
+  </si>
+  <si>
+    <t>市区限速60左右的没摄像头时候可能会稍微超速到80，环路车况好可能会开更快。一直偏左侧行驶，车上乘客可能会感觉更安全，行驶中和前车距离比较近，保持一个车身。</t>
+  </si>
+  <si>
+    <t>往左车道超车时候前先看左反光镜，然后看中间的后视镜，能看到后面几个车道的情况。目测一下后车的距离还有速度，速度和距离够的话自己就会加速超车，在观察后车的同时基本已经开始变道了，没有超车条件后会再把速度降下来，道路空旷和车上有人时候自己会变方向比较慢，但和左后方车车距很小的时候会猛打一下方向，油门刹车轻重取决于车型。</t>
+  </si>
+  <si>
+    <t>会往右靠一点，然后看中间的后视镜，观察后车，然后看对向道路来车，其他左转右转车辆都会看，包括要驶入和自己相同车道的所有车，左右反光镜都会看，观察顺序取决于路况，向右靠目测距离够了之后会直接往左打死，然后会主动回正而不是仅用方向盘自己回正的力，而且很早不踩油门了，靠带速走；对向有车时自己会先探出车头，让对向的车看到自己要掉头，车身完全掉过来有足够空间后就会开始踩油门</t>
+  </si>
+  <si>
+    <t>整个大视野都会很关注，前方、左右都回看，包括反光镜、车窗等等，没有观察顺序，都会观察，速度也会变慢，认为左右转没什么区别，在这种路况可能会更注意行人，突然要走或者又停下的行人。
+//到路口，任何行人可能出来的开口处自己都会习惯踩一下刹车</t>
+  </si>
+  <si>
+    <t>右转：先看左侧正常行驶车辆、行人，其中重点关注外卖非机动车，确认可以通过后会关注自己右后侧的外卖车和行人。通常拐弯前在人行横道前或停止线前就会轻踩一下刹车，无特殊情况就会直接转过去了，拐弯时可能会轻踩一点刹车，主要靠车怠速通过，确认左后方没有车辆了会给油，方向盘打到一定角度后就会一直保持，在实验中会让方向盘自己回正，但实验中还是主动将方向盘回正了。基本不看左后视镜
+//左转：左侧会有来车，不会看左右后视镜，主要开左右和前车窗，先关注右侧来车，确认右侧可以通过后，马上看左侧有无直行车辆。</t>
+  </si>
+  <si>
+    <t>提前通过左侧车窗看主路情况，主要是为了避免看不见和自己并行的车，然后会减速，到了进主路的口基本会刹停，不管主路有没有车，然后通过左后视镜看主路情况判断自己什么时候驶入主路，方向盘通常打很小，不会猛变方向</t>
+  </si>
+  <si>
+    <t>过了栏杆后关注对向车道情况，并且靠车道右侧行驶，基本不看后视镜了，因为自己不会给后面的车留出掉头的空间，基本过了栏杆自己就掉头，确认能掉头了就会把方向盘打死，不会停下车来打方向，靠怠速通过，油门基本不踩，实验中差不多掉了一半了就开始倒车了来进行二次掉头，判断能不能一次性完成掉头全靠感觉，没有参照物。再起步时自己就会踩油门加速直行，担心自己掉头太久会造成堵车，车很少的时候自己不会主动加油</t>
+  </si>
+  <si>
+    <t>右转：过停止线后视野范围充足时，停止线前也在看，可能五米左右开始打转向灯，但视野可能受限，先看左边来车，通过左车窗和挡风玻璃，主要看机动车，但非机动车也会观察到。再看右边非机动车和行人，车头快要出弯时开始看左后视镜。
+//关注非机动车更多，认为更危险，尤其是又后视镜看到的非机动车。拐弯幅度正常，习惯左手单手开，只有方向盘需要急转时会两只手控制。转弯前5米左右，脚开始放在刹车上但不一定踩不踩，根据路况决定是否踩刹车。过停止线开始打方向，习惯一边向前开一边转，车快打直时将方向盘回正，看车的情况决定是否需要主动给力回正方向盘。往回打方向盘的时候就会开始给油，车身基本打直后会踩油门更深一点。担心转弯时车飘了所以油门和刹车都会慢踩。</t>
+  </si>
+  <si>
+    <t>前方车明显低于限速水平的时候会习惯超车。习惯：先看左后视镜，没车先并到左侧，看原道前车情况，是单纯低速还是前方多辆车堵住，然后加速，油门也踩比较急，可能基本会在这个车道上继续行驶了，该车道前方有车才会开回原道。后视镜中能看到左后侧车的距离25米左右，判断可以超车。方向通常打很快变道。并回原道可能需要自己车身超过前车大半个车身后可以回原道，打方向也很大。</t>
+  </si>
+  <si>
+    <t>先向右打一点方向基本车轮压倒右侧实线的位置，红灯掉头基本直接打过，绿灯时观察对向来车，其他方向来车以及行人非机动车等等，更关注对向更靠近自己车道的来车。转弯自己掉头转到一半的位置后，车基本横过来时，自己就不会管其他方向车辆了，尽量自己快点通过。保证两个车道都没有车时候才会掉头。全程可能带一点油门，或者带速通过，可能轻踩一下然后脚放刹车上，看一次能不能通过，方向都会直接打死，出弯方向往回打的时候就会开始踩油门，或者掉两次的情况倒车结束后也会开始踩油门。可能看后视镜防非机动车。</t>
+  </si>
+  <si>
+    <t>1. 观察：右转弯习惯：转之前，慢下来看左侧来车，机动车和非机动车。在停止线之前减速。有车就停，没有就继续转弯。减速取决于路况。右边很容易看到，主要关注左边。转之前会先看右前方。
+车多：刹停不多，按照步行速度行驶
+2. 方向盘：预计车少，一边观察一边转；预计车多，先观察。今天介于两者之间。一边转一边加方向。左右调整。还差20-30°摆正的时候方向盘回方向。
+3. 油门：回方向开始补油了。</t>
+  </si>
+  <si>
+    <t>右转弯驾驶习惯：
+1）观察右后视镜镜有没有非机动车，2）然后会计算转弯的力；3）不看左后方；
+右转比左转更难，因为要看非机动车。
+方向盘习惯：
+慢慢线性达到位，边走边打方向盘。回方向盘，60°时，通常通过阻力把车线性回方向盘。当有速度损失的时候，开始补油门。
+A3右转：看不见后视镜，靠车窗。
+右转：提早刹车；</t>
+  </si>
+  <si>
+    <t>平时驾驶习惯：
+1）车速，跟着前车的驾驶速度。保持车流是最安全的方式。
+2）车距，不太近也不太远。不能一概而论。跟时间段有关。享受匀速的感觉。大概20米车距
+3）习惯在路偏左。尽量让车贴近左边。</t>
+  </si>
+  <si>
+    <t>平时习惯：
+1）油门，找到引擎舒适区，让转速和动力都很均衡。让汽车地输出功率是恒定的。
+2）会加速到当前道路限速。</t>
+  </si>
+  <si>
+    <t>平时习惯：
+1）超车会选择一个相差速度更大的时候，尽可能快地超过它。
+2）观察：超车道后方有没有车，前面的车有没有变道，慢速车前面的车有没有变道意图。
+3）不会把车往左一点点看前车。
+4）当后车在后视镜中的大小变成一点点的时候，快速变道超车。尽快超车，不超过5秒，超车的时候要给地板油。</t>
+  </si>
+  <si>
+    <t>先踩刹车，刹车慢下来再打方向盘；分左右转向情况，弯中间会补油。
+//回方向习惯慢一些，根据车速，靠着轮胎自动带着方向盘回正。
+//先车头探出去，便于观察直行的机动车和非机动车。</t>
+  </si>
+  <si>
+    <t>"First, apply the brakes and slow down before turning the steering wheel. Consider the direction of the turn, left or right, and apply throttle in the middle of the turn.
+Ease back on the steering wheel slowly, allowing the speed of the vehicle and the tires to naturally return the wheel to center.
+Initially, edge the front of the car out to better observe oncoming motor vehicles and non-motorized vehicles."</t>
+  </si>
+  <si>
+    <t>Feeling there are many blind spots, unable to see the road, I lean forward first to drive ahead slowly and move inward. Decisions are made after seeing vehicles in the blind spots.</t>
+  </si>
+  <si>
+    <t>不限速能开到100，有车慢慢走。在里侧开，会开很快。正常速度行驶时跟车习惯通常较近。</t>
+  </si>
+  <si>
+    <t>When not limited by speed, I can reach 100 km/h, slowing down when there's traffic. I tend to drive fast in the inner lanes. My following distance tends to be closer when driving at normal speeds.</t>
+  </si>
+  <si>
+    <t>不会让车。
+两个车距离大的时候超车。
+不看左道距离够不够，一般不会过半个车头。</t>
+  </si>
+  <si>
+    <t>I do not yield to other vehicles. I overtake when there's a considerable distance between two vehicles. I don't check if the left lane has enough space; generally, I won't go beyond half a car's length ahead.</t>
+  </si>
+  <si>
+    <t>通常贴右边线，由于不能把握车宽，所以今天不太敢贴右边线，内侧道没车就走。</t>
+  </si>
+  <si>
+    <t>I usually keep to the right side of the lane, but today, I was cautious about not sticking too close to the right due to uncertainty about the vehicle's width. If the inner lane is clear, I proceed there.</t>
+  </si>
+  <si>
+    <t>When there are no vehicles ahead, I carefully check that the intersection is clear while pressing on the brake. If there is a vehicle in front, I will follow it, assuming that if the vehicle ahead can make it through, so can I.</t>
+  </si>
+  <si>
+    <t>"For turning right, first check the right rearview mirror for pedestrians and vehicles. If clear, proceed quickly, typically paying less attention to the left side, glancing over briefly, looking left then right. For left turns, the opposite applies. It's believed that right turns are easier than left turns, possibly because being right-handed makes turning the steering wheel to the right more effortless.
+When merging onto a service road, not much attention is paid to non-motorized vehicles inside and behind on the road, especially if they seem to be slowing down.
+In conditions where the road is in good shape, there's a tendency not to slow down, and in some cases, there might even be a slight acceleration."</t>
+  </si>
+  <si>
+    <t>After passing the green belt, I check the left rearview mirror, judge if the following car is far away, and then accelerate to quickly enter the main road. If there are many cars, I would also inch forward to avoid blocking my line of sight. Upon entering the main road, I immediately accelerate.</t>
+  </si>
+  <si>
+    <t>On the fourth ring road, with a speed limit of 80 km/h, I might drive at 70 km/h during the day and slightly exceed the limit at night when there are fewer cars, but only by up to 20%.</t>
+  </si>
+  <si>
+    <t>I align with the median in advance, checking for oncoming traffic. If there are no vehicles ahead, I honk to alert the vehicle in front of me. I use the horn during the day and more so at night, preferring it over using high beams that dazzle.</t>
+  </si>
+  <si>
+    <t>Before making a U-turn, I intentionally steer to the right, estimating the distance to the vehicles on the right. I didn't yield to vehicles entering from behind, judging the distance to be sufficiently large. The U-turn was completed successfully.</t>
+  </si>
+  <si>
+    <t>I fully yield to pedestrians at crosswalks, even if it means stopping at a green light should someone be approaching the crosswalk.</t>
+  </si>
+  <si>
+    <t>先减速，多注意视野盲区，比如绿化带和路边车辆。
+//右转：左右观察都很多，但更注重右侧，因为左侧视野很大，扫一眼即可，而右侧视野逐渐变小，很担心拐弯后路上的逆行非机动车。
+//车流多时转弯仅能慢慢往前蹭，才能别住非机动车。
+//左转：左右反光镜都多次观察
+//右转进四环很早看左侧的自行车，防止停下准备直行的车辆后影响视野，挡住突然冲出的非机动车这类。</t>
+  </si>
+  <si>
+    <t>"Begin by decelerating, paying extra attention to blind spots, such as green belts and vehicles parked by the roadside.
+When turning right: Observations are made both to the left and right, but the focus is more on the right side. This is because the left side typically offers a broader view, which can be quickly scanned, while the right side’s visibility gradually decreases, raising concerns about encountering oncoming non-motorized vehicles after making the turn. During heavy traffic, turns must be made slowly to edge forward and avoid non-motorized vehicles.
+For left turns: Both the left and right mirrors are checked multiple times. 
+// When turning into the fourth ring road, cyclists on the left are observed early on to prevent vehicles that are stopping to go straight from blocking the view and hiding suddenly emerging non-motorized vehicles."</t>
+  </si>
+  <si>
+    <t>The transition phase into the main road is long, so I don't cut directly inward. I proceed in the transition area until the rearview mirror provides a clear view before entering the main road.</t>
+  </si>
+  <si>
+    <t>I strictly adhere to speed limits, driving fast when conditions allow and only slowing down due to road conditions.</t>
+  </si>
+  <si>
+    <t>When overtaking, hesitation is not an option; it's crucial to press the accelerator to pass.</t>
+  </si>
+  <si>
+    <t>看右后视镜为了先往右打一下，掉头过程中停了一下为了避免速度过快一把转不过，并且多次看左后视镜，担心左侧其他掉头车辆等。很早观察掉头方向的路况。</t>
+  </si>
+  <si>
+    <t>I checked the right rearview mirror to slightly steer right before the U-turn. During the turn, I paused momentarily to avoid turning too sharply at high speed and frequently checked the left rearview mirror, concerned about other vehicles making U-turns. I observed the conditions of the intended U-turn direction well in advance.</t>
+  </si>
+  <si>
+    <t>In situations without traffic signals: I follow the vehicle ahead to make a right turn, ensuring that pedestrians are stationary and checking the right rearview mirror for any rear non-motorized traffic.</t>
+  </si>
+  <si>
+    <t>"Turning right: First, check the right-side mirror for pedestrians and non-motorized vehicles, then look at the oncoming vehicles to the left front to ensure no cars are approaching from the left before edging the car out. After that, there's no need to look to the left, just focus on the right; if there are no people or vehicles, proceed with the turn. This is because vehicles on the left will definitely be able to see me.
+When turning left, attention is given to whether non-motorized vehicles in the left front may collide with the left front or the door of the car."</t>
+  </si>
+  <si>
+    <t>If the main road's condition is not visible, I slow down and drive slowly until I can see clearly. Once sure there are no vehicles, I quickly change lanes. If there are vehicles behind, I generally choose to yield.</t>
+  </si>
+  <si>
+    <t>On regular roads, I don't exceed 60 km/h, adhering to the maximum speed limit on other roads. With a 60 km/h limit, the following distance is 3 car lengths/15 meters, and on highways, it's beyond 50 meters.</t>
+  </si>
+  <si>
+    <t>I intended to steer right, observing the distance to oncoming traffic and yielding when necessary. If the closer lane was clear, I would occupy it with my vehicle to complete the U-turn in one go.</t>
+  </si>
+  <si>
+    <t>If the right rearview mirror does not provide visibility, I reduce my speed significantly, yielding to pedestrians and non-motorized vehicles going straight while turning.</t>
+  </si>
+  <si>
+    <t>"Turning right: First look left, then right. Pay attention to oncoming vehicles from the left, while being particularly mindful of the possibility of vehicles going the wrong way, non-motorized vehicles, and pedestrians on the right.
+Will actively yield to pedestrians."</t>
+  </si>
+  <si>
+    <t>Observing the vehicles coming from behind in the left side mirror, I signal and change lanes one by one, not changing lanes continuously.</t>
+  </si>
+  <si>
+    <t>I maintain a speed at the edge of the speed limit; when there's traffic, the following distance is relatively close. In good conditions, driving around 40 km/h, I keep a distance of one car length, and at 60 km/h, approximately two car lengths. On highways, I don't tailgate, keeping a distance of 50 to 100 meters whenever possible.</t>
+  </si>
+  <si>
+    <t>The preference is to overtake on the left, first checking the vehicles behind and then those ahead to see if there are any vehicles in other lanes intending to overtake.</t>
+  </si>
+  <si>
+    <t>I pay attention to traffic lights; if there are vehicles coming from the opposite direction, I yield before completing the U-turn and then check the rearview mirror.</t>
+  </si>
+  <si>
+    <t>I look left and then right, keeping my foot on the brake to slow down. Just maintaining a light pressure on the brake is enough, with a couple of observations to each side, mainly to check the blind spot around the A-pillar.</t>
+  </si>
+  <si>
+    <t>"Turning right: First, observe the bicycles and motor vehicles on the left, while also paying attention to the right because there are often non-motorized vehicles traveling in the opposite direction on the service road. Intersections on the right tend to have many non-motorized vehicles, so overall, more attention is paid to the left.
+Turning left: The turn is wider, which provides better visibility, so there's less need to look to the right, with more focus remaining on the left.
+Check the rearview mirror early, about 15 meters before the intersection, to observe the situation on the service road and the speed of the vehicles behind. Pause for a moment to check the condition of non-motorized vehicles on the service road, only proceeding with the turn once the rearview mirror offers a clear view.
+Priority is given to vehicles going straight."</t>
+  </si>
+  <si>
+    <t>First, I look at the left rearview mirror, mainly focusing on the speed and distance of the vehicles behind. If the following vehicle is fast, I might stop; in other situations, I generally accelerate to pass.</t>
+  </si>
+  <si>
+    <t>I habitually drive close to the guardrails, as there are rarely sudden appearances of vehicles or pedestrians. I usually stick to the speed limit, occasionally exceeding it. On 40 km/h urban roads, I keep a distance of two car lengths, at 60 km/h roughly the distance between two white lines, and at 80 km/h nearly two and a half car lengths. On highways, the following distance does not exceed 100 meters, and I'm accustomed to driving at 130/140 km/h.</t>
+  </si>
+  <si>
+    <t>Overtaking habit: I observe the speed of other vehicles and aim to exceed them by about 10 mph, preferring to overtake from the right because vehicles there tend to move slower. I first check the right rearview mirror before changing lanes to the right and then accelerating. Thus, I usually keep to the middle lane for easier overtaking and similar maneuvers.</t>
+  </si>
+  <si>
+    <t>I habitually watch for oncoming traffic, usually letting vehicles from the opposite direction go first at a green light. This is because large vehicles in front might have difficulty making U-turns, and I also avoid making wide turns onto the sidewalk.</t>
+  </si>
+  <si>
+    <t>At intersections without traffic signals, I first look to the left until it's clear that vehicles on the left are turning right and there's enough time to cross, then I start observing the right side.</t>
+  </si>
+  <si>
+    <t>"Turning right: Start by looking to the left, focusing primarily on non-motorized vehicles, then on motor vehicles, and finally on pedestrians or non-motorized vehicles coming in the opposite direction on the right.
+Turning left: Similarly, begin by looking to the left, and only after merging with the straight-ahead traffic will you check the right side."</t>
+  </si>
+  <si>
+    <t>Observing the motor vehicles on the left rear, I accelerate to enter the main road after ensuring there's a safe distance from the following vehicle.</t>
+  </si>
+  <si>
+    <t>比限速低一点点，郊区可能开到100码左右。80码行车可能保持三个车身左右，15米左右；60码保持两个车身，10米左右</t>
+  </si>
+  <si>
+    <t>I drive slightly below the speed limit; in suburban areas, I might reach up to 100 km/h. At 80 km/h, I maintain about three car lengths, around 15 meters; at 60 km/h, two car lengths, about 10 meters.</t>
+  </si>
+  <si>
+    <t>Accelerate slowly</t>
+  </si>
+  <si>
+    <t>I only overtake on the left, assessing the distance to the vehicle behind on the left to judge if it's safe to overtake.</t>
+  </si>
+  <si>
+    <t>I steered right in advance when there were no vehicles behind me, making a wide arc to complete the U-turn in one go, especially during a red light when there were no oncoming vehicles.</t>
+  </si>
+  <si>
+    <t>Making a left turn at an intersection without signals involves first checking for pedestrians on the crosswalk, then observing the left and right for incoming vehicles.</t>
+  </si>
+  <si>
+    <t>"I'll definitely first check the sidewalk to see if anyone is coming, then look to the left to see if there are any cars approaching, making sure to clearly observe the conditions on both sides.
+//Continue moving while being ready to yield. It's important to check for pedestrians on both sides of the crosswalk. If there are pedestrians crossing, it generally means coming to a stop, for two reasons: one is to yield, and the other is to observe."</t>
+  </si>
+  <si>
+    <t>I signal and decelerate, observing through the rearview mirror. Since the rearview mirror does not provide visibility due to bushes, I can't just turn out closely beside them; in such situations, I slowly move inward.</t>
+  </si>
+  <si>
+    <t>保持限速最高速，看左右后视镜；习惯贴栏杆，更有安全感，给后车留空间；根据速度调整车距：一到两个车的距离（40km/h, 10m; 60km/h, 20m，以此类推）</t>
+  </si>
+  <si>
+    <t>I keep to the maximum speed limit, constantly checking the left and right rearview mirrors; I prefer driving close to the guardrails for a sense of safety, leaving space for the vehicle behind. The following distance is adjusted according to speed: one to two car lengths (40 km/h, 10 m; 60 km/h, 20 m, and so on).</t>
+  </si>
+  <si>
+    <t>I check for vehicles behind and their speed; if conditions allow, I overtake.</t>
+  </si>
+  <si>
+    <t>防加塞，保持半个车身的车距。虚线要比实线近一点，因为要放插队。判断能否一次性完成掉头，能掉，就往右贴，不能掉，就不贴；尽可能一次性完成掉头。</t>
+  </si>
+  <si>
+    <t>To prevent being cut off, I maintain a half-car length distance. I stay closer to the dashed line than the solid line to allow room for merging. I assess whether a U-turn can be completed in one move; if so, I stick closer to the right, if not, I don't; aiming to complete the U-turn in one action.</t>
+  </si>
+  <si>
+    <t>我过路口的时候我都得踩脚刹车，把速度降下来，我都得看看有没有闯红灯的。有没有逆行的？我不管走到哪个路口，行人过马路还是要贴着我的车拐弯。首先我会踩一脚让他一下，看看他到底怎么着，如果说他要过马路，我要让他一下，他又没反应。他也不走，我又有充足的空间和时间能过去，那我那种情况下我会走。</t>
+  </si>
+  <si>
+    <t>When approaching an intersection, I always press the brake to reduce speed, vigilant for any vehicles running red lights or going against traffic. Regardless of which intersection I'm at, if pedestrians are crossing close to my vehicle as I turn, I first gently press the brake to give them a moment to decide their action. If the pedestrian doesn't proceed and I have enough space and time to go, then I proceed under such circumstances.</t>
+  </si>
+  <si>
+    <t>"Turning right: Use peripheral vision to check for people and cars before proceeding; first look to the left, as the right can be seen with peripheral vision without specifically looking."</t>
+  </si>
+  <si>
+    <t>Signal first, look to the left, straighten the vehicle in the buffer zone, and then check the rearview mirror.</t>
+  </si>
+  <si>
+    <t>没车就60，稍微超一点，65，10%以下；
+基本卡限速，有时候会超一点；
+车距：平时开高速，远一点。100km/H，75-100米
+城市内驾驶：保持2个车身距离左右</t>
+  </si>
+  <si>
+    <t>When there's no traffic, I drive at 60 km/h, slightly exceeding it to 65 km/h, staying within 10% over the limit. I generally adhere to the speed limit, occasionally exceeding it slightly. For following distance: on highways, I keep a greater distance, around 75-100 meters at 100 km/h. In urban driving, I maintain about two car lengths.</t>
+  </si>
+  <si>
+    <t>I habitually drive in the leftmost lane, preferring to overtake from the right.</t>
+  </si>
+  <si>
+    <t>右边没有车就往右打方向，一次性完成掉头。
+判断车头不会碰绿化带。</t>
+  </si>
+  <si>
+    <t>If there are no vehicles on the right, I steer right to complete the U-turn in one go, ensuring the front of the car doesn't hit the green belt.</t>
+  </si>
+  <si>
+    <t>When I see pedestrians, I slow down significantly and will stop to let them cross first.</t>
+  </si>
+  <si>
+    <t>"Turning right: Pay more attention to the left, especially when there are cars on the straight path, making an advance judgment."</t>
+  </si>
+  <si>
+    <t>Upon attempting to merge onto the main road, a vehicle was blocking the way, intending to let it pass first. However, noticing the vehicle stopped for 2-3 seconds without moving, I deduced it was yielding, so I accelerated through; and when there were no cars behind on the main road, I habitually merged into the innermost lane in one go.</t>
+  </si>
+  <si>
+    <t>I follow the speed limit, even exceeding it slightly, generally keeping within 10% over the limit on both urban roads and highways. The following distance on urban roads is shorter, typically 1-2 car lengths.</t>
+  </si>
+  <si>
+    <t>I am accustomed to overtaking, with a preference for doing so on the left, checking for incoming traffic from the left rear.</t>
+  </si>
+  <si>
+    <t>In the absence of a U-turn signal, I typically check for oncoming traffic first. During the experiment, I drove onto the sidewalk for the U-turn to have more space.</t>
+  </si>
+  <si>
+    <t>Apart from driving slowly, it's crucial to observe extensively, including the opposing lane and lateral roads as part of my routine.</t>
+  </si>
+  <si>
+    <t>Before making a turn, I always check the side mirrors well in advance.
+When turning right, I primarily look to the left, as that is where most of the traffic concerns originate. However, I do glance to the right to prevent any possible collision with oncoming delivery bikes traveling in the wrong direction. While turning, I slightly engage the brake to prepare for any unforeseen circumstances. Once the car is almost back to a straight position post-turn, I accelerate and do not let the steering wheel re-center by itself to prevent the car from swaying. I actively control the steering wheel to ensure stability. If there is a green belt causing visibility issues during a right turn, I prefer to look out the rear right window. In principle, I should stop and give way to non-motorized traffic, but I tend to keep the brake partially engaged. It's crucial to edge the car out, occupying about half the lane, to signal to pedestrians and non-motorized vehicles behind me.
+During a right turn, if a motorcycle is blocking the lane ahead, I may overtake from the right side. However, there's a risk that the motorcycle might start moving as the light turns green, potentially causing a collision. In practice, using the non-motorized lane for overtaking is safer.
+Sometimes, I don't fully reduce speed before turning, which increases the frequency of my left and right checks. The first check is to assess the road conditions, and the second is to confirm safety.
+Upon noticing a red light to the left while planning a right turn, I focus more on the non-motorized traffic on the right. At major intersections, I might even stop to let the non-motorized vehicles on the right proceed, especially since they often rush to beat the traffic light. Taking a wide turn allows for a slower speed, so there's no need to turn the steering wheel quickly.</t>
+  </si>
+  <si>
+    <t>"Continuously merging lanes while observing the left rearview mirror. Due to a vehicle behind and the green belt obstructing the view, I neither accelerated nor braked while merging. I began to accelerate after the vehicle behind me passed and I could see its tail; if there was a sufficient gap with the following vehicle, I would actively accelerate."</t>
+  </si>
+  <si>
+    <t>I maintain a following distance, preparing to brake when three or four car spaces away to keep a gap that makes it difficult for others to cut in. In good conditions, I drive at the speed limit.</t>
+  </si>
+  <si>
+    <t>When overtaking from the left, I partially edge out the vehicle to assess whether I have the conditions for overtaking and to check if the slow-moving vehicle ahead is due to potential incidents upfront. In such cases, I refrain from overtaking.</t>
+  </si>
+  <si>
+    <t>Not making a U-turn at the intersection, I continually check the right side, keeping the car as right as possible, then observe the oncoming traffic at the green light. Before switching to reverse after the turn, it's essential to check the right side for any large vehicles that might not be able to stop in time; during the U-turn, I always look to the left.</t>
+  </si>
+  <si>
+    <t>无信号灯路口右转：先看左后看右，对向车打了右转灯所以没让；左转：先看左再看右
+//这类转弯观察优先级是车&gt;非机动车&gt;人，因为他们的速度以及可能对自己造成的风险等级。
+//过人行横道时都不会给油，减速，脚会在刹车上准备但通常不会踩；路两边有单位出入口等都会准备刹车，担心突然驶出的车，很早会有一定的防范意识。</t>
+  </si>
+  <si>
+    <t>At an intersection without traffic signals when turning right: I first look left, then right. I didn't yield because the oncoming vehicle indicated a right turn; for left turns: I first look left, then right.
+//The priority in these observations is vehicles &gt; non-motorized vehicles &gt; pedestrians, due to their speed and the potential risk they pose.
+//When crossing a pedestrian crossing, I don’t accelerate but slow down, with my foot ready on the brake, usually without pressing it; I’m prepared to brake at exits of institutions on both sides of the road, wary of vehicles suddenly pulling out, maintaining early precaution.</t>
+  </si>
+  <si>
+    <t>When turning, I tend to look through the car windows more than at the mirrors, starting with the left and then the right, while also checking the mirrors. Acceleration occurs only after the car straightens and it’s safe on both sides. During a turn, priority is given to straight-going traffic. When traffic is heavy, the turn might be made at a speed close to stopping, possibly applying the brakes from 30% to 80%.
+Upon deciding to turn right, observation of the right service road begins about 100 meters in advance.
+At T-intersections without traffic lights, making a left turn can be worrisome due to the possibility of cars coming straight from the right. It’s important not to reduce speed too much, instead managing speed in relation to distance to give way to non-motorized vehicles.
+At a fourth ring road intersection: First, check the non-motorized vehicle lane on the right, then the pedestrian sidewalk, yielding to both straight-going motorized and non-motorized traffic.
+For a right turn: Start by observing the service road, using peripheral vision for the main road.</t>
+  </si>
+  <si>
+    <t>Signal well in advance, merging lanes one by one. Upon noticing the rear vehicle intending to overtake but then returning to its lane, I continued to merge.</t>
+  </si>
+  <si>
+    <t>On urban roads, I keep a following distance of about 20 meters, roughly three car lengths.</t>
+  </si>
+  <si>
+    <t>I generally avoid overtaking as merging and changing lanes can easily lead to accidents.</t>
+  </si>
+  <si>
+    <t>About 50 meters before stopping, I've already started to ease off the accelerator, preparing to brake slowly. With fewer cars, I took a larger turning radius without worrying about being cut off. Since I was driving on the right side before the U-turn, I completed it in one go, continuously monitoring the left side mirror after the turn.</t>
+  </si>
+  <si>
+    <t>无信号灯右转：主要看右边，然后会不断扫视左边，很担心右侧突然冲出来的车，有死角和视野盲区。</t>
+  </si>
+  <si>
+    <t>Turning right without traffic signals: I primarily watch the right, then continually scan the left, concerned about vehicles suddenly emerging from the right due to blind spots and visibility issues.</t>
+  </si>
+  <si>
+    <t>【出停车场】
+1.先左再右，看对面，习惯。
+2. 出停车场踩着刹车，拐弯一般，10-20%；人、车移动的东西都观察，一扫而过，用余光扫。
+3. 方向盘：一定的速度内，一定要缓，顺势；握方向盘左手转到一个点后，右手接上，手托在方向盘底下；
+【路口转弯+辅路】
+1. 提前踩刹车；先脚踏在油门上没踩下，油门给得很轻，看到行人提前收油，脚放刹车。
+2. 过弯前看左边，辅路后面的大概情况，看右后侧反光镜看右后方来车
+3. 刹车上放着脚，转过来后切换到油门，轻轻给油门；
+4. 外卖小哥，突然从后面出现，我在自己的道上，避不开，看到之后会收油，不踩油门，让他先过，加油门会撞上。
+5. 靠边逆行非机动车，不管。
+6. 30-40米开外前车亮刹车灯，先松油门，脚放刹车，迫不得已才会急刹。
+【掉头后右转】
+1. 观察右后方有没有车，观察辅道的车。
+【无红绿灯左转】
+1. 左右观察，行人、非机动车更注意
+2. 先关注左边，再右边</t>
+  </si>
+  <si>
+    <t>Exiting Parking Lots
+Look left then right, checking the opposite side as a habit.
+Exiting a parking lot involves braking gently, typically between 10-20%; observe moving objects like people and cars in a sweeping glance, using peripheral vision.
+Steering wheel: Within a certain speed, movements should be smooth and natural. After turning the wheel with the left hand to a certain point, the right hand takes over, resting beneath the steering wheel.
+Turning at Intersections + Service Roads
+Brake in advance; start with your foot hovering over the accelerator without pressing it, applying very light throttle. If pedestrians are spotted, decelerate in advance and switch to braking.
+Before making a turn, look to the left to gauge the general situation of the service road behind, then check the right rear-view mirror for vehicles approaching from behind on the right.
+Keep your foot on the brake, switching to the accelerator after completing the turn, and gently press the gas.
+If a delivery person suddenly appears from behind and I'm in my lane unable to avoid them, I would decelerate, not press the accelerator, letting them pass first to avoid collision.
+Ignore non-motorized vehicles driving against traffic on the side.
+If the brake lights of the car ahead light up 30-40 meters away, ease off the accelerator and rest your foot on the brake, resorting to an emergency stop only if absolutely necessary.
+Making a Right Turn After a U-turn
+Check for vehicles behind on the right and observe the service road traffic.
+Turning Left at an Intersection Without Traffic Lights
+Observe both left and right, paying extra attention to pedestrians and non-motorized vehicles.
+Prioritize checking the left side, then the right.</t>
+  </si>
+  <si>
+    <t>"1. Pay attention to the left rear.
+2. Smoothly merge onto the main road, typically beginning to straighten the steering wheel as the wheels touch the main road, accelerating once all four wheels are on the main road; accelerate further once I have my own right of way."</t>
+  </si>
+  <si>
+    <t>"1. Observing traffic lights: For a straight red light, I start easing off the accelerator 150 meters ahead, gradually slowing down. Stability is more important than cutting in.
+2. Upon encountering someone cutting in, I lightly press the accelerator and stop steadily."</t>
+  </si>
+  <si>
+    <t>Gradually accelerating involves steadily increasing throttle pressure, allowing for a smooth transition in speed while making judgments about upcoming intersections and taking precautionary measures.</t>
+  </si>
+  <si>
+    <t>"1. Assess if a one-time U-turn is possible.
+2. Pay attention to oncoming traffic and pedestrians.
+3. First check the distance of the front of the car from the edge of the road, then observe the surroundings.
+4. After the U-turn, watch for vehicles coming from the left.
+5. Smoothness: Mainly, slow speed makes it manageable."</t>
+  </si>
+  <si>
+    <t>"1. Start assessing the intersection from 20-30 meters away, immediately easing off the accelerator and readying the brake at busy intersections to stop at any moment.
+2. Look both ways.
+3. Maintain a steady speed and watch for oncoming vehicles possibly changing lanes."</t>
+  </si>
+  <si>
+    <t>"Habit: Signal in advance; 1) First, check for electric bikes and cars on the left 2) Then, look to the right for any vehicles going in the opposite direction; 3) If there are vehicles in the distance, judge based on their speed, typically checking 50 meters in advance. Don't make the turn too tight, to avoid oncoming traffic."</t>
+  </si>
+  <si>
+    <t>Approaching an intersection, I always try to brake and slow down. After slowing down, I slightly tilt my head to look further. Looking further to gauge the speed of distant vehicles, if there are no vehicles, I directly enter signaling. If I see an approaching vehicle, I signal in advance and then stop completely. "You go first, I'll follow."</t>
+  </si>
+  <si>
+    <t>-左右看反光镜；
+-速度保持习惯：大概开40/50，
+-注意力习惯： 看前方是红灯还是绿灯，再决定如何匀速决策；绿灯会加油，但稍微看旁边人行道的红绿灯是否会闪。
+-车距：喜欢跟车，一个车身的距离，7/8米</t>
+  </si>
+  <si>
+    <t>"- Check mirrors on both sides;
+Speed habit: roughly 40/50 km/h,
+Attention habit: Monitor whether the light ahead is red or green to decide how to adjust speed smoothly; accelerate at green lights but also glance at the pedestrian signals to see if they're about to change.
+Following distance: I prefer to follow closely, at a distance of one car length, about 7/8 meters."</t>
+  </si>
+  <si>
+    <t>If the vehicle ahead is slow and I wish to overtake, I first look to the left, gauge the speed, and then signal. If the lane is clear, I return to my lane after overtaking.</t>
+  </si>
+  <si>
+    <t>"1. It was a mistake not to complete the U-turn in one go, staying close to the right without crossing the line.
+2. Check the road base: Determine the distance of the front of the car to decide if a one-time U-turn can be completed."</t>
+  </si>
+  <si>
+    <t>Approaching an intersection necessitates slowing down, which is fundamental. If planning to turn right, I first check the left side, then glance at the right side, and look left again. If a non-motorized vehicle is approaching, I stop, wait for it to pass, then proceed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1. Usual habits: 1) Observe the direction opposite to the turning direction; 2) Then observe the opposite side of the turning direction; 3) If there are barriers, check the rearview mirror;
+2. Regular observations: 1) Check for bicycles and delivery bikes;
+More attention is paid when turning right;
+Right turn A3: First check for non-motorized vehicles, anticipate motor and non-motor vehicles in advance; intention to accelerate after bicycles on the crosswalk have crossed;
+Right turn A4: The reason for not looking to the left is that it is a red light; even if someone runs the red light, the oncoming traffic will slow down first;
+Left turn L2: Quickly check if there are fast-approaching vehicles from behind;
+Right turn R2: First observe the left side because the right side is currently red; when the light turns green, then slow down; if the left side has gone straight, there will be no more vehicles;
+Turning techniques: 1) Keep the steering wheel at a fixed angle, do not wiggle it after making the turn; 2) Accelerate at the center of the curve when exiting the turn to ensure a uniform turning speed; 3) Simply follow the natural pace of the car when straightening the steering wheel;"
+ </t>
+  </si>
+  <si>
+    <t>"1. Entering a service road: 1) Check for approaching vehicles from the left rear, 2) then quickly turn;
+2. Entering the main road: Normal;"</t>
+  </si>
+  <si>
+    <t>"1. Habit: If there's a countdown on the traffic light ahead, I'll accelerate; if there's no countdown, I proceed at normal speed;
+2. On this route segment: 50 km/h speed limit, during peak times I don't allow others to cut in, maintaining a following distance of 30 centimeters; otherwise, I ensure a 2-3 meters distance."</t>
+  </si>
+  <si>
+    <t>"1. Regular driving habits: Today’s acceleration resembled overtaking;
+Throttle control: Once certain there are no vehicles ahead, accelerate by 30%-60%. A 20% to 30% increase does not produce a significant push-back sensation."</t>
+  </si>
+  <si>
+    <t>"1. Regular overtaking habits (VIP): orderly, ensuring clear conditions ahead on the left and proceeding at a steady pace; I exceed by twenty to thirty miles without causing a push-back sensation for VIPs.
+2. Observation habits: 1) Whether there's enough distance ahead on the left for overtaking; 2) Whether the vehicle to be overtaken intends to overtake another vehicle;
+Judgment: 1) If the vehicle ahead is a cargo vehicle, it definitely wants to overtake;
+Self-reminder: 1) Keep the left turn signal and warning lights on;"</t>
+  </si>
+  <si>
+    <t>Regular habit: 1) First, determine if it's necessary to watch the traffic lights; 2) Move the car right to ensure a one-time U-turn is possible.</t>
+  </si>
+  <si>
+    <t>At intersections without traffic signals: 1) Ensure there are no hazards within my line of sight;</t>
+  </si>
+  <si>
+    <t>"Turning right: First look at the oncoming traffic on the left, then at the right side, including non-motorized vehicles and pedestrians moving in the same direction, habitually scanning back and forth. After turning, opt not to overtake, concerned about the instability of the car ahead.
+Use a gentle braking method: Keep close to the brake, not tapping, and reduce throttle in advance;
+Right turn A4: Take an overall look, also checking the right side, paying attention to non-motorized vehicles;
+L2: Look to the right because of noticing someone; seeing the intersection, fearing someone might be there;
+Right turn R2: The reason for not looking to the left is that it’s a green light, there won’t be cars from the left;"</t>
+  </si>
+  <si>
+    <t>Checking the left rearview mirror early, but the view is obstructed by bushes, and the range of turning my head is significant. In addition to checking the mirror, I also look directly out of the window to see beyond the bushes;</t>
+  </si>
+  <si>
+    <t>Urban roads 40-50 km/h, usually maintaining a close following distance, above 60 km/h the distance might be around 70 meters, at 40 km/h approximately 50 meters. On circular highways driving at the speed limit, and traffic may suddenly congest, maintaining about 100 meters distance to prevent such situations.</t>
+  </si>
+  <si>
+    <t>超车条件：1）观察车辆前方，前车的前车；同时扫描左前方车道的车，看有没有慢的车；
+超车过程中的操作：1）打转向灯；脚的油门处于松弛状态；2）观察前车会不会也有相同的超车意图；</t>
+  </si>
+  <si>
+    <t>"Conditions for overtaking: 1) Observe the vehicle ahead and the vehicle in front of that one; also scan the left front lane for slower vehicles;
+During overtaking: 1) Signal; keep the throttle relaxed; 2) Check if the vehicle ahead also intends to overtake;"</t>
+  </si>
+  <si>
+    <t>红绿灯掉头看黄线虚实是否需要压斑马线、考虑车身长度以及转弯半径，或者是否能进辅路。红灯时只需要注意左侧右转车和右侧左转车，绿灯看对向车，掉头中提前刹车、控车距等保证乘客舒适度。</t>
+  </si>
+  <si>
+    <t>For red light U-turns, consider whether to cross the zebra crossing based on the yellow line's solidity, consider the car's length and turning radius, or whether it's possible to enter a service road. At a red light, only need to be cautious of left-turning vehicles on the right and right-turning vehicles on the left; at a green light, watch for oncoming traffic. Braking in advance during the U-turn, controlling the distance, etc., ensures passenger comfort.</t>
+  </si>
+  <si>
+    <t>"Turning right: First look to the left, observing oncoming traffic and non-motorized vehicles, then to the right for road conditions, non-motorized vehicles, etc. If there are no cars on the left, directly look right and straighten out.
+//Left turn: First check the right window for oncoming traffic, then use the left rearview mirror to confirm the situation of the vehicles behind.
+//Turning right into the fourth ring, there's a non-motorized vehicle running the red light on the right. If it's at a distance, I might avoid it directly, but if the non-motorized vehicle doesn't slow down and dashes out, I'll stop to give way, and turn directly into the middle lane, believing it's too crowded with non-motorized vehicles on the right and wanting to keep further away from them."</t>
+  </si>
+  <si>
+    <t>Observing through the left rearview mirror and left window, if there are no vehicles, I directly merge to the far left. My foot is generally on the brake. A white car from behind was in the blind spot, unnoticed, until I braked while in the transition zone to the main road; and upon reaching the end of the transition zone without having merged onto the main road, I needed to sharply turn the steering wheel to enter the main road.</t>
+  </si>
+  <si>
+    <t>On city roads, speeds typically range from 40-60 km/h, increasing to 80 km/h when conditions are good. Following distances are usually close, about one car length, ensuring I can stop safely. Today, I aggressively pressed the accelerator a few times to test the car, and considering I had passengers, I kept a slightly longer distance from the vehicle ahead than usual. I prefer driving close to the left side, nearly touching the lane line.</t>
+  </si>
+  <si>
+    <t>I enjoy speeding up and tend to press the accelerator hard.</t>
+  </si>
+  <si>
+    <t>When the following distance is considerable, I might not signal but directly steer over; I typically adhere to traffic rules by overtaking on the left. Even if turning right, I overtake the vehicle ahead from the left, accelerating quickly and checking the left rearview mirror for vehicles. After overtaking, I aim to return to my lane as soon as possible, honking to alert vehicles behind of my overtaking to prevent them from suddenly speeding up; I don't check the right rearview mirror after overtaking because a large vehicle was occupying the lane, assuming no vehicles would come from the right.</t>
+  </si>
+  <si>
+    <t>Preferring not to wait for a red light to make U-turns due to the difficulty in executing them in one go, I edge to the right beforehand to create more space for the turn. Given the lighter traffic today, it was necessary to check the rearview mirror to ensure no vehicles were behind me, possibly requiring a slight reverse before continuing the turn (the radar is overly sensitive). When turning and needing to reverse, I check both the left and right side mirrors repeatedly.</t>
+  </si>
+  <si>
+    <t>I start by checking both sides, as well as the oncoming traffic.</t>
+  </si>
+  <si>
+    <t>"Turning right: First, check for oncoming vehicles on the left, or vehicles making a left turn from the opposite direction, which will enter the same direction as me, and finally, look for non-motorized vehicles on the right.
+//Usually, I let off the accelerator before entering the turn, and if necessary, I may press the accelerator slightly during the turn. When exiting the turn and there are fewer vehicles, I will start to accelerate. Making a wide turn is considered safer because it is further from the driver's position, making distance judgment more challenging, and it gives pedestrians more time to react, allowing me to check the rearview mirror more."</t>
+  </si>
+  <si>
+    <t>When traffic is heavy, I'll stop at the intersection; if traffic is light, I'll accelerate directly into it, preferring to look through the left side window for a better field of vision. A black car on the left rear side was let through first, along with another car moving at the same speed as mine.</t>
+  </si>
+  <si>
+    <t>To avoid other vehicles and maintain a significant distance from the car in front, if the vehicle ahead is too close, I'll overtake. I tend to drive below the speed limit and more aggressively, adjusting my speed based on other vehicles.</t>
+  </si>
+  <si>
+    <t>Acceleration is usually quick.</t>
+  </si>
+  <si>
+    <t>I maintain a safe distance for overtaking, focusing on the distance between my vehicle's front and the other vehicle's rear, leaving a 10 to 20-meter buffer for reaction time, which increases on highways. Avoid steering abruptly, try not to brake, and after overtaking half the distance of the vehicle ahead, I ease off the accelerator, with my foot ready on the brake, but without significantly reducing speed directly.</t>
+  </si>
+  <si>
+    <t>四方都有车时，为了保证安全会自己最后再转，先让其他车先走，提前向右打一下方向能够实现一次性掉头。
+//有一辆大车挡住了直行道，认为很安全，没有驶入的直行车。
+//雷达报警过于敏感可能让乘客有心理压力。</t>
+  </si>
+  <si>
+    <t>In situations where vehicles are present on all sides, for safety, I prefer to turn last, letting other vehicles go first. A slight steer to the right beforehand facilitates a one-time U-turn.
+//A large vehicle blocking the straight path indicated a safe condition, with no incoming straight traffic.
+//Overly sensitive radar warnings might pressure passengers.</t>
+  </si>
+  <si>
+    <t>Turning right: Before the intersection, I slow down to first observe the main road conditions, estimating the distance of other vehicles to determine whether I can proceed directly. I won’t continuously focus on the left side due to the broader field of vision. Then, I look towards the inner side of the turn through the car window, paying more attention to pedestrians, non-motorized vehicles, and obstacles on the ground. I also ensure that the rear of the car can completely clear the turn. Therefore, I tend to drive slightly forward to make a wider turn, ensuring the rear wheels cross the stop line.
+Steering adjustments are based on a PID principle. Steering is done quickly before the turn, while straightening the wheel is slower. Braking builds up pressure to feel the front wheels' grip, then reaches the anticipated peak before gradually releasing the brake. Throttle control also gradually reaches the desired peak, similar to braking, starting with a probing process.
+Turning left: First, check the left rearview mirror to ensure there’s no overtaking from behind, then look into the intersection – the direction I’m about to enter – for any suddenly appearing vehicles. Finally, I look to the right, assuming that vehicles appearing from the right will be slower, and looking right is more for confirmation rather than prevention. I also coast to slow down, lightly braking, and then release the brake after starting to steer.</t>
+  </si>
+  <si>
+    <t>First, I observe the left rearview mirror until the merge point, then turn my head to look at the main road because there's a blind spot in the mirror as the car's front diverges. After merging onto the main road, a car suddenly appeared from the rearview mirror's blind spot, which I hadn't noticed in advance. I eased off the accelerator without braking, thinking that braking wouldn't be very beneficial at that point, as it was already too late to brake, and braking could affect comfort. I would choose to slightly steer away, basing my decision on the white car moving faster than mine.</t>
+  </si>
+  <si>
+    <t>I check all three mirrors without focusing intently on the speedometer but rather on maintaining a steady throttle position. Throttle control is based on the road conditions and the need for speed, gradually accelerating to gauge acceleration, thus relying on the sense of acceleration and the external environment to gauge speed. I keep a following distance of about two car lengths.</t>
+  </si>
+  <si>
+    <t>Acceleration speed varies depending on whether I have passengers. When driving alone, I accelerate quickly, pressing down to the expected acceleration position, but with passengers, I accelerate more slowly.</t>
+  </si>
+  <si>
+    <t>First, it's essential to discern the intentions of the vehicle ahead. For instance, if it stops intermittently, it might be looking for a parking spot, planning to pull over or make a U-turn; sudden braking usually indicates a need to stop. If the brake lights are not activated, I might assume the driver is distracted and will not attempt to overtake. Instead, I drive close to the left, crossing the line slightly, to signal the vehicle in front. If the vehicle's brake lights turn on or it moves to the right, it likely acknowledges my intention to overtake. I also pay attention to the surroundings, especially in areas with special conditions like near kindergartens or bus stops, where I'll drive slowly to avoid potential hazards and monitor the left lane's condition. If the distance to the vehicle behind increases or it's far away, I might decide to overtake.</t>
+  </si>
+  <si>
+    <t>Leaning to the right in advance allows for a larger space to turn. Main attention is on the lane into which I'm turning, looking at the left rearview mirror and then out the left side window.
+//I assume oncoming traffic will be observed well in advance, coasting with the throttle off to ensure the trajectory allows for a complete turn, then accelerating through the turn, even taking a tighter turn than anticipated.
+//I weigh the risk and reward, considering that a failed turn would only result in hitting a green belt, thus attempting the turn. Distance judgment is made by the car window's bottom right corner, assuming right-side vehicles will also make room for the turn, based on the distance between the car and road markings. I glance at the pedestrian walkway, mainly believing in my cognitive surplus, thus paying extra attention to pedestrians.</t>
+  </si>
+  <si>
+    <t>Turning right: First, check the right-side mirror for pedestrians and non-motorized vehicles, then the upper rearview mirror, which offers a wider field of view, generally not looking at the left rearview mirror. Start by observing the vehicles closest to the center, then glance left and right in no specific order, staying close to the lane's left side. At a T-junction, turning right involves only looking at the right side mirror to monitor the service road; steering adjustments are made gradually rather than in large turns. I tend to make sharp turns, starting to straighten the steering wheel a bit in the middle of the turn, exerting some force on the steering wheel myself. Speed is reduced before the turn, with my foot resting on the brake but not necessarily pressing down, accelerating only after passing the pedestrian crossing.
+Turning left: Before turning, I look left, right, and ahead at the road conditions, pedestrians, and bicycles. Halfway through the turn, I check the right-side mirror for straight-going vehicles and non-motorized vehicles behind. When the opposing lane is clear of vehicles and non-motorized traffic, I take a tighter turn.</t>
+  </si>
+  <si>
+    <t>About 50 meters in advance, I signal and then check the main road conditions, still driving close to the left side, wary of sudden pedestrians or non-motorized vehicles from the right side. I don't check the center rearview mirror but will brake and look at the left side mirror, deciding where to merge onto the main road from the transition area based on the traffic conditions, directly merging into the innermost lane of the main road because I find it empty.</t>
+  </si>
+  <si>
+    <t>In areas with a speed limit of around 60 km/h without cameras, I might slightly exceed the limit to 80 km/h. On ring roads with good traffic conditions, I might drive even faster. Driving on the left side tends to make passengers feel safer, maintaining a close distance to the vehicle ahead, about one car length.</t>
+  </si>
+  <si>
+    <t>When changing lanes to the left for overtaking, I first check the left side mirror, then the center rearview mirror to gauge the traffic conditions behind across several lanes. After estimating the speed and distance of the vehicles behind and finding it safe, I begin to accelerate for overtaking. If overtaking isn't feasible, I'll reduce my speed. When the road is clear, or I have passengers, I change lanes more cautiously. However, if the distance to the vehicle on the left rear side is very short, I might quickly swerve, adjusting the throttle and brake sensitivity based on the vehicle type.</t>
+  </si>
+  <si>
+    <t>I edge slightly to the right, then observe through the central rearview mirror, checking the following vehicles, and then the oncoming traffic. I also watch vehicles turning left or right, including all vehicles entering the same lane as mine, checking both side mirrors. The observation order depends on the road conditions. After judging the distance to be sufficient by edging to the right, I steer sharply to the left, then actively straighten the steering wheel rather than relying on its automatic re-centering, and I stop pressing the accelerator early, coasting with momentum. When there's oncoming traffic, I first edge out the car's front to signal my intention to turn, accelerating only after the car has fully turned and there's enough space.</t>
+  </si>
+  <si>
+    <t>I pay close attention to the entire field of view, including what's ahead, to the sides, and through the mirrors and windows. There's no specific order to my observations; everything is taken into account. My speed also decreases as I believe there's little difference between turning left or right. In such road conditions, I might pay extra attention to pedestrians, especially those who suddenly decide to walk or stop.
+//Approaching an intersection, I habitually press the brake at any spot where pedestrians might emerge.</t>
+  </si>
+  <si>
+    <t>Turning right: First, observe vehicles and pedestrians moving normally on the left, with special attention to delivery non-motorized vehicles. After ensuring it's safe to proceed, the focus shifts to delivery vehicles and pedestrians on my right rear side. Typically, just before turning, at the crosswalk or the stop line, I lightly press the brake. Unless there are special circumstances, I then proceed with the turn. During the turn, I might lightly tap the brake, mainly relying on the vehicle's idle speed to get through. Once I confirm there's no vehicle on my left rear, I accelerate. After steering the wheel to a certain angle, I maintain it. In experiments, the steering wheel might re-center itself, but I still actively straighten it. I generally do not look at the left rearview mirror.
+Turning left: There will be oncoming traffic on the left. I do not look at the rearview mirrors on the left or right but mainly keep the left, right, and front windows open. First, I pay attention to the oncoming traffic on the right. After ensuring it's safe to pass on the right, I immediately check for straight-going vehicles on the left.</t>
+  </si>
+  <si>
+    <t>I look through the left side window in advance to avoid missing vehicles parallel to mine, then slow down, coming to almost a complete stop at the entrance to the main road, regardless of whether there are vehicles on the main road. Then, using the left rearview mirror to judge when to merge onto the main road, I usually make a slight turn of the steering wheel, avoiding sharp turns.</t>
+  </si>
+  <si>
+    <t>I prefer driving in the middle of the lane, with speeds between 40-60 km/h in urban areas, keeping a constant throttle without opting to coast, and maintaining a following distance of about one car length. To prevent being cut off in traffic jams, I intentionally reduce the following distance.</t>
+  </si>
+  <si>
+    <t>Acceleration is also based on the road conditions ahead or the presence of entrances on the right, requiring more observation than when cruising at a steady speed. I prefer to gradually press on the accelerator and do not like to accelerate suddenly, applying more force only when necessary but not sharply accelerating.</t>
+  </si>
+  <si>
+    <t>When there's a guardrail and all vehicles are moving in the same direction, deciding to overtake starts with checking the left rearview mirror. If lane-sharing is required for overtaking, I'll extend the vehicle's front part to check for oncoming traffic, overtaking by half to a full car length to ensure the vehicle behind sees my turn signal before merging back into my lane. I only use the right rearview mirror when returning to my original lane.</t>
+  </si>
+  <si>
+    <t>After passing the guardrail, I focus on the oncoming traffic lanes and drive towards the right of my lane, seldom checking the rearview mirror since I don't intend to leave space for vehicles behind me to make U-turns. Once past the guardrail and sure I can make the U-turn, I fully turn the steering wheel without stopping the car, relying on idle speed without pressing the accelerator. During the experiment, I started to reverse about halfway through the turn to attempt a second U-turn, basing the judgment on whether a one-time U-turn is feasible purely on instinct, without any reference points. Upon restarting, I press the accelerator to accelerate straight ahead, concerned that taking too long to turn might cause traffic congestion. When there are few cars, I won't accelerate unnecessarily.</t>
+  </si>
+  <si>
+    <t>Turning right: After crossing the stop line when the field of view is sufficient, I also observe before reaching it, possibly signaling to turn about five meters in advance. However, my view may be limited. First, I look at oncoming vehicles on the left, through the left window and the windshield, focusing mainly on motor vehicles, though non-motorized vehicles are also noted. Then, I check for non-motorized vehicles and pedestrians on the right. As the front of the car is about to complete the turn, I start checking the left rearview mirror.
+I pay more attention to non-motorized vehicles, considering them more dangerous, especially those seen in the rearview mirror. The turning radius is normal, and I'm used to driving with one hand on the left, using both hands only when a quick steering adjustment is needed. About 5 meters before turning, my foot begins to rest on the brake without necessarily pressing it, depending on the road conditions to decide whether to apply the brakes. I start turning the steering wheel after crossing the stop line, accustomed to moving forward while turning. As the car is about to straighten, I recenter the steering wheel, depending on the car's condition to decide whether to actively force the wheel back. As I recenter the steering wheel, I begin to accelerate, pressing the accelerator deeper once the car is nearly straightened. Concerned about the car drifting during the turn, I press both the accelerator and brakes gently.</t>
+  </si>
+  <si>
+    <t>I use the left rearview mirror to observe traffic on the main road, braking before merging, and then accelerating after entering the main road.</t>
+  </si>
+  <si>
+    <t>I drive at the speed limit, potentially exceeding it by up to 20%, and am accustomed to overtaking, keeping a following distance of about 25 meters.</t>
+  </si>
+  <si>
+    <t>When road conditions are good, I press the accelerator firmly, releasing it almost completely upon reaching the desired speed to coast.</t>
+  </si>
+  <si>
+    <t>If a vehicle in front is significantly below the speed limit, I tend to overtake. The habit involves first checking the left rearview mirror, moving to the left if clear, then observing the condition of the vehicle ahead to determine if it's simply moving slowly or if there's a traffic jam. I accelerate quickly, possibly continuing in this lane unless there's a need to merge back. The distance to the vehicle on the left rear side is about 25 meters, deemed safe for overtaking, with rapid lane changes. Returning to the original lane might occur after surpassing the vehicle ahead by more than half a car length, with a significant turn of the steering wheel.</t>
+  </si>
+  <si>
+    <t>Initially, I slightly steer right, typically until the car's wheels are over the right solid line. For a red light U-turn, I usually turn directly, and at a green light, I observe oncoming traffic, vehicles, pedestrians, and non-motorized vehicles from other directions, paying closer attention to oncoming vehicles closer to my lane. After turning halfway and the car is nearly perpendicular to the road, I stop considering vehicles from other directions and focus on passing quickly, ensuring both lanes are clear before making the U-turn. Throughout, I might slightly press the accelerator or coast, perhaps lightly pressing it then preparing to brake, attempting to complete the turn in one go. Steering is fully committed, and I start accelerating when straightening out from the turn or after completing a two-part turn with a reverse.</t>
+  </si>
+  <si>
+    <t>At intersections without traffic signals: I constantly watch the front and the right rearview mirror, then proceed with the right turn. After turning, I briefly glance at the left rearview mirror.</t>
+  </si>
+  <si>
+    <t>Observation: Right-turning habit: Before turning, slow down to check for oncoming vehicles, both motor and non-motorized, and decelerate before the stop line. If there are vehicles, stop; if not, continue turning. Deceleration depends on the road conditions. The right side is easy to see, so the main focus is on the left. Before turning, I first look to the right front. With heavy traffic: I don’t stop much, moving at walking speed.
+Steering wheel: If I expect less traffic, I observe while turning; if I expect more, I observe first. Today is in between. I adjust the steering as I turn. When about 20-30° from straightening, I return the steering to direction.
+Throttle: I start to accelerate as I straighten the steering wheel.</t>
+  </si>
+  <si>
+    <t>1. 盲区：左后方先看一下。
+2. 慢慢切近主路，
+3. 刹车：进过渡区之前就刹。</t>
+  </si>
+  <si>
+    <t>"1. Blind Spot: First, check the left rear side.
+2. Gradually approach the main road.
+3. Braking: Brake before entering the transition area."</t>
+  </si>
+  <si>
+    <t>The speed of adjacent vehicles serves as a benchmark,</t>
+  </si>
+  <si>
+    <t>The presence of other vehicles, their speed, and the absence of vehicles, as well as the speed limit, dictate maintaining a constant speed.</t>
+  </si>
+  <si>
+    <t>"This time, I didn't change lanes to overtake. I observed the rearview mirror, gauging the safety based on the traffic behind, and merged if safe, remaining in the overtaking lane as much as possible. I adjust my speed to the limit or match the speed of other vehicles. If the speed limit isn't sufficient for overtaking, there's no need to do so. Safety is indicated when the entire vehicle's front can be seen in the rearview mirror."</t>
+  </si>
+  <si>
+    <t>"1. Before starting the U-turn, ensure there are no vehicles in both lanes.
+2. Stop completely before starting again.
+3. Turn about 30°, then accelerate and correct the steering depending on road conditions.
+4. Steer right to borrow lane, gaining more space for the U-turn."</t>
+  </si>
+  <si>
+    <t>First, look to the right for pedestrians.</t>
+  </si>
+  <si>
+    <t>Driving habits for right turns:
+1) Check the right rearview mirror for non-motorized vehicles, 2) then calculate the force needed for the turn; 3) do not check the left rear side;
+Right turns are harder than left due to the need to watch for non-motorized vehicles.
+Steering habits:
+Gradually and linearly reach the position, steering as I go. To straighten the wheel, at 60°, I usually use resistance to linearly bring the wheel back. When there's a loss of speed, I start to accelerate.
+A3 right turn: Can’t see the rearview mirror, rely on the car window.
+Right turn: Brake early.</t>
+  </si>
+  <si>
+    <t>1）观察，通过眼睛余光瞟一眼，车速快不快，堵不堵车。包括左后视镜。
+2）操作：后面完全没有车，直接连续向左变道至最左车道。</t>
+  </si>
+  <si>
+    <t>Observation, glance with peripheral vision to assess if the speed is fast and whether there's congestion, including through the left rearview mirror.
+Maneuvering: If there are no vehicles behind, directly change lanes continuously to the leftmost lane.</t>
+  </si>
+  <si>
+    <t>"Regular driving habits:
+Speed, following the driving speed of the vehicle ahead. Keeping with the flow of traffic is the safest method.
+Distance, neither too close nor too far, varies with the time of day. Enjoying the sensation of cruising at a steady speed. Approximately 20 meters following distance.
+Preference for driving slightly to the left. Try to keep the car close to the left side."</t>
+  </si>
+  <si>
+    <t>"Regular habits include:
+Throttle: Finding the engine’s comfort zone to balance the rpm and power output, ensuring the car's power output is consistent.
+Accelerating to the current road's speed limit."</t>
+  </si>
+  <si>
+    <t>"Regular habits:
+I choose to overtake when there's a significant speed difference, aiming to pass quickly.
+Observation includes checking for vehicles behind in the overtaking lane and whether the vehicles ahead or slow-moving vehicles have intentions to change lanes.
+I don't slightly shift to the left to see ahead of the vehicle in front.
+When the vehicle behind becomes a small dot in the rearview mirror, I quickly change lanes to overtake, completing the maneuver within 5 seconds, pressing the accelerator fully to the floor."</t>
+  </si>
+  <si>
+    <t>"Driving habits:
+1. Aim to complete the turn as quickly as possible in one go.
+2. Observation: Assess the oncoming traffic flow. If the speeds in the oncoming lane vary significantly, I opt not to turn.
+3. Also check the right-side intersections through the front right window, not relying on mirrors. I turn my head significantly.
+4. Fully commit the steering wheel without looking in the right rearview mirror.
+5. Rely on power rather than coasting on idle, ensuring the car is fully powered."</t>
+  </si>
+  <si>
+    <t>At intersections without traffic signals:
+Observation: I focus on areas where vehicles are dense and moving quickly.</t>
+  </si>
+  <si>
+    <t>司机编号/工况类别 Driver Number/Working Condition</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D01（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D02（普通司机 oridinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D03（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D04（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D05（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D06（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D07（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D08（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D09（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D13（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D14（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D24（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D23（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D21（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D19（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D18（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D17（普通司机 ordinary driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>D16（专家司机 professional driver）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>English Translation</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>转弯 Turning</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入主路 Entering the main road</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳速直行 Steady speed straight</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线加速 Straight Accelerating</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>变道超车 Lane changing to overtake</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉头 U-turning</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过路口 Crossing an intersection</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9.75"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EAFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EAFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6F2"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -352,69 +2178,93 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="5" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="6" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="7" fontId="17" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,7 +2277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -721,1595 +2571,1341 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CA101D-7F84-4E74-AAEB-F5D9063BC553}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="30"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="7" t="str">
-        <v>司机编号/工况类别</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <v>转弯</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <v>进入主路</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <v>稳速直行</v>
-      </c>
-      <c r="E1" s="6" t="str">
-        <v>直线加速</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <v>变道超车</v>
-      </c>
-      <c r="G1" s="6" t="str">
-        <v>掉头</v>
-      </c>
-      <c r="H1" s="6" t="str">
-        <v>通过路口</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>D01（普通司机）</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <v>先踩刹车，刹车慢下来再打方向盘；分左右转向情况，弯中间会补油。
-回方向习惯慢一些，靠着轮胎带着方向盘回，根据车速，一般单手搓。
-先车头探出去，便于观察直行的机动车和非机动车。</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>感觉视野盲区多，看不到路，要探身
-先往前开，慢慢往里进，看到视野盲区的车再做决定</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>不限速能开到100，有车慢慢走
-在里侧开，会开很快//正常速度行驶时跟车习惯通常较近</v>
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="1" t="str">
-        <v>不会让车
-两个车距离大的时候超车
-不看左道距离够不够，一般不会过半个车头</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>通常贴右边线，由于不能把握车宽，所以今天不太敢贴右边线，//内侧道没车就走</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>三轮车在右前头才看到</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>D02（普通司机）</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>右转，先看右后视镜没有行人车辆会快速通过，通常不会过于注意左边，只会大略看一眼，先看左后看右。左转反之。认为右转比左转容易，可能因为是右利手原因，右手右转打方向盘更容易。///进辅路没有很在意道路内侧后方非机动车，且发现其有减速意图。///路况比较好的时候没有减速喜欢，甚至个别情况还会稍微加速。</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>过绿化带后看左后视镜，判断后车较远，直接加速快速进入主路。如果车多的话也会一点点往前挪，否则会挡视线。进入主路后会立即加速。</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>四环，限速80时，白天可能开70，晚上车少可能会适当超速，但超速20%以内。</v>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="str">
-        <v>提前压中线了，看对面有没有车，发现没有车，且按了一下喇叭提醒前车。白天用喇叭，晚上也用喇叭多一下，不太喜欢远光灯晃眼。</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>掉头前主动向右侧打方向了，凭感觉估计和右侧车距离。没有让后侧转进的车，认为车距离较远。一把掉头成功。</v>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="str">
-        <v>D03（专家司机）</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>先减速，多注意视野盲区（绿化、路边车辆）////右转：左右观察都很多，但更注重右侧，因为左侧视野很大，扫一眼即可，而右侧视野逐渐变小，很担心拐弯后路上的逆行非机动车。////车流多时转弯仅能慢慢往前蹭，才能别住非机动车。/////左转：左右反光镜都多次观察///右转进四环很早看左侧的自行车，防止停下准备直行的车辆后影响视野，挡住突然冲出的非机动车这类。</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>进主路过度阶段很长，因此不直接往里切，在过度区域前行至反光镜视野清楚后才进主路。</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>完全按限速开，能开快不会开慢，开慢基本上是基于路况原因</v>
+    <row r="4" spans="1:8" ht="92" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="str">
-        <v>超车习惯：一定不能犹豫，必须给油门超过。</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v>看右后视镜为了先往右打一下，掉头过程中停了一下为了避免速度过快一把转不过，并且多次看左后视镜，担心左侧其他掉头车辆等。//////很早掉头方向的路况。</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <v>无信号灯路况：直接跟前车右转，而且明确看出以行人站住不动，且看右后视镜有无后方非机动车</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>D04（普通司机）</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>右转弯：先看右边后视镜，有无人、非机动车，再看左前方直行车辆，确定左边没车后将车头探出。之后不用看左边，只用看右边，没人没车转弯就可以。因为左边的车肯定能见我。
-左转会观察左前方非机动车是否会碰到左车头或车门的位置</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>看不到主路路况，先降速，慢慢磨，等到能看见的时候，确定没车了，酒赶紧变道。一般选择让行。</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>平常道路不会超过60，其他道路按照最高限速走。限速60跟车距离3个车位/15米，高速跟车50m之外</v>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
-        <v>平时开的车因为转弯半径小，所以不会提前向右靠，实验时有意向右打方向。看车距，让行对面车辆。较近车道无车时会先用车身占住车道。一把完成掉头。</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <v>右后视镜看不见，车速降的很慢，转弯让行直行非机动车</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>D05（普通司机）</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>右转：先看左再看右，左侧注意直行来车，比较注意右侧可能有逆行的车辆、非机动车、行人。
-左转：
-会主动让行人</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>左反光镜，看后侧来车，逐一变道（不连续变道）</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>速度维持限速边缘，车多时车距比较近，车况较好时40码左右行驶会保持一个车身，60码大概2个车身，高速上不会跟车，尽量50到100米</v>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="46" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="str">
-        <v>优先左侧超车，先看后车再看前车，看有没有别的车道有要超车的车</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <v>看红绿灯，对向有车会先让，一次没掉过来调过来看后视镜或者倒车影像</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <v>先看左后看右，脚一直在刹车位置上</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>D06（专家司机）</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>右转：先看左边的自行车和机动车，同时会注意右边，因为右侧有很多非机动车逆行（辅路上），路口看右侧非机动车很多。看左边更多。//左转：弯比较大，视线比较好，看右边比较少，还是更注意左边/////很早看后视镜，路口前15米左右观察辅路情况，看后车车速，停了一下看辅路自行车情况，后视镜视野完全清晰后才转弯通过。///优先让直行</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>先看左后视镜，主要关注后侧车的车速和距离，后车车速快可能会停下，其他情况基本加速通过</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>习惯靠护栏走，因为很少有突然出现的车、行人等，基本按限速开，偶尔可能会超速，40码城市道路习惯保持的车距是2个车的距离，60码基本两个白线的距离，80码近似保持两个半车身的距离。高速上车距不超过100米，习惯开130/140迈。</v>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="str">
-        <v>超车习惯：观察其他车车速，比其他车超10迈左右即可，喜欢从右边超车，因为右侧车速慢。先看右后视镜，向右变道再加速。所以习惯走中间车道，便于超车等行为。</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v>倒了一下，掉了两次，习惯看对向来车，绿灯基本优先让对向车先走。因为前面大车掉头可能困难，自己也没有向人行道上开掉大弯。</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <v>没有信号灯所以要先看左边，直到左侧车辆都要右转时有足够时间穿过后开始看右侧</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>D07（普通司机）</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>右转：先看左边，主要是非机动车，其次看机动车，再看右边行人或者逆行的非机动车///////左转：也先看左边，要并入直行之后才会看右边////////右转进四环直接拐入主路</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>看左后方的机动车，看到后车有一个安全距离之后就会加速通过进入主路</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>比限速低一点点，郊区可能开到100码左右/////80码行车可能保持三个车身左右，15米左右；60码保持两个车身，10米左右</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>慢慢加速</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v>只会往左边超车，看左边后面的车距判断能否安全超车</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>提前往右打了方向且后面没车，划了大圈一把掉头通过，且红灯掉头对向没有来车</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <v>无信号灯路口左转：先看人行道上的人，再看左侧才看右侧有无来车</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>D08（专家司机）</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>两边路况看清楚。边走边准备好让道。</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>大转向、减速、慢慢往里切，看后视镜。</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>保持限速最高速，看左右后视镜；
-习惯贴栏杆，更有安全感，给后车留空间；
-根据速度调整车距：一到两个车的距离（40km/h, 10m; 60km/h, 20m，以此类推）</v>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="46" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="str">
-        <v>看后方有没有车，和速度，能超就一把超</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v>防加塞，半个车身车距。虚线要比实线近一点，因为要放插队。
-一把能否掉过来，能掉，就往右贴，不能掉，就不贴；尽可能一把掉</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <v>特别小心</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>D09（普通司机）</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>右转：余光看有没有人，有没有车，再过；先看左边，右边余光能看到，不会特意看</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>先打灯，看左边，先摆正车在缓冲段，看后视镜</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v>没车就60，稍微超一点，65，10%以下；
-基本卡限速，有时候会超一点；
-车距：平时开高速，远一点。100km/H，75-100米
-城市：2个车身距离左右</v>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
-        <v>
-习惯在最左侧开，往右超车</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v>右边没有车就往右打方向，一把掉头
-感觉车头不会碰绿化带</v>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>D10（专家司机）</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>右转：看左边更多一点，特别是直行路上有车的时候，会有一个提前的判断</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>进主路有辆车挡住了，司机想优先让这辆车过，但发现这辆车有2-3秒停住没动，判断应该是要让，所以加速通过了；且在主路后方没车的时候习惯一次性并入最内道</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>跟着限速走，甚至超速一点点，城市道路和高速上基本保持超速10%以内驾驶。城市道路车距保持也较短，通常1-2个车身</v>
+    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
-        <v>比较习惯超车，优先左侧超车，看左后方有无来车</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <v>没有掉头指示灯的情况下，通常先看对向来车。实验过程中压到人行道掉头，为了掉头空间更大一点。</v>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5" t="str">
-        <v>D11（专家司机）</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>在转弯之前很早就会看左右侧反光镜；右转：先看左边（主要看左边），右边会看一眼防止右侧逆行外卖车，转弯会轻带着一点刹车，为了预防一些突发情况，在车转弯后基本顺正的时候会加速，不会让方向盘自己回正，会让车晃，会主动控制方向盘的力度；右转有绿化带干扰时实际更喜欢看右后窗，原则上应该停住让非机动车，但自己更喜欢带着一半的刹车。一定要把车头顶出来，大约占道一半左右，给后侧行人和非机动车一个信号。////右转：前面有一个摩托车堵了车道，实验中从车右侧超车了，但是可能突然绿灯摩托车起步可能会撞到自己，但实际自己会借非机动车道会更安全////转弯前有时不会完全降速，会让自己左右看的频率更高，第一遍看路况，第二遍是再确认一下////右转发现左侧红灯时，就会主要看右侧非机动车，甚至大路口自己会停下让右侧直行非机动车，由于这些时候非机动车通常会赶灯。绕大圈，车速慢，所以方向盘也不用打的很快，。</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>看左后视镜不断并线，由于后侧有车，且绿化带干扰视线，并道时基本没给油，也没踩刹车，在后车超过时，且看到该车车尾时会开始给油加速；如果与后车车距足够时候会主动给油；</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>保持车距，三四个车位的时候脚就会准备带刹车了，让车头保持让它车难以加塞的距离；路况好的时候会顶限速开；</v>
+    <row r="12" spans="1:8" ht="207" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
-        <v>从左侧超车，会先探出一半车身判断自己是否具备超车条件，以及会看前车行驶较慢是不是前方有意外状况，这种情况下自己不会超车。</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <v>没有在路口掉头，先不断看右侧，尽量让车往右靠，然后对向绿灯，一直看对向来车，掉过来之后挂倒挡前应该先看右边，可能有刹不住的大车；掉头过程中一直看左边</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <v>无信号灯路口右转：先看左后看右，对向车打了右转灯所以没让；左转：先看左再看右//////这类转弯观察优先级是车&gt;非机动车&gt;人（因为他们的速度以及可能对自己造成的 风险等级）
-过人行横道时都不会给油，减速，脚会在刹车上准备但通常不会踩；路两边有单位出入口等都会准备刹车，担心突然驶出的车，很早会有一定的防范意识。</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="str">
-        <v>D12（专家司机）</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>转弯时会看车窗比看反光镜更多，先看左后看右，同时会看反光镜，车身转正后且左右侧保证安全后才会加油门；转弯让直行，车多时可能会以近似停下的速度转弯，可能会踩30%到80%左右的刹车。//////提前知道要右转后，提前100米左右开始观察右侧辅路///T字路口无信号灯左转很担心右侧突然驶过的直行车辆，也不能过度减速，要结合距离控制速度（避让非机动车）///四环路口：先看右边非机动车道、再看人行道行人，会让直行机动车和非机动车////右转：先看辅路，用余光看主路</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>提前很早打转向灯，且逐一并线，发现后车有超车意图，又发现后车返回原车道，自己继续并道</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>城市道路保持20米左右车距，大约三个车身</v>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="115" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
-        <v>尽量都不超车，超车、并线很容易发生事故</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <v>还有50米左右要停的时候已经收油了，准备开始慢刹车。车少，所以留了较大车距掉头，不担心加塞问题，掉头前靠右侧开所以一把，且车身掉过之后一直看左反光镜。左侧有一个外卖车。</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <v>无信号灯右转：主要看右边，然后会不断扫视左边，很担心右侧突然冲出来的车，有死角（视野盲区）</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="str">
-        <v>D13（专家司机）</v>
-      </c>
-      <c r="B14" s="1" t="str" xml:space="preserve">
-        <v>【出停车场】
-1.先左再右，看对面，习惯
-2. 出停车场踩着刹车，拐弯一般，10-20%；人、车移动的东西都观察
-一扫而过，用余光扫
-3. 方向盘：一定的速度内，一定要缓，顺势；左手到点，右手接上
-手托在方向盘底下；1：1：1？；
-【路口转弯+辅路】
-1. 提前踩刹车；先脚踏在油门上没踩下，很软按下去，给得很轻，看到行人提前收油，脚放刹车
-2. 过弯前看左边，辅路后面的大概情况，看右后侧反光镜看右后方来车（自行车）
-3. 刹车上放着脚，转过来后切换到油门，轻轻给油门；
-4. 外卖小哥，突然从后面出现估计不到，我在自己的道上，避不开，看到之后会收油，不踩油门，让他先过，加油门会撞上
-5. 靠边逆行非机动车，不管
-6. 30-40米开外前车亮灯，先松油门，脚放刹车，迫不得已才会急刹
-【掉头后右转】
-1. 右后方有没有车，辅道的车观察
-【无红绿灯左转】
-1. 左右观察，行人、非机动车更注意
-2. 先关注左边，再右边
-3. </v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>1. 左后方关注
-2. 丝滑进主路，车轮搭到主路一般回方向盘，四轮都在车上，给油门；要有自己的路权再给油门</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>1. 看红绿灯：直行红灯，150米就松油门，慢慢减速，比加塞更重要的是稳
-2. 有加塞，轻点油门，停稳</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <v>1. 油门平稳一点，慢慢踩，判断下个路口的操作，做一些预防措施</v>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="345" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
-        <v>1. 判断能否一把掉过来，
-2. 关注对向来车、行人
-3. 先看车头离马路牙子距离，然后看周围
-4. 调过来后关注左侧来车
-5. 平稳：主要是速度慢就可以</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <v>1. 前20米，人多路口，松油门脚放刹车；慢慢开，眼神，她看到了我要过去，就不让了过去了
-2. 两边都要看
-3. 匀速行驶看对面车是否会变道</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="str">
-        <v>D14（专家司机）</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>习惯：提前打转向灯；1）先看左边电动车、汽车 2）然后看右边有没有逆行的；3）如果远处有车，根据车速来判断；
- 出停车场右转：一般50米提前看，
-08：26 R1:87%左右开始给油；
-R2八字右转1:09：11 弯不能拐小，怕逆行；</v>
+      <c r="G14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="92" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="str">
-        <v>3.5.10秒左右看反光镜；
--晚上有灯光还能看到有车；
--速度保持习惯：07.01 大概开40/50，
--注意力习惯： 红灯绿灯，再决定如何匀速决策；绿灯会加油，但稍微看旁边人行道的红绿灯是否会闪。
--车距：喜欢跟车，一个车身的距离，7/8米</v>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
-        <v>1. 前车慢：想超车，先看左边，预判车速，先打开转向灯。如果车道空，再回车道。</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <v>1. 算是失误，没有一把过，往右打尽量不压线；
-2. 看路基：确定车头是否可以一把过；</v>
+      <c r="F15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="str">
-        <v>D15（专家司机）</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>1. 平时习惯：1）观察拐弯方向相反方向；2）再观察转弯方向对侧；3）如果有隔离墩，后视镜；
-2. 平时观察：1）观察有没有自行车，外卖车；
-右转会更关注一些；
-右转A3: 先看有没有非机动车，提前预判机动车非机动车（19.54.230）；给油意图，斑马线的自行车过完马路后（20.01.846）；
-右转A4: 不看左侧原因是，灯是红的，即使有人闯红灯，对向车会先减速；
-左转L1: 
-左转L2:  (211.56.384) 快速看一下有后面有没有快速的来车；
-右转R2: 先观察左侧，因为现在右侧是红灯；灯变绿了，就减速了；左侧已经直行了，不会再有车了；
-1. 转弯技巧：1）方向盘固定在一个角度，不要拐过来之后扭来扭去；2）出弯道时弯心给油，保证转弯是匀速的；3）回方向盘时顺着车的自己的回弯速度就行；</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>1. 进入辅路：1）左后方有没有来车，2）然后快速进弯；
-2. 进入主路：正常；</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <v>1. 习惯：如果前面有读秒的红绿灯，会加速；如果没秒数，会正常速度行驶；
-2. 本次的路段：50速度作用；高峰时段不让别人插进来（30公分）；平时的话会保证2-3米的车距；</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <v>1. 平时驾驶习惯：今天跟超车类似（19.26.888）；
-油门控制：（19.19.216 确定没有车了）停的，(19.22.119 给油 30%-60%， 20% 30%（本MKZ） 不会感到推背感)</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <v>1. 平时的超车习惯（VIP）：规矩，具备确定左前方，渐进匀速通过；自己会二三十迈超过，VIP的话不让有推背感；
-2. 观察习惯：1）左前方超车距离是否足够；2）要超越的车辆是否有意图超越其他车的意图；
-判断：1）假如想超车辆前车载货，他一定想超车；
-自我意图提醒：1）一直打着左转向灯和闪灯；</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <v>平时习惯：1）首先确认是否需要观察信号灯；2）可以将车身往右，确保可以一把过；3）</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <v>1. 无交通信号灯十字路口：1）确定目视范围内有没有危险的东西；</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="str">
-        <v>D16（专家司机）</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <v>右转：先看左侧（来车）再右侧（同向的非机动车、行人等），（习惯扫视）//////////很早看右侧非机动车。然后看左侧再右侧，转弯后没有选择超车，担心前车不稳定。
-左转：1）关注左前对侧车辆；2）
-柔刹：贴着刹车，不是点刹；提前收油；
-右转A4: 综合看，右边也会看，注意非机动车；
-L2: 看右边，是因为注意到有人；看见路口，怕有人；
-右转R2: 不看左边的原因是，绿灯，左边不会有车；</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <v>很早看左后后视镜，但草丛影响视野，且扭头范围很大，除了看后视镜，还会直接看车窗外，能看过草丛后情况；
-</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <v>城市道路40-50，城市道路通常跟车跑，60码以上可能会跑70米左右，40码可能跟车50米，环线上高速行驶顶着限速跑，并且可能突然堵起来，车距大约100米，防止这种情况</v>
+    <row r="16" spans="1:8" ht="253" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="149.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1" t="str">
-        <v>今天没有变道超车；
-超车条件：1）观察车辆前方，前车的前车；同时扫描左前方车道的车，看有没有肉的车；
-超车过程中观察的：
-超车过程中的操作：1）打转向灯；脚的油门处于松弛状态；2）观察前车会不会也有相同的超车意图；</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <v>红绿灯掉头看黄线虚实是否需要压斑马线、考虑车身长度以及转弯半径，或者是否能进辅路，红灯时只需要注意左侧右转车和右侧左转车，绿灯看对向车，掉头中提前刹车、控车距等保证乘客舒适度</v>
+      <c r="F17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>D17（普通司机）</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <v>右转：先向左看（左侧来车，机动车）后向右看（路况、非机动车等等），左边没车的话直接往右看打直了////左转：先看右窗，看右侧来车，然后看左后视镜确认一下后方车况/////进四环右转，右侧有一辆闯红灯的非机动车，如果距离较远的话自己可能会直接避让，但这量非机动车也不减速直接冲出，自己就停下避让了，且转弯直接转进中间车道，因为认为右边非机动车太多，想离它们更远一些。</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <v>看左后视镜（左窗），没车的话会直接并到最左边，脚基本放在刹车上，有一个后侧来的白车在视线盲区，没有注意到，在进主路过渡区踩了一脚刹车；且到了过渡区尽头还没有进入主路，到了尽头需要猛打方向盘进入主路</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <v>城市道路在40-60左右，车况好会到80，跟车距离通常比较近，一个车身的距离左右，自己能确定可以刹停即可；ps今天行驶过程中猛踩了几下油门，试一下车，而且考虑到今天有乘客，跟车相对自己平常驾驶会稍远一点；直行习惯靠左行驶，近乎左侧压线</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <v>喜欢提速，会猛踩油门</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <v>车距比较远的时候可能不会打转向，直接打方向盘过去了；基本按交规左侧超车；虽然要右转还是左侧超前车，超车超的很快很迅速的给油门，看左后视镜有没有车，超完后尽量马上回原道，按喇叭提醒后车自己在超车，避免后车再突然提速；超车后没再看右后视镜因为后车一辆大车占道，认为右侧不会再来车</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <v>不太喜欢等红灯掉头，一把掉不过去，掉之前往右靠了一下，让雕图空间更大一些；且今天车比较少，自己需要看一下后视镜，确认后面有没有车，需要稍微倒一下车再继续掉头；（雷达响的太敏感）；转弯后要倒的时候来回看左右侧后视镜</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <v>先看左右两侧，也会看对向来车</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>D18（普通司机）</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>右转：先看左边有没有来车，或者对向有没有左转，这一类将驶入同向的车，最后看右侧非机动车等。通常进弯前就松油门，必要时转弯过程中会踩一点油门，要出弯车较少时会开始踩油门。转弯转的很大，认为更安全一些，因为离驾驶位比较远，距离难以判断，也给行人更多一些反应时间，可以多看一点后视镜。</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>车多时会在路口停一下，车少会加速直接驶入，更习惯从左侧车窗看，视野会更好，左后侧有一辆黑车让它先通过了，还有一辆和自己速度持平的</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <v>规避其他车辆，和前车会离很远，如果前方车很近会超车，会低于限速标准开，且驾驶比较激进，具体速度喜欢参照其他车来开</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <v>提速通常比较快</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <v>判断一个安全距离进行超车，主要是车头和对方车尾的距离，会给对方留10到20米反应，高速时超车距离会更远。不要急打方向，尽量不要踩刹车，超车超出前车一半的距离就会松开油门，并且脚会放到刹车上准备踩，但也不能直接明显降速。</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <v>为了保证安全会自己最后再转，先让其他车先走，（四方都有车时），发现提前向右打一下方向能够一把掉过来///有一辆大车挡住了直行道，认为很安全，没有驶入的直行车//////雷达报警过于敏感可能让乘客有心理压力</v>
+    <row r="18" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>D19（普通司机）</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <v>右转：路口前减速先看主路路况，判断其他车辆距离预估自己能否直接行驶通过（不会持续关注左边，因为视野较大），再往弯的内侧（右侧）车窗看，更加注重一些行人、非机动车及地上的障碍物，同时要确保车尾也能完全通过，因此也会开的稍靠前转较大的弯（脚后跟过了停止线）。方向调整基于一个pid原理。转向前打方向较快，回方向盘时候方向回正较慢。刹车会建立压力感受前轮的抓地力，然后达到预计峰值，最后会慢慢松刹车。油门控制也是逐步达到预期峰值的过程，类似刹车，先是一个试探的过程。/////////左转：先左后视镜，确认后方有没有超车，然后往路口里（自己即将驶入的方向看（突然出现的车辆），最后再往右看（默认右侧出现的车会更慢，而且往右看只是为了验证而不是为了预防）。也是先滑行减速，带一点刹车，开始打方向后会松开刹车。</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <v>先观察左后视镜，直到汇入口，再扭头往主路看，因为在车头偏离时后视镜有盲区。且自己驶入主路后有一辆突然出现的车，在后视镜盲区完全没有提前注意到，松了油门没有踩刹车，认为踩刹车收益并不高，已经刹车晚了，而且刹车会影响舒适性，自己会选择打一下方向，且自己处理方式的判断基于白车速度比自己车速更快（自己任何在反应时内的行为收益都不高，认为打方向会比踩刹车更快，表现在对车的控制上以及自己的反应上</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <v>会扫视三个后视镜，不会刻意关注车速，而是关注油门的恒定开度，其他油门控制取决于路况速度需求，也会逐渐加油门感知加速度，因此感知速度主要靠体感加速度以及车外动态环境。车距保持两个车身左右</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <v>会根据有没有乘客，自己开的时候加速会很快，基本直接踩到预期加速的位置，但有乘客时会缓慢加速</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <v>首先要判断前车的意图（变慢的原因），比如走走停停，它可能是要找停车位，可能靠边或者要掉头；突然刹车这一类基本是需要停下；刹车灯没亮时认为车主可能会走神，不会主动超车，然后车靠左行驶（超出边线）给前车一个信号，如果前车刹车灯亮了或者向右，则认为前车看到自己将要超车；还会关注视野，如果是在特殊路况（幼儿园，公交车站）这一类的慢速行驶自己也会担心存在鬼探头；以及注意左侧车道路况，相对距离变大或者后车较远自己会采取超车</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <v>提前向右靠，给一个更大的掉头空间，主要关注要调入的方向的车道，掉头前看左后视镜，然后看左车窗（都在打方向之前），认为对向来车很早会提前观察到，松油门滑行，确定轨迹能一把掉过去后会加速调过去，甚至比预期的转弯半径更小就会加速出弯。（自己会有一个风险收益的衡量，认为即使调不过去也只会碰到绿化带，所以尝试一把调，判断距离靠车窗右下角）判断右侧车辆也会给自己留空间掉头，依据车与路的标线距离。看了一下人行道，主要觉得自己有认知盈余，所以会多关注一下行人。</v>
+    <row r="20" spans="1:8" ht="184" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>D20（普通司机）</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>右转：可能先看右边的后视镜（行人、非机动车），再看上面的后视镜（因为常开suv，上方后视镜视野广），基本不看左后视镜；先观察正中心离自己最近的车辆，然后看左右（无顺序的扫视），离车道左侧很近；T字路口右转只会看右反光镜来注意辅路情况；打方向会一点点调整而不是一下转很大，自己转弯会尽量划直角（拐大弯），在弯中间就会开始一点点回正方向了（会自己带一点力）；转弯前已经减速了，脚会一直在刹车上但可能不会踩，超过人行横道之后才会开始加速//////////左转：转向前会左右看还有前方路况（行人、自行车等），拐到一半时看右反光镜（看右侧直行车、后方非机动车等）；对向车道没车、非机动车没人没车的时候会走小弯</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <v>提前50米左右就会打转向灯，然后提前看主路情况，依然贴近左侧开，担心右侧突然出现行人、非机动车（鬼探头类），不看中间的后视镜，会刹车、看左反光镜，看主路车辆情况决定自己在辅路过渡区域的哪个部分进主路，直接并到主路最内侧车道了，因为发现这个车道没有车，</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <v>市区限速60左右的没摄像头时候可能会稍微超速到80，环路车况好可能会开更快（也会超速，一直偏左侧行驶（车上乘客可能会感觉更安全），行驶中和前车距离比较近（一个车身）</v>
+    <row r="21" spans="1:8" ht="161" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1" t="str">
-        <v>往左车道超车时候前先看左反光镜，然后看中间的后视镜（能看到后面几个车道的情况），目测一下后车的距离还有速度，速度和距离够的话自己就会加速超车（在观察后车的同时基本已经开始变道了），没有超车条件后会再把速度降下来，道路空旷和车上有人时候自己会变方向比较慢，但和左后方车车距很小的时候会猛打一下方向，油门刹车轻重取决于车型</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <v>会往右靠一点，然后看中间的后视镜（看后车），然后看对向道路来车，其他左转右转车辆都会看（要驶入和自己相同车道的所有车），左右反光镜都会看（没有顺序，取决于路况），向右靠目测距离够了之后会直接往左打死，然后会主动回正而不是仅用方向盘自己回正的力，而且很早不踩油门了，靠带速走；对向有车时自己会先探出车头，让对向的车看到自己要掉头，车身完全掉过来有足够空间后就会开始踩油门</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <v>（没信号灯的）整个大视野都会很关注，前方、左右都回看，包括反光镜、车窗等等，没有观察顺序，都会观察，速度也会变慢，认为左右转没什么区别，在这种路况可能会更注意行人（突然要走或者又停下的行人）
-到路口（任何行人可能出来的开口处）自己都会习惯踩一下刹车</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>D21（普通司机）</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>右转：先看左侧正常行驶车辆、行人，其中重点关注外卖非机动车，确认可以通过后会关注自己右后侧的外卖车和行人。通常拐弯前在人行横道前或停止线前就会轻踩一下刹车，无特殊情况就会直接转过去了，拐弯时可能会轻踩一点刹车，主要靠车带速通过，确认左后方没有车辆了会给油，方向盘打到一定角度后就会一直保持，在实验中会让方向盘自己回正，但实验中还是主动将方向盘回正了。基本不看左后视镜////////左转：区别，左侧会有来车，不会看左右后视镜，主要开左右和前车窗，先关注右侧来车，确认右侧可以通过后，马上看左侧有无直行车辆。</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>提前通过左侧车窗看主路情况，主要是为了避免看不见和自己并行的车，然后会减速，到了进主路的口基本会刹停（不管主路有没有车），然后通过左后视镜看主路情况判断自己什么时候驶入主路，方向盘通常打很小，不会猛变方向</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <v>习惯在车道中间行驶，城市内车速40-60之间，通常油门保持一个力度就不动了，不太会选择溜车，车距习惯保持一个车身，堵车时为了避免被加塞，会有意缩短车距</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <v>根据前方路况，或者右侧有没有入口判断自己要不要加速，比自己均速行驶的时候会观察更多。会慢慢踩油门，不喜欢突然加速，必要情况下可能会踩的实一点但也不是猛加速</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <v>有护栏全是同向行驶车辆时决定要超车时先看左后视镜，借道超车时会探出车头观察对向有无车辆，会超出前车半个到一个车身让后车看到自己的转向灯才会并回原车道，并且回原车道只看右后视镜</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <v>过了栏杆后关注对向车道情况，并且靠车道右侧行驶，基本不看后视镜了，因为自己不会给后面的车留出掉头的空间，基本过了栏杆自己就掉头，确认能掉头了就会把方向盘打死（不会停下车来打方向），靠带速通过，油门基本不踩，实验中差不多掉了一半了就开始倒车了（会正倒）掉第二把了，判断能不能一把过全靠感觉，没有参照物。再起步时自己就会踩油门加速直行（担心自己掉头太久会造成堵车），车很少的时候自己不会主动加油</v>
+      <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="138" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>D22（普通司机）</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>右转：过停止线后视野范围充足时（停止线前也在看，可能五米左右开始打转向灯，但视野可能受限），先看左边来车（通过左车窗和挡风玻璃，主要看机动车，但非机动车也会观察到）再看右边非机动车和行人，车头快要出弯时开始看左后视镜。（关注非机动车更多，认为更危险，尤其是又后视镜看到的非机动车）拐弯幅度正常，习惯左手单手开，只有方向盘需要急转时会两只手控制。转弯前5米左右，脚开始放在刹车上但不一定踩不踩，根据路况决定是否踩刹车。过停止线开始打方向，习惯一边向前开一边转，车快打直时将方向盘回正，看车的情况决定是否需要主动给力回正方向盘。往回打方向盘的时候就会开始给油，车身基本打直后会踩油门更深一点。担心转弯时车飘了所以油门和刹车都会慢踩。//////////左转：也是看左右，但可能右侧没车实验中只看了左侧</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>看左后视镜来看主路的车，会踩刹车，进入主路后会提速</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <v>限速多少开多少，可能会超速20%以内，而且会习惯超车，车距习惯保持25米左右</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <v>路况较好时会油门会踩很重，达到预期速度时会基本送开油门溜车。</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <v>前方车明显低于限速水平的时候会习惯超车。习惯：先看左后视镜，没车先并到左侧，看原道前车情况，是单纯低速还是前方多辆车堵住，然后加速（油门也踩比较急），可能基本会在这个车道上继续行驶了，该车道前方有车才会开回原道。后视镜中能看到左后侧车的距离25米左右，判断可以超车。方向通常打很快变道。并回原道可能需要自己车身超过前车大半个车身后可以回原道，打方向也很大。（四环路有超车）</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <v>先向右打一点方向基本车轮压倒右侧实线的位置，红灯掉头基本直接打过，绿灯时观察对向来车，其他方向来车以及行人非机动车等等，更关注对向更靠近自己车道的来车。转弯自己掉头转到一半的位置后（车基本横过来时），自己就不会管其他方向车辆了，尽量自己快点通过。保证两个车道都没有车时候才会掉头。全程可能带一点油门，或者带速通过，可能轻踩一下然后脚放刹车上，看一次能不能通过，方向都会直接打死，出弯方向往回打的时候就会开始踩油门，或者掉两次的情况倒车结束后也会开始踩油门。可能看后视镜防非机动车。</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <v>无信号灯路口：一直看前方和右后视镜，然后直接右转了，快转过来后会浅看一下左后视镜</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>D23（普通司机）</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>1. 观察：右转弯习惯：转之前，慢下来看左侧来车，机动、非机动。在停止线之前减速。油车就停，没有就继续转。减速取决于路况。右边很容易看到，主要关注左边。转之前会先看右前方。
-车多：刹停，不多-步行速度
-2. 方向盘：预计车少-一边观察一边转；预计车多：先观察。今天介于两者之间。一边转一边加方向。左右调整。回方向，还差20-30°摆正的时候。
-3. 油门：回方向开始补油了。</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>1. 盲区：左后方先看一下。
-2. 慢慢切近主路，
-3. 刹车：进过渡区之前就刹。
-</v>
-      </c>
-      <c r="D24" s="1" t="str" xml:space="preserve">
-        <v>1. 旁边的车速度为标准， </v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <v>1. 路上有车，车的速度，没车，限速，保持恒定速度</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <v>这次没有变道超车。
-看后视镜，看后面的车，安全，就并过去。超车后尽可能留在超车道。
-油门速度提到限速或其他车的速度。限速速度不够超车，那就没必要超。
-后视镜能完整看到车的车头，代表安全了。</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <v>1. 开始掉头前确保没车，两个车道都没车
-2. 先刹停再起步
-3. 30°左右掉头加油、回方向：取决于路况
-4. 向右借道，获得更多掉头空间</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <v>1. 先看右边，行人</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>D24（普通司机）</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>右转弯驾驶习惯：
-1）观察右后视镜镜有没有非机动车，2）然后会计算转弯的力；3）不看左后方；
-实验驾驶操作：
-30米(05:52) 观察右后视镜；
-（05：50 / 05:58）开始刹车，开始看左前方；
-右转比左转更难，因为要看非机动车。
-方向盘习惯：
-慢慢线性达到位，边走边打方向盘。回方向盘，60°时，通常通过阻力把车线性回方向盘。当有速度损失的时候，开始补油门。
-A3右转：看不见后视镜，靠车窗。
-A4右转：
-右转：提早刹车；</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>
-平时驾驶习惯：
-实验操作：
-1）观察，通过眼睛余光瞟一眼，车速快不快，堵不堵车。包括左后视镜。
-2）操作：后面完全没有车，直接连续向左变道至最左车道。</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <v>平时驾驶习惯：
-1）车速，跟着前车的驾驶速度。保持车流是最安全的方式。
-2）车距，不太近也不太远。不能一概而论。跟时间段有关。享受匀速的感觉。（大概20米）
-3）习惯在路偏左。尽量让车贴近左边。</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <v>平时习惯：
-1）油门，找到引擎舒适区，让转速和动力都很均衡。3000转？2500转？让汽车地输出功率是恒定的。
-2）会加速到当前道路限速。</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <v>平时习惯：
-1）超车会选择一个相差速度更大的时候，尽可能快地超过它。
-2）观察：超车道后方有没有车，前面地车有没有变道，蜗牛车前面的车有没有变道意图。
-3）习惯，不会把车往左一点点看前车。
-4）后视镜一点点的时候，左快速变道。尽快超车不超过5秒，smart车的时候要给地板油。
-10:50 超车；
-11：37 超车非机动车；</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <v>驾驶习惯：
-1）追求越快一把过；
-2）观察：对向车流，会综合评估。如果对向车道的车快慢不一，就会不掉头。
-3）还会观察右面的路口；通过右前车窗，不靠后视镜。靠头大幅度地转。
-4）方向盘打死，不看右后视镜。
-5）不靠怠速走，会让车充满动力。</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <v>无交通信号灯路口：
-1）观察：哪里车辆密集，东西速度快，就看哪里。</v>
-      </c>
-    </row>
-    <row r="26">
+    <row r="23" spans="1:8" ht="184" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="126.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="241.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F359D40-E1D6-412D-A05F-B51CF75D3E26}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="57.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="92" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="92" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="46" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="195.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="115" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="287.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="195.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="92" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="161" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="126.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="126.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="149.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="126.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="161" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EF7C12-F46D-4E08-8A71-1E00844C5EA4}">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0">
-      <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="33"/>
+    <col min="1" max="1" width="18" style="20" customWidth="1"/>
+    <col min="2" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="7" width="35" customWidth="1"/>
+    <col min="8" max="9" width="30" customWidth="1"/>
+    <col min="10" max="11" width="34" customWidth="1"/>
+    <col min="12" max="15" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="9" t="str">
-        <v>司机编号/工况类别</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <v>转弯</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <v>进入主路</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <v>稳速直行</v>
-      </c>
-      <c r="E1" s="6" t="str">
-        <v>直线加速</v>
-      </c>
-      <c r="F1" s="6" t="str">
-        <v>变道超车</v>
-      </c>
-      <c r="G1" s="6" t="str">
-        <v>掉头</v>
-      </c>
-      <c r="H1" s="6" t="str">
-        <v>通过路口</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>D01（普通司机）</v>
-      </c>
-      <c r="B2" s="3" t="str">
-        <v>先踩刹车，刹车慢下来再打方向盘；分左右转向情况，弯中间会补油。
-//回方向习惯慢一些，靠着轮胎带着方向盘回，根据车速，一般单手搓。
-//先车头探出去，便于观察直行的机动车和非机动车。</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>感觉视野盲区多，看不到路，要探身先往前开，慢慢往里进，看到视野盲区的车再做决定</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>不限速能开到100，有车慢慢走
-在里侧开，会开很快//正常速度行驶时跟车习惯通常较近</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="1" t="str">
-        <v>不会让车
-两个车距离大的时候超车
-不看左道距离够不够，一般不会过半个车头</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>通常贴右边线，由于不能把握车宽，所以今天不太敢贴右边线，//内侧道没车就走</v>
-      </c>
-      <c r="H2" s="10" t="str">
-        <v>前面没车的时候仔细查看路口清空，踩着刹车走。前面有车会跟车，如果前车能过那我也能过去。</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>D02（普通司机）</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>右转，先看右后视镜没有行人车辆，会快速通过，通常不会过于注意左边，只会大约看一眼，先看左后看右。左转反之。认为右转比左转容易，可能因为是右利手原因，右手右转打方向盘更容易。
-//进辅路没有很在意道路内侧后方非机动车，且发现其有减速意图。
-//路况比较好的时候没有减速习惯，甚至个别情况还会稍微加速。</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>过绿化带后看左后视镜，判断后车较远，直接加速快速进入主路。如果车多的话也会一点点往前挪，否则会挡视线。进入主路后会立即加速。</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>四环，限速80时，白天可能开70，晚上车少可能会适当超速，但超速20%以内。</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="str">
-        <v>提前压中线了，看对面有没有车，发现没有车，且按了一下喇叭提醒前车。白天用喇叭，晚上也用喇叭多一下，不太喜欢远光灯晃眼。</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>掉头前主动向右侧打方向了，凭感觉估计和右侧车距离。没有避让后侧转进的车，认为车距离较远。一把掉头成功。</v>
-      </c>
-      <c r="H3" s="10" t="str">
-        <v>有人过路口我会完全的让行，比如这个人在往斑马线走，那哪怕是绿灯我也得停下。</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="str">
-        <v>D03（专家司机）</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>先减速，多注意视野盲区，比如绿化带和路边车辆。
-//右转：左右观察都很多，但更注重右侧，因为左侧视野很大，扫一眼即可，而右侧视野逐渐变小，很担心拐弯后路上的逆行非机动车。
-//车流多时转弯仅能慢慢往前蹭，才能别住非机动车。
-//左转：左右反光镜都多次观察///右转进四环很早看左侧的自行车，防止停下准备直行的车辆后影响视野，挡住突然冲出的非机动车这类。</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>进主路过度阶段很长，因此不直接往里切，在过度区域前行至后视镜视野清楚后才进主路。</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>完全按限速开，能开快不会开慢，开慢基本上是基于路况原因</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="str">
-        <v>超车一定不能犹豫，必须给油门超过。</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <v>看右后视镜为了先往右打一下，掉头过程中停了一下为了避免速度过快一把转不过，并且多次看左后视镜，担心左侧其他掉头车辆等。
-//很早观察掉头方向的路况。</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <v>无信号灯路况：直接跟前车右转，而且明确看出行人站住不动，且看右后视镜有无后方非机动车</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="str">
-        <v>D04（普通司机）</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>右转弯：先看右边后视镜，有无行人和非机动车，再看左前方直行车辆，确定左边没车后将车头探出。之后不用看左边，只用看右边，没人没车转弯就可以。因为左边的车肯定能看见我。
-//左转会观察左前方非机动车是否会碰到左车头或车门的位置。</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>看不到主路路况，先降速，慢慢开，等到能看见的时候，确定没车了，就赶紧变道。后方有车情况一般选择让行。</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>平常道路不会超过60，其他道路按照最高限速走。限速60跟车距离3个车位/15米，高速跟车50m之外</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="str">
-        <v>有意向右打方向。看车距，让行对面车辆。较近车道无车时会先用车身占住车道，一把完成掉头。</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <v>右后视镜看不见，车速降到很慢，转弯让行直行非机动车。</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>D05（普通司机）</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>右转：先看左再看右，左侧注意直行来车，比较注意右侧可能有逆行的车辆、非机动车、行人。
-//会主动避让行人</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>从左反光镜看后侧来车，打转向灯逐一变道，不连续变道。</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <v>速度维持限速边缘，车多时车距比较近，车况较好时40码左右行驶会保持一个车身，60码大概2个车身，高速上不会跟车，尽量50到100米</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="str">
-        <v>优先左侧超车，先看后车再看前车，看有没有别的车道有要超车的车</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <v>看红绿灯，对向有车会先避让，掉头过后会看后视镜。</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <v>先看左后看右，脚一直在刹车位置上，就车速慢一点，脚一直带在刹车上就行，然后就左右两次观察就行，主要就是看你这个A柱盲区这块。</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="str">
-        <v>D06（专家司机）</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <v>右转：先看左边的自行车和机动车，同时会注意右边，因为右侧有很多非机动车逆行（辅路上），路口右侧非机动车很多，整体观察左边更多。
-//左转：弯比较大，视线比较好，看右边比较少，还是更注意左边。
-//很早看后视镜，路口前15米左右观察辅路情况，看后车车速，停了一下看辅路非机动车情况，后视镜视野完全清晰后才转弯通过。
-//优先让直行</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>先看左后视镜，主要关注后侧车的车速和距离，后车车速快可能会停下，其他情况基本加速通过。</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <v>习惯靠护栏走，因为很少有突然出现的车、行人等，基本按限速开，偶尔可能会超速，40码城市道路习惯保持的车距是2个车的距离，60码基本两个白线的距离，80码近似保持两个半车身的距离。
-//高速上车距不超过100米，习惯开130/140迈。</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="str">
-        <v>超车习惯：观察其他车车速，比其他车超10迈左右即可，喜欢从右边超车，因为右侧车速慢。先看右后视镜，向右变道再加速。所以习惯走中间车道，便于超车等行为。</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v>习惯看对向来车，绿灯基本优先让对向车先走。因为前面大车掉头可能困难，自己也没有向人行道上开掉大弯。</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <v>没有信号灯所以要先看左边，直到左侧车辆都要右转时有足够时间穿过后开始看右侧。</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="str">
-        <v>D07（普通司机）</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>右转：先看左边，主要是非机动车，其次看机动车，再看右边行人或者逆行的非机动车
-//左转：也先看左边，要并入直行之后才会看右边。</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>看左后方的机动车，看到后车有一个安全距离之后就会加速通过进入主路。</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>比限速低一点点，郊区可能开到100码左右。
-//80码行车可能保持三个车身左右，15米左右；60码保持两个车身，10米左右</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>慢慢加速</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v>只会往左边超车，看左边后面的车距判断能否安全超车。</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>提前往右打了方向且后面没车，划了大圈一把掉头通过，且红灯掉头对向没有来车。</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <v>无信号灯路口左转：先看人行道上的人，再看左侧再看右侧有无来车。</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="str">
-        <v>D08（专家司机）</v>
-      </c>
-      <c r="B9" s="10" t="str">
-        <v>我肯定先看看人行道这有没有人要过来，然后看看左边有没有车过来，两边路况看清楚。
-//边走边准备好让道。要看看斑马线两侧有没有行人。有行人通过基本上就是停车状态，一是让行，二是观察。</v>
-      </c>
-      <c r="C9" s="10" t="str">
-        <v>打转向灯减速，通过后视镜观察。因为这种情况下后视镜是看不见这边有没有的，是因为这个草丛挡着，不能说贴着它就往外拐，那这种情况就慢慢的往里贴。</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>保持限速最高速，看左右后视镜；
-习惯贴栏杆，更有安全感，给后车留空间；
-根据速度调整车距：一到两个车的距离（40km/h, 10m; 60km/h, 20m，以此类推）</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="str">
-        <v>看后方有没有车，和后方车辆的速度，情况允许超车就超车。</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v>防加塞，保持半个车身的车距。虚线要比实线近一点，因为要放插队。
-能否一次性完成掉头，能掉，就往右贴，不能掉，就不贴；尽可能一次性完成掉头。</v>
-      </c>
-      <c r="H9" s="10" t="str">
-        <v>我过路口的时候我都得踩脚刹车，把速度降下来，我都得看看有没有闯红灯的。有没有逆行的？
-我不管走到哪个路口，行人过马路还是要贴着我的车拐弯。首先我会踩一脚让他一下，看看他到底怎么着，如果说他要过马路，我要让他一下，他又没反应。他也不走，我又有充足的空间和时间能过去，那我那种情况下我会走。</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="str">
-        <v>D09（普通司机）</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>右转：余光看有没有人，有没有车，再过；先看左边，右边余光能看到，不会特意看。</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>先打灯，看左边，先摆正车在缓冲段，看后视镜。</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v>没车就60，稍微超一点，65，10%以下；
-基本卡限速，有时候会超一点；
-车距：平时开高速，远一点。100km/H，75-100米
-城市：2个车身距离左右</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="str">
-        <v>
-习惯在最左侧开，往右超车。</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v>右边没有车就往右打方向，一次性完成掉头。
-//感觉车头不会碰绿化带。</v>
-      </c>
-      <c r="H10" s="10" t="str">
-        <v>速度会比较慢一点，看到行人后会停车，让人先过</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="str">
-        <v>D10（专家司机）</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>右转：看左边更多一点，特别是直行路上有车的时候，会有一个提前的判断。</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>进主路有辆车挡住了，想让这辆车先过，但发现这辆车有2-3秒停住没动，判断应该是要让行，所以加速通过了；且在主路后方没车的时候习惯一次性并入最内道。</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>跟着限速走，甚至超速一点点，城市道路和高速上基本保持超速10%以内驾驶。城市道路车距保持也较短，通常1-2个车身</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="str">
-        <v>比较习惯超车，优先左侧超车，看左后方有无来车</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <v>没有掉头指示灯的情况下，通常先看对向来车。实验过程中压到人行道掉头，为了掉头空间更大一点。</v>
-      </c>
-      <c r="H11" s="10" t="str">
-        <v>除了慢，就是要多观察，对向车道，横向车道都要观察，这是习惯</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="str">
-        <v>D11（专家司机）</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <v>在转弯之前很早就会看左右侧反光镜；右转：先看左边（主要看左边），右边会看一眼防止右侧逆行外卖车，转弯会轻带着一点刹车，为了预防一些突发情况，在车转弯后车身基本竖直的时候会加速，不会让方向盘自己回正，防止车晃，会主动控制方向盘的力度；右转有绿化带干扰时实际更喜欢看右后窗，原则上应该停住让非机动车，但自己更喜欢带着一半的刹车。一定要把车头顶出来，大约占道一半左右，给后侧行人和非机动车一个信号。
-//右转：前面有一个摩托车堵了车道，实验中从车右侧超车了，但是可能突然绿灯摩托车起步可能会撞到自己，但实际自己会借非机动车道会更安全。
-//转弯前有时不会完全降速，会让自己左右看的频率更高，第一遍看路况，第二遍是再确认一下。
-//右转发现左侧红灯时，就会主要看右侧非机动车，甚至大路口自己会停下让右侧直行非机动车，由于这些时候非机动车通常会赶灯。绕大圈，车速慢，所以方向盘也不用打的很快。</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>看左后视镜不断并线，由于后侧有车，且绿化带干扰视线，并道时基本没给油，也没踩刹车。
-在后车超过时，且看到该车车尾时会开始给油加速；如果与后车车距足够时候会主动给油；</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>保持车距，三四个车位的时候脚就会准备带刹车了，让车头保持其他车辆难以加塞的距离；路况好的时候会顶限速开；</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="str">
-        <v>从左侧超车，会先探出一半车身判断自己是否具备超车条件，以及会看前车行驶较慢是不是前方有意外状况，这种情况下自己不会超车。</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <v>没有在路口掉头，先不断看右侧，尽量让车往右靠，然后对向绿灯，一直看对向来车，掉过来之后挂倒挡前应该先看右边，可能有刹不住的大车；掉头过程中一直看左边。</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <v>无信号灯路口右转：先看左后看右，对向车打了右转灯所以没让；左转：先看左再看右
-//这类转弯观察优先级是车&gt;非机动车&gt;人（因为他们的速度以及可能对自己造成的 风险等级）
-//过人行横道时都不会给油，减速，脚会在刹车上准备但通常不会踩；路两边有单位出入口等都会准备刹车，担心突然驶出的车，很早会有一定的防范意识。</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="str">
-        <v>D12（专家司机）</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <v>转弯时会看车窗比看反光镜更多，先看左后看右，同时会看反光镜，车身转正后且左右侧保证安全后才会加油门；转弯让直行，车多时可能会以近似停下的速度转弯，可能会踩30%到80%左右的刹车。
-//提前知道要右转后，提前100米左右开始观察右侧辅路。
-//T字路口无信号灯左转很担心右侧突然驶过的直行车辆，也不能过度减速，要结合距离控制速度，避让非机动车。
-//四环路口：先看右边非机动车道、再看人行道行人，会让直行机动车和非机动车。
-//右转：先看辅路，用余光看主路。</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <v>提前很早打转向灯，且逐一并线，发现后车有超车意图，又发现后车返回原车道，自己继续并道。</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>城市道路保持20米左右车距，大约三个车身。</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="str">
-        <v>尽量都不超车，超车、并线很容易发生事故。</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <v>还有50米左右要停的时候已经收油了，准备开始慢刹车。车少，所以留了较大车距掉头，不担心加塞问题，掉头前靠右侧开所以一次性掉头，且车身掉头之后一直看左反光镜。</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <v>无信号灯右转：主要看右边，然后会不断扫视左边，很担心右侧突然冲出来的车，有死角（视野盲区）</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="str">
-        <v>D13（专家司机）</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <v>【出停车场】
-1.先左再右，看对面，习惯。
-2. 出停车场踩着刹车，拐弯一般，10-20%；人、车移动的东西都观察，一扫而过，用余光扫。
-3. 方向盘：一定的速度内，一定要缓，顺势；握方向盘左手转到一个点后，右手接上，手托在方向盘底下；
-【路口转弯+辅路】
-1. 提前踩刹车；先脚踏在油门上没踩下，油门给得很轻，看到行人提前收油，脚放刹车。
-2. 过弯前看左边，辅路后面的大概情况，看右后侧反光镜看右后方来车（自行车）
-3. 刹车上放着脚，转过来后切换到油门，轻轻给油门；
-4. 外卖小哥，突然从后面出现，我在自己的道上，避不开，看到之后会收油，不踩油门，让他先过，加油门会撞上。
-5. 靠边逆行非机动车，不管。
-6. 30-40米开外前车亮刹车灯，先松油门，脚放刹车，迫不得已才会急刹。
-【掉头后右转】
-1. 观察右后方有没有车，观察辅道的车。
-【无红绿灯左转】
-1. 左右观察，行人、非机动车更注意
-2. 先关注左边，再右边</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <v>1. 关注左后方
-2. 丝滑进主路，车轮搭到主路时，一般开始回方向盘，四轮都在主路上，给油门；要有自己的路权再给油门。</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <v>1. 看红绿灯：直行红灯，150米就松油门，慢慢减速，比加塞更重要的是稳。
-2. 有加塞，轻点油门，停稳。</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <v>1. 油门平稳一点，慢慢踩，判断下个路口的操作，做一些预防措施。</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="str">
-        <v>1. 判断能否一次性掉头。
-2. 关注对向来车、行人。
-3. 先看车头离马路边缘的距离，然后看周围。
-4. 掉头过来后关注左侧来车
-5. 平稳：主要是速度慢就可以</v>
-      </c>
-      <c r="H14" s="1" t="str">
-        <v>1. 距离路口20-30米开始判断路口状况，人多的路口立刻松油门脚放刹车上。以备随时停车。
-2. 两边都要看
-3. 匀速行驶看对面车是否会变道</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="str">
-        <v>D14（专家司机）</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <v>习惯：提前打转向灯；1）先看左边电动车、汽车 2）然后看右边有没有逆行的；3）如果远处有车，根据车速来判断，
-一般50米提前看。弯不能拐小，怕逆行；</v>
-      </c>
-      <c r="C15" s="10" t="str">
-        <v>到了路口，那我都会尽量踩刹车减速。减速以后我就会稍微歪一下脑袋看远一点。看远一点儿，看着远车的车速，如果没有车，我就会直接进来打着转向灯，如果看有车过来。我就会我提前打转向灯，然后我直接就停下。你先走，让过去我再上。</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <v>3.5.10秒左右看反光镜；
--晚上有灯光还能看到有车；
--速度保持习惯：大概开40/50，
--注意力习惯： 红灯绿灯，再决定如何匀速决策；绿灯会加油，但稍微看旁边人行道的红绿灯是否会闪。
--车距：喜欢跟车，一个车身的距离，7/8米</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="str">
-        <v>1. 前车慢：想超车，先看左边，预判车速，先打开转向灯。如果车道空，再回车道。</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <v>1. 算是失误，没有一次性掉头，往右靠近尽量不压线；
-2. 看路基：确定车头距离，判断是否可以一次性完成掉头；</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <v>到路口一定要减速，这是最基本的，我肯定是先减速。要往右拐。我就先看左边。看完左边以后，我再看一眼右边，然后我再看左边。有非机动车过来我就停下，等它过去再走。</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="str">
-        <v>D15（专家司机）</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <v>1. 平时习惯：1）观察拐弯方向相反方向；2）再观察转弯方向对侧；3）如果有隔离墩，观察后视镜；
-2. 平时观察：1）观察有没有自行车，外卖车；
-右转会更关注一些；
-右转A3: 先看有没有非机动车，提前预判机动车非机动车；给油意图，斑马线的自行车过完马路后；
-右转A4: 不看左侧原因是，是红灯，即使有人闯红灯，对向车会先减速；
-左转L2:  快速看一下有后面有没有快速的来车；
-右转R2: 先观察左侧，因为现在右侧是红灯；灯变绿了，就减速了；左侧已经直行了，不会再有车了；
-1. 转弯技巧：1）方向盘固定在一个角度，不要拐过来之后扭来扭去；2）出弯道时在弯的中心给油，保证转弯是匀速的；3）回方向盘时顺着车的自己的回弯速度就行；</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <v>1. 进入辅路：1）左后方有没有来车，2）然后快速进弯；
-2. 进入主路：正常；</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <v>1. 习惯：如果前面有读秒的红绿灯，会加速；如果没秒数，会正常速度行驶；
-2. 本次的路段：50公里时速，高峰时段不让别人插进来，车距30公分；平时的话会保证2-3米的车距；</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <v>1. 平时驾驶习惯：今天跟超车类似；
-油门控制：确定没有车了，给油 30%-60%， 20% 30% 不会感到推背感</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <v>1. 平时的超车习惯（VIP）：规矩，具备确定左前方，渐进匀速通过；自己会二三十迈超过，VIP的话不让有推背感；
-2. 观察习惯：1）左前方超车距离是否足够；2）要超越的车辆是否有意图超越其他车的意图；
-判断：1）假如想超车辆前车载货，他一定想超车；
-自我意图提醒：1）一直打着左转向灯和闪灯；</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <v>平时习惯：1）首先确认是否需要观察信号灯；2）可以将车身往右，确保可以一次性掉头；</v>
-      </c>
-      <c r="H16" s="1" t="str">
-        <v>1. 无交通信号灯十字路口：1）确定目视范围内有没有危险的东西；</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="str">
-        <v>D16（专家司机）</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <v>右转：先看左侧来车，再再右侧，也就是同向的非机动车、行人等，习惯来回扫视。转弯后没有选择超车，担心前车不稳定。
-采用柔和的刹车方式：贴着刹车，不是点刹，提前收油门；
-右转A4: 综合看，右边也会看，注意非机动车；
-L2: 看右边，是因为注意到有人；看见路口，怕有人；
-右转R2: 不看左边的原因是，绿灯，左边不会有车；</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <v>很早看左后视镜，但草丛影响视野，且扭头范围很大，除了看后视镜，还会直接看车窗外，能看过草丛后情况；
-</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <v>城市道路40-50，城市道路通常跟车跑，60码以上可能车距70米左右，40码可能跟车50米，环线上高速行驶顶着限速跑，并且可能突然堵起来，车距大约100米，防止这种情况。</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="str">
-        <v>超车条件：1）观察车辆前方，前车的前车；同时扫描左前方车道的车，看有没有慢的车；
-超车过程中的操作：1）打转向灯；脚的油门处于松弛状态；2）观察前车会不会也有相同的超车意图；</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <v>红绿灯掉头看黄线虚实是否需要压斑马线、考虑车身长度以及转弯半径，或者是否能进辅路。
-红灯时只需要注意左侧右转车和右侧左转车，绿灯看对向车，掉头中提前刹车、控车距等保证乘客舒适度。</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="str">
-        <v>D17（普通司机）</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <v>右转：先向左看，看左侧来车和非机动车，后向右看，路况、非机动车等等，左边没车的话直接往右看打直了
-//左转：先看右窗，看右侧来车，然后看左后视镜确认一下后方车况。
-//进四环右转，右侧有一辆闯红灯的非机动车，如果距离较远的话自己可能会直接避让，但这量非机动车也不减速直接冲出，自己就停下避让了，且转弯直接转进中间车道，因为认为右边非机动车太多，想离它们更远一些。</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <v>看左后视镜和左窗，没车的话会直接并到最左边，脚基本放在刹车上，有一个后侧来的白车在视线盲区，没有注意到，在进主路过渡区踩了一脚刹车；且到了过渡区尽头还没有进入主路，到了尽头需要猛打方向盘进入主路</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <v>城市道路在40-60左右，车况好会到80，跟车距离通常比较近，一个车身的距离左右，自己能确定可以刹停即可；今天行驶过程中猛踩了几下油门，试一下车，而且考虑到今天有乘客，跟车相对自己平常驾驶会稍远一点；直行习惯靠左行驶，近乎左侧压线</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <v>喜欢提速，会猛踩油门</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <v>车距比较远的时候可能不会打转向，直接打方向盘过去了；基本按交通规则左侧超车；虽然要右转还是左侧超前车，超车超的很快很迅速的给油门，看左后视镜有没有车，超完后尽量马上回原道，按喇叭提醒后车自己在超车，避免后车再突然提速；超车后没再看右后视镜因为后车一辆大车占道，认为右侧不会再来车。</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <v>不太喜欢等红灯掉头，一次性掉头困难比较大，掉之前往右靠了一下，让掉头空间更大一些；且今天车比较少，自己需要看一下后视镜，确认后面有没有车，需要稍微倒一下车再继续掉头；（雷达响的太敏感）；转弯后要倒的时候来回看左右侧后视镜。</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <v>先看左右两侧，也会看对向来车</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
-        <v>D18（普通司机）</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>右转：先看左边有没有来车，或者对向有没有左转，这一类将驶入同向的车，最后看右侧非机动车等。
-//通常进弯前就松油门，必要时转弯过程中会踩一点油门，要出弯车较少时会开始踩油门。转弯转的很大，认为更安全一些，因为离驾驶位比较远，距离难以判断，也给行人更多一些反应时间，可以多看一点后视镜。</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <v>车多时会在路口停一下，车少会加速直接驶入，更习惯从左侧车窗看，视野会更好，左后侧有一辆黑车让它先通过了，还有一辆和自己速度持平的。</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <v>规避其他车辆，和前车会离很远，如果前方车很近会超车，会低于限速标准开，且驾驶比较激进，具体速度喜欢参照其他车来开。</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <v>提速通常比较快</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <v>判断一个安全距离进行超车，主要是车头和对方车尾的距离，会给对方留10到20米反应，高速时超车距离会更远。不要急打方向，尽量不要踩刹车，超车超出前车一半的距离就会松开油门，并且脚会放到刹车上准备踩，但也不能直接明显降速。</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <v>四方都有车时，为了保证安全会自己最后再转，先让其他车先走，提前向右打一下方向能够实现一次性掉头
-//有一辆大车挡住了直行道，认为很安全，没有驶入的直行车
-//雷达报警过于敏感可能让乘客有心理压力</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
-        <v>D19（普通司机）</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <v>右转：路口前减速先看主路路况，判断其他车辆距离预估自己能否直接行驶通过，不会持续关注左边，因为视野较大，再往弯的内侧车窗看，更加注重一些行人、非机动车及地上的障碍物，同时要确保车尾也能完全通过，因此也会开的稍靠前转较大的弯，车后轮过了停止线。
-//方向调整基于一个pid原理。转向前打方向较快，回方向盘时候方向回正较慢。刹车会建立压力感受前轮的抓地力，然后达到预计峰值，最后会慢慢松刹车。油门控制也是逐步达到预期峰值的过程，类似刹车，先是一个试探的过程。
-//左转：先左后视镜，确认后方有没有超车，然后往路口里就是自己即将驶入的方向看是否有突然出现的车辆，最后再往右看，因为会默认右侧出现的车会更慢，而且往右看只是为了验证而不是为了预防。也是先滑行减速，带一点刹车，开始打方向后会松开刹车。</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <v>先观察左后视镜，直到汇入口，再扭头往主路看，因为在车头偏离时后视镜有盲区。且自己驶入主路后有一辆突然出现的车，在后视镜盲区完全没有提前注意到，松了油门没有踩刹车，认为踩刹车收益并不高，已经刹车晚了，而且刹车会影响舒适性，自己会选择打一下方向，且自己处理方式的判断基于白车速度比自己车速更快。</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <v>会扫视三个后视镜，不会刻意关注车速，而是关注油门的恒定开度，其他油门控制取决于路况速度需求，也会逐渐加油门感知加速度，因此感知速度主要靠体感加速度以及车外动态环境。车距保持两个车身左右。</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <v>会根据有没有乘客，自己开的时候加速会很快，基本直接踩到预期加速的位置，但有乘客时会缓慢加速</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <v>首先要判断前车的意图，比如走走停停，它可能是要找停车位，可能靠边或者要掉头；突然刹车这一类基本是需要停下；刹车灯没亮时认为车主可能会走神，不会主动超车，然后车靠左行驶，超出边线，给前车一个信号，如果前车刹车灯亮了或者向右，则认为前车看到自己将要超车；还会关注视野，如果是在特殊路况例如幼儿园，公交车站这一类的会慢速行驶。自己也会担心存在鬼探头；以及注意左侧车道路况，相对距离变大或者后车较远自己会采取超车。</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <v>提前向右靠，给一个更大的掉头空间，主要关注要调入的方向的车道，掉头前看左后视镜，然后看左车窗。
-//认为对向来车很早会提前观察到，松油门滑行，确定轨迹能一把掉过去后会加速调过去，甚至比预期的转弯半径更小就会加速出弯。
-//自己会有一个风险收益的衡量，认为即使调不过去也只会碰到绿化带，所以尝试一把调，判断距离靠车窗右下角，判断右侧车辆也会给自己留空间掉头，依据车与路的标线距离。看了一下人行道，主要觉得自己有认知盈余，所以会多关注一下行人。</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="str">
-        <v>D20（普通司机）</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <v>右转：先看右边的后视镜，看行人、非机动车，再看上面的后视镜，上方后视镜视野广，基本不看左后视镜；先观察正中心离自己最近的车辆，然后看左右，无顺序的扫视，离车道左侧很近；T字路口右转只会看右反光镜来注意辅路情况；打方向会一点点调整而不是一下转很大，自己转弯会尽量划直角，拐大弯，在弯中间就会开始一点点回正方向了，控制方向盘会自己带一点力；转弯前已经减速了，脚会一直在刹车上但可能不会踩，超过人行横道之后才会开始加速。
-//左转：转向前会左右看还有前方路况，行人、自行车等，拐到一半时看右反光镜，看右侧直行车、后方非机动车等；对向车道没车、非机动车没人没车的时候会走小弯</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <v>提前50米左右就会打转向灯，然后提前看主路情况，依然贴近左侧开，担心右侧突然出现行人、非机动车，不看中间的后视镜，会刹车、看左反光镜，看主路车辆情况决定自己在辅路过渡区域的哪个部分进主路，直接并到主路最内侧车道了，因为发现这个车道没有车。</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <v>市区限速60左右的没摄像头时候可能会稍微超速到80，环路车况好可能会开更快。一直偏左侧行驶，车上乘客可能会感觉更安全，行驶中和前车距离比较近，保持一个车身。</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="str">
-        <v>往左车道超车时候前先看左反光镜，然后看中间的后视镜，能看到后面几个车道的情况。目测一下后车的距离还有速度，速度和距离够的话自己就会加速超车，在观察后车的同时基本已经开始变道了，没有超车条件后会再把速度降下来，道路空旷和车上有人时候自己会变方向比较慢，但和左后方车车距很小的时候会猛打一下方向，油门刹车轻重取决于车型。</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <v>会往右靠一点，然后看中间的后视镜，观察后车，然后看对向道路来车，其他左转右转车辆都会看，包括要驶入和自己相同车道的所有车，左右反光镜都会看，观察顺序取决于路况，向右靠目测距离够了之后会直接往左打死，然后会主动回正而不是仅用方向盘自己回正的力，而且很早不踩油门了，靠带速走；对向有车时自己会先探出车头，让对向的车看到自己要掉头，车身完全掉过来有足够空间后就会开始踩油门</v>
-      </c>
-      <c r="H21" s="1" t="str">
-        <v>整个大视野都会很关注，前方、左右都回看，包括反光镜、车窗等等，没有观察顺序，都会观察，速度也会变慢，认为左右转没什么区别，在这种路况可能会更注意行人，突然要走或者又停下的行人。
-//到路口，任何行人可能出来的开口处自己都会习惯踩一下刹车</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="str">
-        <v>D21（普通司机）</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <v>右转：先看左侧正常行驶车辆、行人，其中重点关注外卖非机动车，确认可以通过后会关注自己右后侧的外卖车和行人。通常拐弯前在人行横道前或停止线前就会轻踩一下刹车，无特殊情况就会直接转过去了，拐弯时可能会轻踩一点刹车，主要靠车怠速通过，确认左后方没有车辆了会给油，方向盘打到一定角度后就会一直保持，在实验中会让方向盘自己回正，但实验中还是主动将方向盘回正了。基本不看左后视镜
-//左转：左侧会有来车，不会看左右后视镜，主要开左右和前车窗，先关注右侧来车，确认右侧可以通过后，马上看左侧有无直行车辆。</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <v>提前通过左侧车窗看主路情况，主要是为了避免看不见和自己并行的车，然后会减速，到了进主路的口基本会刹停，不管主路有没有车，然后通过左后视镜看主路情况判断自己什么时候驶入主路，方向盘通常打很小，不会猛变方向</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <v>习惯在车道中间行驶，城市内车速40-60之间，通常油门保持一个力度就不动了，不太会选择溜车，车距习惯保持一个车身，堵车时为了避免被加塞，会有意缩短车距</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <v>根据前方路况，或者右侧有没有入口判断自己要不要加速，比自己均速行驶的时候会观察更多。会慢慢踩油门，不喜欢突然加速，必要情况下可能会踩的实一点但也不是猛加速</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <v>有护栏全是同向行驶车辆时决定要超车时先看左后视镜，借道超车时会探出车头观察对向有无车辆，会超出前车半个到一个车身让后车看到自己的转向灯才会并回原车道，并且回原车道只看右后视镜</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <v>过了栏杆后关注对向车道情况，并且靠车道右侧行驶，基本不看后视镜了，因为自己不会给后面的车留出掉头的空间，基本过了栏杆自己就掉头，确认能掉头了就会把方向盘打死，不会停下车来打方向，靠怠速通过，油门基本不踩，实验中差不多掉了一半了就开始倒车了来进行二次掉头，判断能不能一次性完成掉头全靠感觉，没有参照物。再起步时自己就会踩油门加速直行，担心自己掉头太久会造成堵车，车很少的时候自己不会主动加油</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="str">
-        <v>D22（普通司机）</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <v>右转：过停止线后视野范围充足时，停止线前也在看，可能五米左右开始打转向灯，但视野可能受限，先看左边来车，通过左车窗和挡风玻璃，主要看机动车，但非机动车也会观察到。再看右边非机动车和行人，车头快要出弯时开始看左后视镜。
-//关注非机动车更多，认为更危险，尤其是又后视镜看到的非机动车。拐弯幅度正常，习惯左手单手开，只有方向盘需要急转时会两只手控制。转弯前5米左右，脚开始放在刹车上但不一定踩不踩，根据路况决定是否踩刹车。过停止线开始打方向，习惯一边向前开一边转，车快打直时将方向盘回正，看车的情况决定是否需要主动给力回正方向盘。往回打方向盘的时候就会开始给油，车身基本打直后会踩油门更深一点。担心转弯时车飘了所以油门和刹车都会慢踩。</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <v>看左后视镜来看主路的车，会踩刹车，进入主路后会提速</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <v>限速多少开多少，可能会超速20%以内，而且会习惯超车，车距习惯保持25米左右</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <v>路况较好时会油门会踩很重，达到预期速度时会基本送开油门溜车。</v>
-      </c>
-      <c r="F23" s="1" t="str">
-        <v>前方车明显低于限速水平的时候会习惯超车。习惯：先看左后视镜，没车先并到左侧，看原道前车情况，是单纯低速还是前方多辆车堵住，然后加速，油门也踩比较急，可能基本会在这个车道上继续行驶了，该车道前方有车才会开回原道。后视镜中能看到左后侧车的距离25米左右，判断可以超车。方向通常打很快变道。并回原道可能需要自己车身超过前车大半个车身后可以回原道，打方向也很大。</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <v>先向右打一点方向基本车轮压倒右侧实线的位置，红灯掉头基本直接打过，绿灯时观察对向来车，其他方向来车以及行人非机动车等等，更关注对向更靠近自己车道的来车。转弯自己掉头转到一半的位置后，车基本横过来时，自己就不会管其他方向车辆了，尽量自己快点通过。保证两个车道都没有车时候才会掉头。全程可能带一点油门，或者带速通过，可能轻踩一下然后脚放刹车上，看一次能不能通过，方向都会直接打死，出弯方向往回打的时候就会开始踩油门，或者掉两次的情况倒车结束后也会开始踩油门。可能看后视镜防非机动车。</v>
-      </c>
-      <c r="H23" s="1" t="str">
-        <v>无信号灯路口：一直看前方和右后视镜，然后直接右转了，快转过来后会浅看一下左后视镜</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="str">
-        <v>D23（普通司机）</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <v>1. 观察：右转弯习惯：转之前，慢下来看左侧来车，机动车和非机动车。在停止线之前减速。有车就停，没有就继续转弯。减速取决于路况。右边很容易看到，主要关注左边。转之前会先看右前方。
-车多：刹停不多，按照步行速度行驶
-2. 方向盘：预计车少，一边观察一边转；预计车多，先观察。今天介于两者之间。一边转一边加方向。左右调整。还差20-30°摆正的时候方向盘回方向。
-3. 油门：回方向开始补油了。</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <v>1. 盲区：左后方先看一下。
-2. 慢慢切近主路，
-3. 刹车：进过渡区之前就刹。
-</v>
-      </c>
-      <c r="D24" s="1" t="str" xml:space="preserve">
-        <v>1. 旁边的车速度为标准， </v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <v>1. 路上有车，车的速度，没车，限速，保持恒定速度</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <v>这次没有变道超车。
-看后视镜，看后面的车，安全，就并过去。超车后尽可能留在超车道。
-油门速度提到限速或其他车的速度。限速速度不够超车，那就没必要超。
-后视镜能完整看到车的车头，代表安全了。</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <v>1. 开始掉头前确保没车，两个车道都没车
-2. 先刹停再起步
-3. 30°左右掉头加油、回方向：取决于路况
-4. 向右借道，获得更多掉头空间</v>
-      </c>
-      <c r="H24" s="1" t="str">
-        <v>1. 先看右边，行人</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="str">
-        <v>D24（普通司机）</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <v>右转弯驾驶习惯：
-1）观察右后视镜镜有没有非机动车，2）然后会计算转弯的力；3）不看左后方；
-右转比左转更难，因为要看非机动车。
-方向盘习惯：
-慢慢线性达到位，边走边打方向盘。回方向盘，60°时，通常通过阻力把车线性回方向盘。当有速度损失的时候，开始补油门。
-A3右转：看不见后视镜，靠车窗。
-右转：提早刹车；</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <v>
-平时驾驶习惯：
-实验操作：
-1）观察，通过眼睛余光瞟一眼，车速快不快，堵不堵车。包括左后视镜。
-2）操作：后面完全没有车，直接连续向左变道至最左车道。</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <v>平时驾驶习惯：
-1）车速，跟着前车的驾驶速度。保持车流是最安全的方式。
-2）车距，不太近也不太远。不能一概而论。跟时间段有关。享受匀速的感觉。大概20米车距
-3）习惯在路偏左。尽量让车贴近左边。</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <v>平时习惯：
-1）油门，找到引擎舒适区，让转速和动力都很均衡。让汽车地输出功率是恒定的。
-2）会加速到当前道路限速。</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <v>平时习惯：
-1）超车会选择一个相差速度更大的时候，尽可能快地超过它。
-2）观察：超车道后方有没有车，前面的车有没有变道，慢速车前面的车有没有变道意图。
-3）不会把车往左一点点看前车。
-4）当后车在后视镜中的大小变成一点点的时候，快速变道超车。尽快超车，不超过5秒，超车的时候要给地板油。</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <v>驾驶习惯：
-1）追求越快一把过；
-2）观察：对向车流，会综合评估。如果对向车道的车快慢不一，就会不掉头。
-3）还会观察右面的路口；通过右前车窗，不靠后视镜。靠头大幅度地转。
-4）方向盘打死，不看右后视镜。
-5）不靠怠速走，会让车充满动力。</v>
-      </c>
-      <c r="H25" s="1" t="str">
-        <v>无交通信号灯路口：
-1）观察：哪里车辆密集，东西速度快，就看哪里。</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0">
-      <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="33"/>
-  </cols>
-  <sheetData>
-    <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="9" t="str">
-        <v>司机编号/工况类别</v>
-      </c>
-      <c r="B1" s="17" t="str">
-        <v>转弯</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="str">
-        <v>进入主路</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="str">
-        <v>稳速直行</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="str">
-        <v>直线加速</v>
-      </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="str">
-        <v>变道超车</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17" t="str">
-        <v>掉头</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="str">
-        <v>通过路口</v>
-      </c>
-      <c r="O1" s="17"/>
+    <row r="1" spans="1:27" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="O1" s="15"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -2323,112 +3919,104 @@
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
     </row>
-    <row r="2">
-      <c r="A2" s="14" t="str">
-        <v>D01（普通司机）</v>
-      </c>
-      <c r="B2" s="16" t="str">
-        <v>先踩刹车，刹车慢下来再打方向盘；分左右转向情况，弯中间会补油。
-//回方向习惯慢一些，根据车速，靠着轮胎自动带着方向盘回正。
-//先车头探出去，便于观察直行的机动车和非机动车。</v>
-      </c>
-      <c r="C2" s="16" t="str">
-        <v>"First, apply the brakes and slow down before turning the steering wheel. Consider the direction of the turn, left or right, and apply throttle in the middle of the turn.
-Ease back on the steering wheel slowly, allowing the speed of the vehicle and the tires to naturally return the wheel to center.
-Initially, edge the front of the car out to better observe oncoming motor vehicles and non-motorized vehicles."</v>
-      </c>
-      <c r="D2" s="12" t="str">
-        <v>感觉视野盲区多，看不到路，要探身先往前开，慢慢往里进，看到视野盲区的车再做决定</v>
-      </c>
-      <c r="E2" s="12" t="str">
-        <v>Feeling there are many blind spots, unable to see the road, I lean forward first to drive ahead slowly and move inward. Decisions are made after seeing vehicles in the blind spots.</v>
-      </c>
-      <c r="F2" s="12" t="str">
-        <v>不限速能开到100，有车慢慢走。在里侧开，会开很快。正常速度行驶时跟车习惯通常较近。</v>
-      </c>
-      <c r="G2" s="12" t="str">
-        <v>When not limited by speed, I can reach 100 km/h, slowing down when there's traffic. I tend to drive fast in the inner lanes. My following distance tends to be closer when driving at normal speeds.</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="12" t="str">
-        <v>不会让车。
-两个车距离大的时候超车。
-不看左道距离够不够，一般不会过半个车头。</v>
-      </c>
-      <c r="K2" s="12" t="str">
-        <v>I do not yield to other vehicles. I overtake when there's a considerable distance between two vehicles. I don't check if the left lane has enough space; generally, I won't go beyond half a car's length ahead.</v>
-      </c>
-      <c r="L2" s="12" t="str">
-        <v>通常贴右边线，由于不能把握车宽，所以今天不太敢贴右边线，内侧道没车就走。</v>
-      </c>
-      <c r="M2" s="12" t="str">
-        <v>I usually keep to the right side of the lane, but today, I was cautious about not sticking too close to the right due to uncertainty about the vehicle's width. If the inner lane is clear, I proceed there.</v>
-      </c>
-      <c r="N2" s="12" t="str">
-        <v>前面没车的时候仔细查看路口清空，踩着刹车走。前面有车会跟车，如果前车能过那我也能过去。</v>
-      </c>
-      <c r="O2" s="12" t="str">
-        <v>When there are no vehicles ahead, I carefully check that the intersection is clear while pressing on the brake. If there is a vehicle in front, I will follow it, assuming that if the vehicle ahead can make it through, so can I.</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="str">
-        <v>D02（普通司机）</v>
-      </c>
-      <c r="B3" s="12" t="str">
-        <v>右转，先看右后视镜没有行人车辆，会快速通过，通常不会过于注意左边，只会大约看一眼，先看左后看右。左转反之。认为右转比左转容易，可能因为是右利手原因，右手右转打方向盘更容易。
-//进辅路没有很在意道路内侧后方非机动车，且发现其有减速意图。
-//路况比较好的时候没有减速习惯，甚至个别情况还会稍微加速。</v>
-      </c>
-      <c r="C3" s="12" t="str">
-        <v>"For turning right, first check the right rearview mirror for pedestrians and vehicles. If clear, proceed quickly, typically paying less attention to the left side, glancing over briefly, looking left then right. For left turns, the opposite applies. It's believed that right turns are easier than left turns, possibly because being right-handed makes turning the steering wheel to the right more effortless.
-When merging onto a service road, not much attention is paid to non-motorized vehicles inside and behind on the road, especially if they seem to be slowing down.
-In conditions where the road is in good shape, there's a tendency not to slow down, and in some cases, there might even be a slight acceleration."</v>
-      </c>
-      <c r="D3" s="12" t="str">
-        <v>过绿化带后看左后视镜，判断后车较远，直接加速快速进入主路。如果车多的话也会一点点往前挪，否则会挡视线。进入主路后会立即加速。</v>
-      </c>
-      <c r="E3" s="12" t="str">
-        <v>After passing the green belt, I check the left rearview mirror, judge if the following car is far away, and then accelerate to quickly enter the main road. If there are many cars, I would also inch forward to avoid blocking my line of sight. Upon entering the main road, I immediately accelerate.</v>
-      </c>
-      <c r="F3" s="12" t="str">
-        <v>四环，限速80时，白天可能开70，晚上车少可能会适当超速，但超速20%以内。</v>
-      </c>
-      <c r="G3" s="12" t="str">
-        <v>On the fourth ring road, with a speed limit of 80 km/h, I might drive at 70 km/h during the day and slightly exceed the limit at night when there are fewer cars, but only by up to 20%.</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="str">
-        <v>提前压中线了，看对面有没有车，发现没有车，且按了一下喇叭提醒前车。白天用喇叭，晚上也用喇叭多一下，不太喜欢远光灯晃眼。</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <v>I align with the median in advance, checking for oncoming traffic. If there are no vehicles ahead, I honk to alert the vehicle in front of me. I use the horn during the day and more so at night, preferring it over using high beams that dazzle.</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <v>掉头前主动向右侧打方向了，凭感觉估计和右侧车距离。没有避让后侧转进的车，认为车距离较远。一把掉头成功。</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <v>Before making a U-turn, I intentionally steer to the right, estimating the distance to the vehicles on the right. I didn't yield to vehicles entering from behind, judging the distance to be sufficiently large. The U-turn was completed successfully.</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <v>有人过路口我会完全的让行，比如这个人在往斑马线走，那哪怕是绿灯我也得停下。</v>
-      </c>
-      <c r="O3" s="12" t="str">
-        <v>I fully yield to pedestrians at crosswalks, even if it means stopping at a green light should someone be approaching the crosswalk.</v>
+    <row r="2" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="1:27" ht="92" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -2443,54 +4031,47 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4">
-      <c r="A4" s="13" t="str">
-        <v>D03（专家司机）</v>
-      </c>
-      <c r="B4" s="12" t="str">
-        <v>先减速，多注意视野盲区，比如绿化带和路边车辆。
-//右转：左右观察都很多，但更注重右侧，因为左侧视野很大，扫一眼即可，而右侧视野逐渐变小，很担心拐弯后路上的逆行非机动车。
-//车流多时转弯仅能慢慢往前蹭，才能别住非机动车。
-//左转：左右反光镜都多次观察
-//右转进四环很早看左侧的自行车，防止停下准备直行的车辆后影响视野，挡住突然冲出的非机动车这类。</v>
-      </c>
-      <c r="C4" s="12" t="str">
-        <v>"Begin by decelerating, paying extra attention to blind spots, such as green belts and vehicles parked by the roadside.
-When turning right: Observations are made both to the left and right, but the focus is more on the right side. This is because the left side typically offers a broader view, which can be quickly scanned, while the right side’s visibility gradually decreases, raising concerns about encountering oncoming non-motorized vehicles after making the turn. During heavy traffic, turns must be made slowly to edge forward and avoid non-motorized vehicles.
-For left turns: Both the left and right mirrors are checked multiple times. 
-// When turning into the fourth ring road, cyclists on the left are observed early on to prevent vehicles that are stopping to go straight from blocking the view and hiding suddenly emerging non-motorized vehicles."</v>
-      </c>
-      <c r="D4" s="12" t="str">
-        <v>进主路过度阶段很长，因此不直接往里切，在过度区域前行至后视镜视野清楚后才进主路。</v>
-      </c>
-      <c r="E4" s="12" t="str">
-        <v>The transition phase into the main road is long, so I don't cut directly inward. I proceed in the transition area until the rearview mirror provides a clear view before entering the main road.</v>
-      </c>
-      <c r="F4" s="12" t="str">
-        <v>完全按限速开，能开快不会开慢，开慢基本上是基于路况原因</v>
-      </c>
-      <c r="G4" s="12" t="str">
-        <v>I strictly adhere to speed limits, driving fast when conditions allow and only slowing down due to road conditions.</v>
+    <row r="4" spans="1:27" ht="149.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="12" t="str">
-        <v>超车一定不能犹豫，必须给油门超过。</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <v>When overtaking, hesitation is not an option; it's crucial to press the accelerator to pass.</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <v>看右后视镜为了先往右打一下，掉头过程中停了一下为了避免速度过快一把转不过，并且多次看左后视镜，担心左侧其他掉头车辆等。很早观察掉头方向的路况。</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <v>I checked the right rearview mirror to slightly steer right before the U-turn. During the turn, I paused momentarily to avoid turning too sharply at high speed and frequently checked the left rearview mirror, concerned about other vehicles making U-turns. I observed the conditions of the intended U-turn direction well in advance.</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <v>无信号灯路况：直接跟前车右转，而且明确看出行人站住不动，且看右后视镜有无后方非机动车</v>
-      </c>
-      <c r="O4" s="12" t="str">
-        <v>In situations without traffic signals: I follow the vehicle ahead to make a right turn, ensuring that pedestrians are stationary and checking the right rearview mirror for any rear non-motorized traffic.</v>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -2505,45 +4086,47 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
     </row>
-    <row r="5">
-      <c r="A5" s="14" t="str">
-        <v>D04（普通司机）</v>
-      </c>
-      <c r="B5" s="12" t="str">
-        <v>右转弯：先看右边后视镜，有无行人和非机动车，再看左前方直行车辆，确定左边没车后将车头探出。之后不用看左边，只用看右边，没人没车转弯就可以。因为左边的车肯定能看见我。
-//左转会观察左前方非机动车是否会碰到左车头或车门的位置。</v>
-      </c>
-      <c r="C5" s="12" t="str">
-        <v>"Turning right: First, check the right-side mirror for pedestrians and non-motorized vehicles, then look at the oncoming vehicles to the left front to ensure no cars are approaching from the left before edging the car out. After that, there's no need to look to the left, just focus on the right; if there are no people or vehicles, proceed with the turn. This is because vehicles on the left will definitely be able to see me.
-When turning left, attention is given to whether non-motorized vehicles in the left front may collide with the left front or the door of the car."</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <v>看不到主路路况，先降速，慢慢开，等到能看见的时候，确定没车了，就赶紧变道。后方有车情况一般选择让行。</v>
-      </c>
-      <c r="E5" s="12" t="str">
-        <v>If the main road's condition is not visible, I slow down and drive slowly until I can see clearly. Once sure there are no vehicles, I quickly change lanes. If there are vehicles behind, I generally choose to yield.</v>
-      </c>
-      <c r="F5" s="12" t="str">
-        <v>平常道路不会超过60，其他道路按照最高限速走。限速60跟车距离3个车位/15米，高速跟车50m之外</v>
-      </c>
-      <c r="G5" s="12" t="str">
-        <v>On regular roads, I don't exceed 60 km/h, adhering to the maximum speed limit on other roads. With a 60 km/h limit, the following distance is 3 car lengths/15 meters, and on highways, it's beyond 50 meters.</v>
+    <row r="5" spans="1:27" ht="184" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12" t="str">
-        <v>有意向右打方向。看车距，让行对面车辆。较近车道无车时会先用车身占住车道，一把完成掉头。</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <v>I intended to steer right, observing the distance to oncoming traffic and yielding when necessary. If the closer lane was clear, I would occupy it with my vehicle to complete the U-turn in one go.</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <v>右后视镜看不见，车速降到很慢，转弯让行直行非机动车。</v>
-      </c>
-      <c r="O5" s="12" t="str">
-        <v>If the right rearview mirror does not provide visibility, I reduce my speed significantly, yielding to pedestrians and non-motorized vehicles going straight while turning.</v>
+      <c r="J5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -2558,49 +4141,43 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
     </row>
-    <row r="6">
-      <c r="A6" s="14" t="str">
-        <v>D05（普通司机）</v>
-      </c>
-      <c r="B6" s="12" t="str">
-        <v>右转：先看左再看右，左侧注意直行来车，比较注意右侧可能有逆行的车辆、非机动车、行人。
-//会主动避让行人</v>
-      </c>
-      <c r="C6" s="12" t="str">
-        <v>"Turning right: First look left, then right. Pay attention to oncoming vehicles from the left, while being particularly mindful of the possibility of vehicles going the wrong way, non-motorized vehicles, and pedestrians on the right.
-Will actively yield to pedestrians."</v>
-      </c>
-      <c r="D6" s="12" t="str">
-        <v>从左反光镜看后侧来车，打转向灯逐一变道，不连续变道。</v>
-      </c>
-      <c r="E6" s="12" t="str">
-        <v>Observing the vehicles coming from behind in the left side mirror, I signal and change lanes one by one, not changing lanes continuously.</v>
-      </c>
-      <c r="F6" s="12" t="str">
-        <v>速度维持限速边缘，车多时车距比较近，车况较好时40码左右行驶会保持一个车身，60码大概2个车身，高速上不会跟车，尽量50到100米</v>
-      </c>
-      <c r="G6" s="12" t="str">
-        <v>I maintain a speed at the edge of the speed limit; when there's traffic, the following distance is relatively close. In good conditions, driving around 40 km/h, I keep a distance of one car length, and at 60 km/h, approximately two car lengths. On highways, I don't tailgate, keeping a distance of 50 to 100 meters whenever possible.</v>
+    <row r="6" spans="1:27" ht="126.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="12" t="str">
-        <v>优先左侧超车，先看后车再看前车，看有没有别的车道有要超车的车</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <v>The preference is to overtake on the left, first checking the vehicles behind and then those ahead to see if there are any vehicles in other lanes intending to overtake.</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <v>看红绿灯，对向有车会先避让，掉头过后会看后视镜。</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <v>I pay attention to traffic lights; if there are vehicles coming from the opposite direction, I yield before completing the U-turn and then check the rearview mirror.</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <v>先看左后看右，脚一直在刹车位置上，就车速慢一点，脚一直带在刹车上就行，然后就左右两次观察就行，主要就是看你这个A柱盲区这块。</v>
-      </c>
-      <c r="O6" s="12" t="str">
-        <v>I look left and then right, keeping my foot on the brake to slow down. Just maintaining a light pressure on the brake is enough, with a couple of observations to each side, mainly to check the blind spot around the A-pillar.</v>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -2615,53 +4192,47 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
     </row>
-    <row r="7">
-      <c r="A7" s="13" t="str">
-        <v>D06（专家司机）</v>
-      </c>
-      <c r="B7" s="12" t="str">
-        <v>右转：先看左边的自行车和机动车，同时会注意右边，因为右侧有很多非机动车逆行（辅路上），路口右侧非机动车很多，整体观察左边更多。
-//左转：弯比较大，视线比较好，看右边比较少，还是更注意左边。
-//很早看后视镜，路口前15米左右观察辅路情况，看后车车速，停了一下看辅路非机动车情况，后视镜视野完全清晰后才转弯通过。
-//优先让直行</v>
-      </c>
-      <c r="C7" s="12" t="str">
-        <v>"Turning right: First, observe the bicycles and motor vehicles on the left, while also paying attention to the right because there are often non-motorized vehicles traveling in the opposite direction on the service road. Intersections on the right tend to have many non-motorized vehicles, so overall, more attention is paid to the left.
-Turning left: The turn is wider, which provides better visibility, so there's less need to look to the right, with more focus remaining on the left.
-Check the rearview mirror early, about 15 meters before the intersection, to observe the situation on the service road and the speed of the vehicles behind. Pause for a moment to check the condition of non-motorized vehicles on the service road, only proceeding with the turn once the rearview mirror offers a clear view.
-Priority is given to vehicles going straight."</v>
-      </c>
-      <c r="D7" s="12" t="str">
-        <v>先看左后视镜，主要关注后侧车的车速和距离，后车车速快可能会停下，其他情况基本加速通过。</v>
-      </c>
-      <c r="E7" s="12" t="str">
-        <v>First, I look at the left rearview mirror, mainly focusing on the speed and distance of the vehicles behind. If the following vehicle is fast, I might stop; in other situations, I generally accelerate to pass.</v>
-      </c>
-      <c r="F7" s="12" t="str">
-        <v>习惯靠护栏走，因为很少有突然出现的车、行人等，基本按限速开，偶尔可能会超速，40码城市道路习惯保持的车距是2个车的距离，60码基本两个白线的距离，80码近似保持两个半车身的距离。高速上车距不超过100米，习惯开130/140迈。</v>
-      </c>
-      <c r="G7" s="12" t="str">
-        <v>I habitually drive close to the guardrails, as there are rarely sudden appearances of vehicles or pedestrians. I usually stick to the speed limit, occasionally exceeding it. On 40 km/h urban roads, I keep a distance of two car lengths, at 60 km/h roughly the distance between two white lines, and at 80 km/h nearly two and a half car lengths. On highways, the following distance does not exceed 100 meters, and I'm accustomed to driving at 130/140 km/h.</v>
+    <row r="7" spans="1:27" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="12" t="str">
-        <v>超车习惯：观察其他车车速，比其他车超10迈左右即可，喜欢从右边超车，因为右侧车速慢。先看右后视镜，向右变道再加速。所以习惯走中间车道，便于超车等行为。</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <v>Overtaking habit: I observe the speed of other vehicles and aim to exceed them by about 10 mph, preferring to overtake from the right because vehicles there tend to move slower. I first check the right rearview mirror before changing lanes to the right and then accelerating. Thus, I usually keep to the middle lane for easier overtaking and similar maneuvers.</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <v>习惯看对向来车，绿灯基本优先让对向车先走。因为前面大车掉头可能困难，自己也没有向人行道上开掉大弯。</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <v>I habitually watch for oncoming traffic, usually letting vehicles from the opposite direction go first at a green light. This is because large vehicles in front might have difficulty making U-turns, and I also avoid making wide turns onto the sidewalk.</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <v>没有信号灯所以要先看左边，直到左侧车辆都要右转时有足够时间穿过后开始看右侧。</v>
-      </c>
-      <c r="O7" s="12" t="str">
-        <v>At intersections without traffic signals, I first look to the left until it's clear that vehicles on the left are turning right and there's enough time to cross, then I start observing the right side.</v>
+      <c r="J7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -2676,53 +4247,47 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
     </row>
-    <row r="8">
-      <c r="A8" s="14" t="str">
-        <v>D07（普通司机）</v>
-      </c>
-      <c r="B8" s="12" t="str">
-        <v>右转：先看左边，主要是非机动车，其次看机动车，再看右边行人或者逆行的非机动车
-//左转：也先看左边，要并入直行之后才会看右边。</v>
-      </c>
-      <c r="C8" s="12" t="str">
-        <v>"Turning right: Start by looking to the left, focusing primarily on non-motorized vehicles, then on motor vehicles, and finally on pedestrians or non-motorized vehicles coming in the opposite direction on the right.
-Turning left: Similarly, begin by looking to the left, and only after merging with the straight-ahead traffic will you check the right side."</v>
-      </c>
-      <c r="D8" s="12" t="str">
-        <v>看左后方的机动车，看到后车有一个安全距离之后就会加速通过进入主路。</v>
-      </c>
-      <c r="E8" s="12" t="str">
-        <v>Observing the motor vehicles on the left rear, I accelerate to enter the main road after ensuring there's a safe distance from the following vehicle.</v>
-      </c>
-      <c r="F8" s="12" t="str">
-        <v>比限速低一点点，郊区可能开到100码左右。80码行车可能保持三个车身左右，15米左右；60码保持两个车身，10米左右</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <v>I drive slightly below the speed limit; in suburban areas, I might reach up to 100 km/h. At 80 km/h, I maintain about three car lengths, around 15 meters; at 60 km/h, two car lengths, about 10 meters.</v>
-      </c>
-      <c r="H8" s="12" t="str">
-        <v>慢慢加速</v>
-      </c>
-      <c r="I8" s="12" t="str">
-        <v>Accelerate slowly</v>
-      </c>
-      <c r="J8" s="12" t="str">
-        <v>只会往左边超车，看左边后面的车距判断能否安全超车。</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <v>I only overtake on the left, assessing the distance to the vehicle behind on the left to judge if it's safe to overtake.</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <v>提前往右打了方向且后面没车，划了大圈一把掉头通过，且红灯掉头对向没有来车。</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <v>I steered right in advance when there were no vehicles behind me, making a wide arc to complete the U-turn in one go, especially during a red light when there were no oncoming vehicles.</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <v>无信号灯路口左转：先看人行道上的人，再看左侧再看右侧有无来车。</v>
-      </c>
-      <c r="O8" s="12" t="str">
-        <v>Making a left turn at an intersection without signals involves first checking for pedestrians on the crosswalk, then observing the left and right for incoming vehicles.</v>
+    <row r="8" spans="1:27" ht="184" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -2737,49 +4302,51 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="str">
-        <v>D08（专家司机）</v>
-      </c>
-      <c r="B9" s="12" t="str">
-        <v>我肯定先看看人行道这有没有人要过来，然后看看左边有没有车过来，两边路况看清楚。
-//边走边准备好让道。要看看斑马线两侧有没有行人。有行人通过基本上就是停车状态，一是让行，二是观察。</v>
-      </c>
-      <c r="C9" s="12" t="str">
-        <v>"I'll definitely first check the sidewalk to see if anyone is coming, then look to the left to see if there are any cars approaching, making sure to clearly observe the conditions on both sides.
-//Continue moving while being ready to yield. It's important to check for pedestrians on both sides of the crosswalk. If there are pedestrians crossing, it generally means coming to a stop, for two reasons: one is to yield, and the other is to observe."</v>
-      </c>
-      <c r="D9" s="12" t="str">
-        <v>打转向灯减速，通过后视镜观察。因为这种情况下后视镜是看不见这边有没有的，是因为这个草丛挡着，不能说贴着它就往外拐，那这种情况就慢慢的往里贴。</v>
-      </c>
-      <c r="E9" s="12" t="str">
-        <v>I signal and decelerate, observing through the rearview mirror. Since the rearview mirror does not provide visibility due to bushes, I can't just turn out closely beside them; in such situations, I slowly move inward.</v>
-      </c>
-      <c r="F9" s="12" t="str">
-        <v>保持限速最高速，看左右后视镜；习惯贴栏杆，更有安全感，给后车留空间；根据速度调整车距：一到两个车的距离（40km/h, 10m; 60km/h, 20m，以此类推）</v>
-      </c>
-      <c r="G9" s="12" t="str">
-        <v>I keep to the maximum speed limit, constantly checking the left and right rearview mirrors; I prefer driving close to the guardrails for a sense of safety, leaving space for the vehicle behind. The following distance is adjusted according to speed: one to two car lengths (40 km/h, 10 m; 60 km/h, 20 m, and so on).</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="str">
-        <v>看后方有没有车，和后方车辆的速度，情况允许超车就超车。</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <v>I check for vehicles behind and their speed; if conditions allow, I overtake.</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <v>防加塞，保持半个车身的车距。虚线要比实线近一点，因为要放插队。判断能否一次性完成掉头，能掉，就往右贴，不能掉，就不贴；尽可能一次性完成掉头。</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <v>To prevent being cut off, I maintain a half-car length distance. I stay closer to the dashed line than the solid line to allow room for merging. I assess whether a U-turn can be completed in one move; if so, I stick closer to the right, if not, I don't; aiming to complete the U-turn in one action.</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <v>我过路口的时候我都得踩脚刹车，把速度降下来，我都得看看有没有闯红灯的。有没有逆行的？我不管走到哪个路口，行人过马路还是要贴着我的车拐弯。首先我会踩一脚让他一下，看看他到底怎么着，如果说他要过马路，我要让他一下，他又没反应。他也不走，我又有充足的空间和时间能过去，那我那种情况下我会走。</v>
-      </c>
-      <c r="O9" s="12" t="str">
-        <v>When approaching an intersection, I always press the brake to reduce speed, vigilant for any vehicles running red lights or going against traffic. Regardless of which intersection I'm at, if pedestrians are crossing close to my vehicle as I turn, I first gently press the brake to give them a moment to decide their action. If the pedestrian doesn't proceed and I have enough space and time to go, then I proceed under such circumstances.</v>
+    <row r="9" spans="1:27" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -2794,52 +4361,47 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10">
-      <c r="A10" s="14" t="str">
-        <v>D09（普通司机）</v>
-      </c>
-      <c r="B10" s="12" t="str">
-        <v>右转：余光看有没有人，有没有车，再过；先看左边，右边余光能看到，不会特意看。</v>
-      </c>
-      <c r="C10" s="12" t="str">
-        <v>"Turning right: Use peripheral vision to check for people and cars before proceeding; first look to the left, as the right can be seen with peripheral vision without specifically looking."</v>
-      </c>
-      <c r="D10" s="12" t="str">
-        <v>先打灯，看左边，先摆正车在缓冲段，看后视镜。</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <v>Signal first, look to the left, straighten the vehicle in the buffer zone, and then check the rearview mirror.</v>
-      </c>
-      <c r="F10" s="12" t="str">
-        <v>没车就60，稍微超一点，65，10%以下；
-基本卡限速，有时候会超一点；
-车距：平时开高速，远一点。100km/H，75-100米
-城市内驾驶：保持2个车身距离左右</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <v>When there's no traffic, I drive at 60 km/h, slightly exceeding it to 65 km/h, staying within 10% over the limit. I generally adhere to the speed limit, occasionally exceeding it slightly. For following distance: on highways, I keep a greater distance, around 75-100 meters at 100 km/h. In urban driving, I maintain about two car lengths.</v>
+    <row r="10" spans="1:27" ht="115" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="12" t="str">
-        <v>
-习惯在最左侧开，往右超车。</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <v>I habitually drive in the leftmost lane, preferring to overtake from the right.</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <v>右边没有车就往右打方向，一次性完成掉头。
-判断车头不会碰绿化带。</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <v>If there are no vehicles on the right, I steer right to complete the U-turn in one go, ensuring the front of the car doesn't hit the green belt.</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <v>速度会比较慢一点，看到行人后会停车，让人先过</v>
-      </c>
-      <c r="O10" s="12" t="str">
-        <v>When I see pedestrians, I slow down significantly and will stop to let them cross first.</v>
+      <c r="J10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -2854,47 +4416,47 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="str">
-        <v>D10（专家司机）</v>
-      </c>
-      <c r="B11" s="12" t="str">
-        <v>右转：看左边更多一点，特别是直行路上有车的时候，会有一个提前的判断。</v>
-      </c>
-      <c r="C11" s="12" t="str">
-        <v>"Turning right: Pay more attention to the left, especially when there are cars on the straight path, making an advance judgment."</v>
-      </c>
-      <c r="D11" s="12" t="str">
-        <v>进主路有辆车挡住了，想让这辆车先过，但发现这辆车有2-3秒停住没动，判断应该是要让行，所以加速通过了；且在主路后方没车的时候习惯一次性并入最内道。</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <v>Upon attempting to merge onto the main road, a vehicle was blocking the way, intending to let it pass first. However, noticing the vehicle stopped for 2-3 seconds without moving, I deduced it was yielding, so I accelerated through; and when there were no cars behind on the main road, I habitually merged into the innermost lane in one go.</v>
-      </c>
-      <c r="F11" s="12" t="str">
-        <v>跟着限速走，甚至超速一点点，城市道路和高速上基本保持超速10%以内驾驶。城市道路车距保持也较短，通常1-2个车身</v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <v>I follow the speed limit, even exceeding it slightly, generally keeping within 10% over the limit on both urban roads and highways. The following distance on urban roads is shorter, typically 1-2 car lengths.</v>
+    <row r="11" spans="1:27" ht="80.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="12" t="str">
-        <v>比较习惯超车，优先左侧超车，看左后方有无来车</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <v>I am accustomed to overtaking, with a preference for doing so on the left, checking for incoming traffic from the left rear.</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <v>没有掉头指示灯的情况下，通常先看对向来车。实验过程中压到人行道掉头，为了掉头空间更大一点。</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <v>In the absence of a U-turn signal, I typically check for oncoming traffic first. During the experiment, I drove onto the sidewalk for the U-turn to have more space.</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <v>除了慢，就是要多观察，对向车道，横向车道都要观察，这是习惯</v>
-      </c>
-      <c r="O11" s="12" t="str">
-        <v>Apart from driving slowly, it's crucial to observe extensively, including the opposing lane and lateral roads as part of my routine.</v>
+      <c r="J11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -2909,59 +4471,47 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
     </row>
-    <row r="12">
-      <c r="A12" s="13" t="str">
-        <v>D11（专家司机）</v>
-      </c>
-      <c r="B12" s="12" t="str">
-        <v>在转弯之前很早就会看左右侧反光镜；右转：先看左边（主要看左边），右边会看一眼防止右侧逆行外卖车，转弯会轻带着一点刹车，为了预防一些突发情况，在车转弯后车身基本竖直的时候会加速，不会让方向盘自己回正，防止车晃，会主动控制方向盘的力度；右转有绿化带干扰时实际更喜欢看右后窗，原则上应该停住让非机动车，但自己更喜欢带着一半的刹车。一定要把车头顶出来，大约占道一半左右，给后侧行人和非机动车一个信号。
-//右转：前面有一个摩托车堵了车道，实验中从车右侧超车了，但是可能突然绿灯摩托车起步可能会撞到自己，但实际自己会借非机动车道会更安全。
-//转弯前有时不会完全降速，会让自己左右看的频率更高，第一遍看路况，第二遍是再确认一下。
-//右转发现左侧红灯时，就会主要看右侧非机动车，甚至大路口自己会停下让右侧直行非机动车，由于这些时候非机动车通常会赶灯。绕大圈，车速慢，所以方向盘也不用打的很快。</v>
-      </c>
-      <c r="C12" s="12" t="str">
-        <v>Before making a turn, I always check the side mirrors well in advance.
-When turning right, I primarily look to the left, as that is where most of the traffic concerns originate. However, I do glance to the right to prevent any possible collision with oncoming delivery bikes traveling in the wrong direction. While turning, I slightly engage the brake to prepare for any unforeseen circumstances. Once the car is almost back to a straight position post-turn, I accelerate and do not let the steering wheel re-center by itself to prevent the car from swaying. I actively control the steering wheel to ensure stability. If there is a green belt causing visibility issues during a right turn, I prefer to look out the rear right window. In principle, I should stop and give way to non-motorized traffic, but I tend to keep the brake partially engaged. It's crucial to edge the car out, occupying about half the lane, to signal to pedestrians and non-motorized vehicles behind me.
-During a right turn, if a motorcycle is blocking the lane ahead, I may overtake from the right side. However, there's a risk that the motorcycle might start moving as the light turns green, potentially causing a collision. In practice, using the non-motorized lane for overtaking is safer.
-Sometimes, I don't fully reduce speed before turning, which increases the frequency of my left and right checks. The first check is to assess the road conditions, and the second is to confirm safety.
-Upon noticing a red light to the left while planning a right turn, I focus more on the non-motorized traffic on the right. At major intersections, I might even stop to let the non-motorized vehicles on the right proceed, especially since they often rush to beat the traffic light. Taking a wide turn allows for a slower speed, so there's no need to turn the steering wheel quickly.</v>
-      </c>
-      <c r="D12" s="12" t="str">
-        <v>看左后视镜不断并线，由于后侧有车，且绿化带干扰视线，并道时基本没给油，也没踩刹车。
-在后车超过时，且看到该车车尾时会开始给油加速；如果与后车车距足够时候会主动给油；</v>
-      </c>
-      <c r="E12" s="12" t="str">
-        <v>"Continuously merging lanes while observing the left rearview mirror. Due to a vehicle behind and the green belt obstructing the view, I neither accelerated nor braked while merging. I began to accelerate after the vehicle behind me passed and I could see its tail; if there was a sufficient gap with the following vehicle, I would actively accelerate."</v>
-      </c>
-      <c r="F12" s="12" t="str">
-        <v>保持车距，三四个车位的时候脚就会准备带刹车了，让车头保持其他车辆难以加塞的距离；路况好的时候会顶限速开；</v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <v>I maintain a following distance, preparing to brake when three or four car spaces away to keep a gap that makes it difficult for others to cut in. In good conditions, I drive at the speed limit.</v>
+    <row r="12" spans="1:27" ht="92" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="12" t="str">
-        <v>从左侧超车，会先探出一半车身判断自己是否具备超车条件，以及会看前车行驶较慢是不是前方有意外状况，这种情况下自己不会超车。</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <v>When overtaking from the left, I partially edge out the vehicle to assess whether I have the conditions for overtaking and to check if the slow-moving vehicle ahead is due to potential incidents upfront. In such cases, I refrain from overtaking.</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <v>没有在路口掉头，先不断看右侧，尽量让车往右靠，然后对向绿灯，一直看对向来车，掉过来之后挂倒挡前应该先看右边，可能有刹不住的大车；掉头过程中一直看左边。</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <v>Not making a U-turn at the intersection, I continually check the right side, keeping the car as right as possible, then observe the oncoming traffic at the green light. Before switching to reverse after the turn, it's essential to check the right side for any large vehicles that might not be able to stop in time; during the U-turn, I always look to the left.</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <v>无信号灯路口右转：先看左后看右，对向车打了右转灯所以没让；左转：先看左再看右
-//这类转弯观察优先级是车&gt;非机动车&gt;人，因为他们的速度以及可能对自己造成的风险等级。
-//过人行横道时都不会给油，减速，脚会在刹车上准备但通常不会踩；路两边有单位出入口等都会准备刹车，担心突然驶出的车，很早会有一定的防范意识。</v>
-      </c>
-      <c r="O12" s="12" t="str">
-        <v>At an intersection without traffic signals when turning right: I first look left, then right. I didn't yield because the oncoming vehicle indicated a right turn; for left turns: I first look left, then right.
-//The priority in these observations is vehicles &gt; non-motorized vehicles &gt; pedestrians, due to their speed and the potential risk they pose.
-//When crossing a pedestrian crossing, I don’t accelerate but slow down, with my foot ready on the brake, usually without pressing it; I’m prepared to brake at exits of institutions on both sides of the road, wary of vehicles suddenly pulling out, maintaining early precaution.</v>
+      <c r="J12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -2976,55 +4526,47 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
     </row>
-    <row r="13">
-      <c r="A13" s="13" t="str">
-        <v>D12（专家司机）</v>
-      </c>
-      <c r="B13" s="12" t="str">
-        <v>转弯时会看车窗比看反光镜更多，先看左后看右，同时会看反光镜，车身转正后且左右侧保证安全后才会加油门；转弯让直行，车多时可能会以近似停下的速度转弯，可能会踩30%到80%左右的刹车。
-//提前知道要右转后，提前100米左右开始观察右侧辅路。
-//T字路口无信号灯左转很担心右侧突然驶过的直行车辆，也不能过度减速，要结合距离控制速度，避让非机动车。
-//四环路口：先看右边非机动车道、再看人行道行人，会让直行机动车和非机动车。
-//右转：先看辅路，用余光看主路。</v>
-      </c>
-      <c r="C13" s="12" t="str">
-        <v>When turning, I tend to look through the car windows more than at the mirrors, starting with the left and then the right, while also checking the mirrors. Acceleration occurs only after the car straightens and it’s safe on both sides. During a turn, priority is given to straight-going traffic. When traffic is heavy, the turn might be made at a speed close to stopping, possibly applying the brakes from 30% to 80%.
-Upon deciding to turn right, observation of the right service road begins about 100 meters in advance.
-At T-intersections without traffic lights, making a left turn can be worrisome due to the possibility of cars coming straight from the right. It’s important not to reduce speed too much, instead managing speed in relation to distance to give way to non-motorized vehicles.
-At a fourth ring road intersection: First, check the non-motorized vehicle lane on the right, then the pedestrian sidewalk, yielding to both straight-going motorized and non-motorized traffic.
-For a right turn: Start by observing the service road, using peripheral vision for the main road.</v>
-      </c>
-      <c r="D13" s="12" t="str">
-        <v>提前很早打转向灯，且逐一并线，发现后车有超车意图，又发现后车返回原车道，自己继续并道。</v>
-      </c>
-      <c r="E13" s="12" t="str">
-        <v>Signal well in advance, merging lanes one by one. Upon noticing the rear vehicle intending to overtake but then returning to its lane, I continued to merge.</v>
-      </c>
-      <c r="F13" s="12" t="str">
-        <v>城市道路保持20米左右车距，大约三个车身。</v>
-      </c>
-      <c r="G13" s="12" t="str">
-        <v>On urban roads, I keep a following distance of about 20 meters, roughly three car lengths.</v>
+    <row r="13" spans="1:27" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="12" t="str">
-        <v>尽量都不超车，超车、并线很容易发生事故。</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <v>I generally avoid overtaking as merging and changing lanes can easily lead to accidents.</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <v>还有50米左右要停的时候已经收油了，准备开始慢刹车。车少，所以留了较大车距掉头，不担心加塞问题，掉头前靠右侧开所以一次性掉头，且车身掉头之后一直看左反光镜。</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <v>About 50 meters before stopping, I've already started to ease off the accelerator, preparing to brake slowly. With fewer cars, I took a larger turning radius without worrying about being cut off. Since I was driving on the right side before the U-turn, I completed it in one go, continuously monitoring the left side mirror after the turn.</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <v>无信号灯右转：主要看右边，然后会不断扫视左边，很担心右侧突然冲出来的车，有死角和视野盲区。</v>
-      </c>
-      <c r="O13" s="12" t="str">
-        <v>Turning right without traffic signals: I primarily watch the right, then continually scan the left, concerned about vehicles suddenly emerging from the right due to blind spots and visibility issues.</v>
+      <c r="J13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -3039,93 +4581,47 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
     </row>
-    <row r="14">
-      <c r="A14" s="13" t="str">
-        <v>D13（专家司机）</v>
-      </c>
-      <c r="B14" s="12" t="str">
-        <v>【出停车场】
-1.先左再右，看对面，习惯。
-2. 出停车场踩着刹车，拐弯一般，10-20%；人、车移动的东西都观察，一扫而过，用余光扫。
-3. 方向盘：一定的速度内，一定要缓，顺势；握方向盘左手转到一个点后，右手接上，手托在方向盘底下；
-【路口转弯+辅路】
-1. 提前踩刹车；先脚踏在油门上没踩下，油门给得很轻，看到行人提前收油，脚放刹车。
-2. 过弯前看左边，辅路后面的大概情况，看右后侧反光镜看右后方来车
-3. 刹车上放着脚，转过来后切换到油门，轻轻给油门；
-4. 外卖小哥，突然从后面出现，我在自己的道上，避不开，看到之后会收油，不踩油门，让他先过，加油门会撞上。
-5. 靠边逆行非机动车，不管。
-6. 30-40米开外前车亮刹车灯，先松油门，脚放刹车，迫不得已才会急刹。
-【掉头后右转】
-1. 观察右后方有没有车，观察辅道的车。
-【无红绿灯左转】
-1. 左右观察，行人、非机动车更注意
-2. 先关注左边，再右边</v>
-      </c>
-      <c r="C14" s="12" t="str">
-        <v>Exiting Parking Lots
-Look left then right, checking the opposite side as a habit.
-Exiting a parking lot involves braking gently, typically between 10-20%; observe moving objects like people and cars in a sweeping glance, using peripheral vision.
-Steering wheel: Within a certain speed, movements should be smooth and natural. After turning the wheel with the left hand to a certain point, the right hand takes over, resting beneath the steering wheel.
-Turning at Intersections + Service Roads
-Brake in advance; start with your foot hovering over the accelerator without pressing it, applying very light throttle. If pedestrians are spotted, decelerate in advance and switch to braking.
-Before making a turn, look to the left to gauge the general situation of the service road behind, then check the right rear-view mirror for vehicles approaching from behind on the right.
-Keep your foot on the brake, switching to the accelerator after completing the turn, and gently press the gas.
-If a delivery person suddenly appears from behind and I'm in my lane unable to avoid them, I would decelerate, not press the accelerator, letting them pass first to avoid collision.
-Ignore non-motorized vehicles driving against traffic on the side.
-If the brake lights of the car ahead light up 30-40 meters away, ease off the accelerator and rest your foot on the brake, resorting to an emergency stop only if absolutely necessary.
-Making a Right Turn After a U-turn
-Check for vehicles behind on the right and observe the service road traffic.
-Turning Left at an Intersection Without Traffic Lights
-Observe both left and right, paying extra attention to pedestrians and non-motorized vehicles.
-Prioritize checking the left side, then the right.</v>
-      </c>
-      <c r="D14" s="12" t="str">
-        <v>1. 关注左后方
-2. 丝滑进主路，车轮搭到主路时，一般开始回方向盘，四轮都在主路上，给油门；要有自己的路权再给油门。</v>
-      </c>
-      <c r="E14" s="12" t="str">
-        <v>"1. Pay attention to the left rear.
-2. Smoothly merge onto the main road, typically beginning to straighten the steering wheel as the wheels touch the main road, accelerating once all four wheels are on the main road; accelerate further once I have my own right of way."</v>
-      </c>
-      <c r="F14" s="12" t="str">
-        <v>1. 看红绿灯：直行红灯，150米就松油门，慢慢减速，比加塞更重要的是稳。
-2. 有加塞，轻点油门，停稳。</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <v>"1. Observing traffic lights: For a straight red light, I start easing off the accelerator 150 meters ahead, gradually slowing down. Stability is more important than cutting in.
-2. Upon encountering someone cutting in, I lightly press the accelerator and stop steadily."</v>
-      </c>
-      <c r="H14" s="12" t="str">
-        <v>1. 油门平稳一点，慢慢踩，判断下个路口的操作，做一些预防措施。</v>
-      </c>
-      <c r="I14" s="12" t="str">
-        <v>Gradually accelerating involves steadily increasing throttle pressure, allowing for a smooth transition in speed while making judgments about upcoming intersections and taking precautionary measures.</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12" t="str">
-        <v>1. 判断能否一次性掉头。
-2. 关注对向来车、行人。
-3. 先看车头离马路边缘的距离，然后看周围。
-4. 掉头过来后关注左侧来车
-5. 平稳：主要是速度慢就可以</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <v>"1. Assess if a one-time U-turn is possible.
-2. Pay attention to oncoming traffic and pedestrians.
-3. First check the distance of the front of the car from the edge of the road, then observe the surroundings.
-4. After the U-turn, watch for vehicles coming from the left.
-5. Smoothness: Mainly, slow speed makes it manageable."</v>
-      </c>
-      <c r="N14" s="12" t="str">
-        <v>1. 距离路口20-30米开始判断路口状况，人多的路口立刻松油门脚放刹车上。以备随时停车。
-2. 两边都要看
-3. 匀速行驶看对面车是否会变道</v>
-      </c>
-      <c r="O14" s="12" t="str">
-        <v>"1. Start assessing the intersection from 20-30 meters away, immediately easing off the accelerator and readying the brake at busy intersections to stop at any moment.
-2. Look both ways.
-3. Maintain a steady speed and watch for oncoming vehicles possibly changing lanes."</v>
+    <row r="14" spans="1:27" ht="230" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -3140,56 +4636,47 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
     </row>
-    <row r="15">
-      <c r="A15" s="13" t="str">
-        <v>D14（专家司机）</v>
-      </c>
-      <c r="B15" s="12" t="str">
-        <v>习惯：提前打转向灯；1）先看左边电动车、汽车 2）然后看右边有没有逆行的；3）如果远处有车，根据车速来判断，
-一般50米提前看。弯不能拐小，怕逆行；</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <v>"Habit: Signal in advance; 1) First, check for electric bikes and cars on the left 2) Then, look to the right for any vehicles going in the opposite direction; 3) If there are vehicles in the distance, judge based on their speed, typically checking 50 meters in advance. Don't make the turn too tight, to avoid oncoming traffic."</v>
-      </c>
-      <c r="D15" s="12" t="str">
-        <v>到了路口，那我都会尽量踩刹车减速。减速以后我就会稍微歪一下脑袋看远一点。看远一点儿，看着远车的车速，如果没有车，我就会直接进来打着转向灯，如果看有车过来。我就会我提前打转向灯，然后我直接就停下。你先走，让过去我再上。</v>
-      </c>
-      <c r="E15" s="12" t="str">
-        <v>Approaching an intersection, I always try to brake and slow down. After slowing down, I slightly tilt my head to look further. Looking further to gauge the speed of distant vehicles, if there are no vehicles, I directly enter signaling. If I see an approaching vehicle, I signal in advance and then stop completely. "You go first, I'll follow."</v>
-      </c>
-      <c r="F15" s="12" t="str">
-        <v>-左右看反光镜；
--速度保持习惯：大概开40/50，
--注意力习惯： 看前方是红灯还是绿灯，再决定如何匀速决策；绿灯会加油，但稍微看旁边人行道的红绿灯是否会闪。
--车距：喜欢跟车，一个车身的距离，7/8米</v>
-      </c>
-      <c r="G15" s="12" t="str">
-        <v>"- Check mirrors on both sides;
-Speed habit: roughly 40/50 km/h,
-Attention habit: Monitor whether the light ahead is red or green to decide how to adjust speed smoothly; accelerate at green lights but also glance at the pedestrian signals to see if they're about to change.
-Following distance: I prefer to follow closely, at a distance of one car length, about 7/8 meters."</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="str">
-        <v>1. 前车慢：想超车，先看左边，预判车速，先打开转向灯。如果车道空，再回车道。</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <v>If the vehicle ahead is slow and I wish to overtake, I first look to the left, gauge the speed, and then signal. If the lane is clear, I return to my lane after overtaking.</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <v>1. 算是失误，没有一次性掉头，往右靠近尽量不压线；
-2. 看路基：确定车头距离，判断是否可以一次性完成掉头；</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <v>"1. It was a mistake not to complete the U-turn in one go, staying close to the right without crossing the line.
-2. Check the road base: Determine the distance of the front of the car to decide if a one-time U-turn can be completed."</v>
-      </c>
-      <c r="N15" s="12" t="str">
-        <v>到路口一定要减速，这是最基本的，我肯定是先减速。要往右拐。我就先看左边。看完左边以后，我再看一眼右边，然后我再看左边。有非机动车过来我就停下，等它过去再走。</v>
-      </c>
-      <c r="O15" s="12" t="str">
-        <v>Approaching an intersection necessitates slowing down, which is fundamental. If planning to turn right, I first check the left side, then glance at the right side, and look left again. If a non-motorized vehicle is approaching, I stop, wait for it to pass, then proceed.</v>
+    <row r="15" spans="1:27" ht="391" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -3204,78 +4691,47 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16">
-      <c r="A16" s="13" t="str">
-        <v>D15（专家司机）</v>
-      </c>
-      <c r="B16" s="12" t="str">
-        <v>1. 平时习惯：1）观察拐弯方向相反方向；2）再观察转弯方向对侧；3）如果有隔离墩，观察后视镜；
-2. 平时观察：1）观察有没有自行车，外卖车；
-右转会更关注一些；
-右转A3: 先看有没有非机动车，提前预判机动车非机动车；给油意图，斑马线的自行车过完马路后；
-右转A4: 不看左侧原因是，是红灯，即使有人闯红灯，对向车会先减速；
-左转L2:  快速看一下有后面有没有快速的来车；
-右转R2: 先观察左侧，因为现在右侧是红灯；灯变绿了，就减速了；左侧已经直行了，不会再有车了；
-1. 转弯技巧：1）方向盘固定在一个角度，不要拐过来之后扭来扭去；2）出弯道时在弯的中心给油，保证转弯是匀速的；3）回方向盘时顺着车的自己的回弯速度就行；</v>
-      </c>
-      <c r="C16" s="16" t="str" xml:space="preserve">
-        <v>"1. Usual habits: 1) Observe the direction opposite to the turning direction; 2) Then observe the opposite side of the turning direction; 3) If there are barriers, check the rearview mirror;
-2. Regular observations: 1) Check for bicycles and delivery bikes;
-More attention is paid when turning right;
-Right turn A3: First check for non-motorized vehicles, anticipate motor and non-motor vehicles in advance; intention to accelerate after bicycles on the crosswalk have crossed;
-Right turn A4: The reason for not looking to the left is that it is a red light; even if someone runs the red light, the oncoming traffic will slow down first;
-Left turn L2: Quickly check if there are fast-approaching vehicles from behind;
-Right turn R2: First observe the left side because the right side is currently red; when the light turns green, then slow down; if the left side has gone straight, there will be no more vehicles;
-Turning techniques: 1) Keep the steering wheel at a fixed angle, do not wiggle it after making the turn; 2) Accelerate at the center of the curve when exiting the turn to ensure a uniform turning speed; 3) Simply follow the natural pace of the car when straightening the steering wheel;"
- </v>
-      </c>
-      <c r="D16" s="12" t="str">
-        <v>1. 进入辅路：1）左后方有没有来车，2）然后快速进弯；
-2. 进入主路：正常；</v>
-      </c>
-      <c r="E16" s="12" t="str">
-        <v>"1. Entering a service road: 1) Check for approaching vehicles from the left rear, 2) then quickly turn;
-2. Entering the main road: Normal;"</v>
-      </c>
-      <c r="F16" s="12" t="str">
-        <v>1. 习惯：如果前面有读秒的红绿灯，会加速；如果没秒数，会正常速度行驶；
-2. 本次的路段：50公里时速，高峰时段不让别人插进来，车距30公分；平时的话会保证2-3米的车距；</v>
-      </c>
-      <c r="G16" s="12" t="str">
-        <v>"1. Habit: If there's a countdown on the traffic light ahead, I'll accelerate; if there's no countdown, I proceed at normal speed;
-2. On this route segment: 50 km/h speed limit, during peak times I don't allow others to cut in, maintaining a following distance of 30 centimeters; otherwise, I ensure a 2-3 meters distance."</v>
-      </c>
-      <c r="H16" s="12" t="str">
-        <v>1. 平时驾驶习惯：今天跟超车类似；
-油门控制：确定没有车了，给油 30%-60%， 20% 30% 不会感到推背感</v>
-      </c>
-      <c r="I16" s="12" t="str">
-        <v>"1. Regular driving habits: Today’s acceleration resembled overtaking;
-Throttle control: Once certain there are no vehicles ahead, accelerate by 30%-60%. A 20% to 30% increase does not produce a significant push-back sensation."</v>
-      </c>
-      <c r="J16" s="12" t="str">
-        <v>1. 平时的超车习惯（VIP）：规矩，具备确定左前方，渐进匀速通过；自己会二三十迈超过，VIP的话不让有推背感；
-2. 观察习惯：1）左前方超车距离是否足够；2）要超越的车辆是否有意图超越其他车的意图；
-判断：1）假如想超车辆前车载货，他一定想超车；
-自我意图提醒：1）一直打着左转向灯和闪灯；</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <v>"1. Regular overtaking habits (VIP): orderly, ensuring clear conditions ahead on the left and proceeding at a steady pace; I exceed by twenty to thirty miles without causing a push-back sensation for VIPs.
-2. Observation habits: 1) Whether there's enough distance ahead on the left for overtaking; 2) Whether the vehicle to be overtaken intends to overtake another vehicle;
-Judgment: 1) If the vehicle ahead is a cargo vehicle, it definitely wants to overtake;
-Self-reminder: 1) Keep the left turn signal and warning lights on;"</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <v>平时习惯：1）首先确认是否需要观察信号灯；2）可以将车身往右，确保可以一次性掉头；</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <v>Regular habit: 1) First, determine if it's necessary to watch the traffic lights; 2) Move the car right to ensure a one-time U-turn is possible.</v>
-      </c>
-      <c r="N16" s="12" t="str">
-        <v>1. 无交通信号灯十字路口：1）确定目视范围内有没有危险的东西；</v>
-      </c>
-      <c r="O16" s="12" t="str">
-        <v>At intersections without traffic signals: 1) Ensure there are no hazards within my line of sight;</v>
+    <row r="16" spans="1:27" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -3290,55 +4746,52 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
     </row>
-    <row r="17">
-      <c r="A17" s="13" t="str">
-        <v>D16（专家司机）</v>
-      </c>
-      <c r="B17" s="12" t="str">
-        <v>右转：先看左侧来车，再再右侧，也就是同向的非机动车、行人等，习惯来回扫视。转弯后没有选择超车，担心前车不稳定。
-采用柔和的刹车方式：贴着刹车，不是点刹，提前收油门；
-右转A4: 综合看，右边也会看，注意非机动车；
-L2: 看右边，是因为注意到有人；看见路口，怕有人；
-右转R2: 不看左边的原因是，绿灯，左边不会有车；</v>
-      </c>
-      <c r="C17" s="12" t="str">
-        <v>"Turning right: First look at the oncoming traffic on the left, then at the right side, including non-motorized vehicles and pedestrians moving in the same direction, habitually scanning back and forth. After turning, opt not to overtake, concerned about the instability of the car ahead.
-Use a gentle braking method: Keep close to the brake, not tapping, and reduce throttle in advance;
-Right turn A4: Take an overall look, also checking the right side, paying attention to non-motorized vehicles;
-L2: Look to the right because of noticing someone; seeing the intersection, fearing someone might be there;
-Right turn R2: The reason for not looking to the left is that it’s a green light, there won’t be cars from the left;"</v>
-      </c>
-      <c r="D17" s="12" t="str">
-        <v>很早看左后视镜，但草丛影响视野，且扭头范围很大，除了看后视镜，还会直接看车窗外，能看过草丛后情况；
-</v>
-      </c>
-      <c r="E17" s="12" t="str">
-        <v>Checking the left rearview mirror early, but the view is obstructed by bushes, and the range of turning my head is significant. In addition to checking the mirror, I also look directly out of the window to see beyond the bushes;</v>
-      </c>
-      <c r="F17" s="12" t="str">
-        <v>城市道路40-50，城市道路通常跟车跑，60码以上可能车距70米左右，40码可能跟车50米，环线上高速行驶顶着限速跑，并且可能突然堵起来，车距大约100米，防止这种情况。</v>
-      </c>
-      <c r="G17" s="12" t="str">
-        <v>Urban roads 40-50 km/h, usually maintaining a close following distance, above 60 km/h the distance might be around 70 meters, at 40 km/h approximately 50 meters. On circular highways driving at the speed limit, and traffic may suddenly congest, maintaining about 100 meters distance to prevent such situations.</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12" t="str">
-        <v>超车条件：1）观察车辆前方，前车的前车；同时扫描左前方车道的车，看有没有慢的车；
-超车过程中的操作：1）打转向灯；脚的油门处于松弛状态；2）观察前车会不会也有相同的超车意图；</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <v>"Conditions for overtaking: 1) Observe the vehicle ahead and the vehicle in front of that one; also scan the left front lane for slower vehicles;
-During overtaking: 1) Signal; keep the throttle relaxed; 2) Check if the vehicle ahead also intends to overtake;"</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <v>红绿灯掉头看黄线虚实是否需要压斑马线、考虑车身长度以及转弯半径，或者是否能进辅路。红灯时只需要注意左侧右转车和右侧左转车，绿灯看对向车，掉头中提前刹车、控车距等保证乘客舒适度。</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <v>For red light U-turns, consider whether to cross the zebra crossing based on the yellow line's solidity, consider the car's length and turning radius, or whether it's possible to enter a service road. At a red light, only need to be cautious of left-turning vehicles on the right and right-turning vehicles on the left; at a green light, watch for oncoming traffic. Braking in advance during the U-turn, controlling the distance, etc., ensures passenger comfort.</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+    <row r="17" spans="1:27" ht="356.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -3352,56 +4805,44 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
     </row>
-    <row r="18">
-      <c r="A18" s="14" t="str">
-        <v>D17（普通司机）</v>
-      </c>
-      <c r="B18" s="12" t="str">
-        <v>右转：先向左看，看左侧来车和非机动车，后向右看，路况、非机动车等等，左边没车的话直接往右看打直了
-//左转：先看右窗，看右侧来车，然后看左后视镜确认一下后方车况。
-//进四环右转，右侧有一辆闯红灯的非机动车，如果距离较远的话自己可能会直接避让，但这量非机动车也不减速直接冲出，自己就停下避让了，且转弯直接转进中间车道，因为认为右边非机动车太多，想离它们更远一些。</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <v>"Turning right: First look to the left, observing oncoming traffic and non-motorized vehicles, then to the right for road conditions, non-motorized vehicles, etc. If there are no cars on the left, directly look right and straighten out.
-//Left turn: First check the right window for oncoming traffic, then use the left rearview mirror to confirm the situation of the vehicles behind.
-//Turning right into the fourth ring, there's a non-motorized vehicle running the red light on the right. If it's at a distance, I might avoid it directly, but if the non-motorized vehicle doesn't slow down and dashes out, I'll stop to give way, and turn directly into the middle lane, believing it's too crowded with non-motorized vehicles on the right and wanting to keep further away from them."</v>
-      </c>
-      <c r="D18" s="12" t="str">
-        <v>看左后视镜和左窗，没车的话会直接并到最左边，脚基本放在刹车上，有一个后侧来的白车在视线盲区，没有注意到，在进主路过渡区踩了一脚刹车；且到了过渡区尽头还没有进入主路，到了尽头需要猛打方向盘进入主路</v>
-      </c>
-      <c r="E18" s="12" t="str">
-        <v>Observing through the left rearview mirror and left window, if there are no vehicles, I directly merge to the far left. My foot is generally on the brake. A white car from behind was in the blind spot, unnoticed, until I braked while in the transition zone to the main road; and upon reaching the end of the transition zone without having merged onto the main road, I needed to sharply turn the steering wheel to enter the main road.</v>
-      </c>
-      <c r="F18" s="12" t="str">
-        <v>城市道路在40-60左右，车况好会到80，跟车距离通常比较近，一个车身的距离左右，自己能确定可以刹停即可；今天行驶过程中猛踩了几下油门，试一下车，而且考虑到今天有乘客，跟车相对自己平常驾驶会稍远一点；直行习惯靠左行驶，近乎左侧压线</v>
-      </c>
-      <c r="G18" s="12" t="str">
-        <v>On city roads, speeds typically range from 40-60 km/h, increasing to 80 km/h when conditions are good. Following distances are usually close, about one car length, ensuring I can stop safely. Today, I aggressively pressed the accelerator a few times to test the car, and considering I had passengers, I kept a slightly longer distance from the vehicle ahead than usual. I prefer driving close to the left side, nearly touching the lane line.</v>
-      </c>
-      <c r="H18" s="12" t="str">
-        <v>喜欢提速，会猛踩油门</v>
-      </c>
-      <c r="I18" s="12" t="str">
-        <v>I enjoy speeding up and tend to press the accelerator hard.</v>
-      </c>
-      <c r="J18" s="12" t="str">
-        <v>车距比较远的时候可能不会打转向，直接打方向盘过去了；基本按交通规则左侧超车；虽然要右转还是左侧超前车，超车超的很快很迅速的给油门，看左后视镜有没有车，超完后尽量马上回原道，按喇叭提醒后车自己在超车，避免后车再突然提速；超车后没再看右后视镜因为后车一辆大车占道，认为右侧不会再来车。</v>
-      </c>
-      <c r="K18" s="12" t="str">
-        <v>When the following distance is considerable, I might not signal but directly steer over; I typically adhere to traffic rules by overtaking on the left. Even if turning right, I overtake the vehicle ahead from the left, accelerating quickly and checking the left rearview mirror for vehicles. After overtaking, I aim to return to my lane as soon as possible, honking to alert vehicles behind of my overtaking to prevent them from suddenly speeding up; I don't check the right rearview mirror after overtaking because a large vehicle was occupying the lane, assuming no vehicles would come from the right.</v>
-      </c>
-      <c r="L18" s="12" t="str">
-        <v>不太喜欢等红灯掉头，一次性掉头困难比较大，掉之前往右靠了一下，让掉头空间更大一些；且今天车比较少，自己需要看一下后视镜，确认后面有没有车，需要稍微倒一下车再继续掉头；（雷达响的太敏感）；转弯后要倒的时候来回看左右侧后视镜。</v>
-      </c>
-      <c r="M18" s="12" t="str">
-        <v>Preferring not to wait for a red light to make U-turns due to the difficulty in executing them in one go, I edge to the right beforehand to create more space for the turn. Given the lighter traffic today, it was necessary to check the rearview mirror to ensure no vehicles were behind me, possibly requiring a slight reverse before continuing the turn (the radar is overly sensitive). When turning and needing to reverse, I check both the left and right side mirrors repeatedly.</v>
-      </c>
-      <c r="N18" s="12" t="str">
-        <v>先看左右两侧，也会看对向来车</v>
-      </c>
-      <c r="O18" s="12" t="str">
-        <v>I start by checking both sides, as well as the oncoming traffic.</v>
-      </c>
+    <row r="18" spans="1:27" ht="172.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -3415,54 +4856,52 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
     </row>
-    <row r="19">
-      <c r="A19" s="14" t="str">
-        <v>D18（普通司机）</v>
-      </c>
-      <c r="B19" s="12" t="str">
-        <v>右转：先看左边有没有来车，或者对向有没有左转，这一类将驶入同向的车，最后看右侧非机动车等。
-//通常进弯前就松油门，必要时转弯过程中会踩一点油门，要出弯车较少时会开始踩油门。转弯转的很大，认为更安全一些，因为离驾驶位比较远，距离难以判断，也给行人更多一些反应时间，可以多看一点后视镜。</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <v>"Turning right: First, check for oncoming vehicles on the left, or vehicles making a left turn from the opposite direction, which will enter the same direction as me, and finally, look for non-motorized vehicles on the right.
-//Usually, I let off the accelerator before entering the turn, and if necessary, I may press the accelerator slightly during the turn. When exiting the turn and there are fewer vehicles, I will start to accelerate. Making a wide turn is considered safer because it is further from the driver's position, making distance judgment more challenging, and it gives pedestrians more time to react, allowing me to check the rearview mirror more."</v>
-      </c>
-      <c r="D19" s="12" t="str">
-        <v>车多时会在路口停一下，车少会加速直接驶入，更习惯从左侧车窗看，视野会更好，左后侧有一辆黑车让它先通过了，还有一辆和自己速度持平的。</v>
-      </c>
-      <c r="E19" s="12" t="str">
-        <v>When traffic is heavy, I'll stop at the intersection; if traffic is light, I'll accelerate directly into it, preferring to look through the left side window for a better field of vision. A black car on the left rear side was let through first, along with another car moving at the same speed as mine.</v>
-      </c>
-      <c r="F19" s="12" t="str">
-        <v>规避其他车辆，和前车会离很远，如果前方车很近会超车，会低于限速标准开，且驾驶比较激进，具体速度喜欢参照其他车来开。</v>
-      </c>
-      <c r="G19" s="12" t="str">
-        <v>To avoid other vehicles and maintain a significant distance from the car in front, if the vehicle ahead is too close, I'll overtake. I tend to drive below the speed limit and more aggressively, adjusting my speed based on other vehicles.</v>
-      </c>
-      <c r="H19" s="12" t="str">
-        <v>提速通常比较快</v>
-      </c>
-      <c r="I19" s="12" t="str">
-        <v>Acceleration is usually quick.</v>
-      </c>
-      <c r="J19" s="12" t="str">
-        <v>判断一个安全距离进行超车，主要是车头和对方车尾的距离，会给对方留10到20米反应，高速时超车距离会更远。不要急打方向，尽量不要踩刹车，超车超出前车一半的距离就会松开油门，并且脚会放到刹车上准备踩，但也不能直接明显降速。</v>
-      </c>
-      <c r="K19" s="12" t="str">
-        <v>I maintain a safe distance for overtaking, focusing on the distance between my vehicle's front and the other vehicle's rear, leaving a 10 to 20-meter buffer for reaction time, which increases on highways. Avoid steering abruptly, try not to brake, and after overtaking half the distance of the vehicle ahead, I ease off the accelerator, with my foot ready on the brake, but without significantly reducing speed directly.</v>
-      </c>
-      <c r="L19" s="12" t="str">
-        <v>四方都有车时，为了保证安全会自己最后再转，先让其他车先走，提前向右打一下方向能够实现一次性掉头。
-//有一辆大车挡住了直行道，认为很安全，没有驶入的直行车。
-//雷达报警过于敏感可能让乘客有心理压力。</v>
-      </c>
-      <c r="M19" s="12" t="str">
-        <v>In situations where vehicles are present on all sides, for safety, I prefer to turn last, letting other vehicles go first. A slight steer to the right beforehand facilitates a one-time U-turn.
-//A large vehicle blocking the straight path indicated a safe condition, with no incoming straight traffic.
-//Overly sensitive radar warnings might pressure passengers.</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+    <row r="19" spans="1:27" ht="161" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -3476,53 +4915,45 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20">
-      <c r="A20" s="14" t="str">
-        <v>D19（普通司机）</v>
-      </c>
-      <c r="B20" s="12" t="str">
-        <v>右转：路口前减速先看主路路况，判断其他车辆距离预估自己能否直接行驶通过，不会持续关注左边，因为视野较大，再往弯的内侧车窗看，更加注重一些行人、非机动车及地上的障碍物，同时要确保车尾也能完全通过，因此也会开的稍靠前转较大的弯，车后轮过了停止线。
-//方向调整基于一个pid原理。转向前打方向较快，回方向盘时候方向回正较慢。刹车会建立压力感受前轮的抓地力，然后达到预计峰值，最后会慢慢松刹车。油门控制也是逐步达到预期峰值的过程，类似刹车，先是一个试探的过程。
-//左转：先左后视镜，确认后方有没有超车，然后往路口里就是自己即将驶入的方向看是否有突然出现的车辆，最后再往右看，因为会默认右侧出现的车会更慢，而且往右看只是为了验证而不是为了预防。也是先滑行减速，带一点刹车，开始打方向后会松开刹车。</v>
-      </c>
-      <c r="C20" s="12" t="str">
-        <v>Turning right: Before the intersection, I slow down to first observe the main road conditions, estimating the distance of other vehicles to determine whether I can proceed directly. I won’t continuously focus on the left side due to the broader field of vision. Then, I look towards the inner side of the turn through the car window, paying more attention to pedestrians, non-motorized vehicles, and obstacles on the ground. I also ensure that the rear of the car can completely clear the turn. Therefore, I tend to drive slightly forward to make a wider turn, ensuring the rear wheels cross the stop line.
-Steering adjustments are based on a PID principle. Steering is done quickly before the turn, while straightening the wheel is slower. Braking builds up pressure to feel the front wheels' grip, then reaches the anticipated peak before gradually releasing the brake. Throttle control also gradually reaches the desired peak, similar to braking, starting with a probing process.
-Turning left: First, check the left rearview mirror to ensure there’s no overtaking from behind, then look into the intersection – the direction I’m about to enter – for any suddenly appearing vehicles. Finally, I look to the right, assuming that vehicles appearing from the right will be slower, and looking right is more for confirmation rather than prevention. I also coast to slow down, lightly braking, and then release the brake after starting to steer.</v>
-      </c>
-      <c r="D20" s="12" t="str">
-        <v>先观察左后视镜，直到汇入口，再扭头往主路看，因为在车头偏离时后视镜有盲区。且自己驶入主路后有一辆突然出现的车，在后视镜盲区完全没有提前注意到，松了油门没有踩刹车，认为踩刹车收益并不高，已经刹车晚了，而且刹车会影响舒适性，自己会选择打一下方向，且自己处理方式的判断基于白车速度比自己车速更快。</v>
-      </c>
-      <c r="E20" s="12" t="str">
-        <v>First, I observe the left rearview mirror until the merge point, then turn my head to look at the main road because there's a blind spot in the mirror as the car's front diverges. After merging onto the main road, a car suddenly appeared from the rearview mirror's blind spot, which I hadn't noticed in advance. I eased off the accelerator without braking, thinking that braking wouldn't be very beneficial at that point, as it was already too late to brake, and braking could affect comfort. I would choose to slightly steer away, basing my decision on the white car moving faster than mine.</v>
-      </c>
-      <c r="F20" s="12" t="str">
-        <v>会扫视三个后视镜，不会刻意关注车速，而是关注油门的恒定开度，其他油门控制取决于路况速度需求，也会逐渐加油门感知加速度，因此感知速度主要靠体感加速度以及车外动态环境。车距保持两个车身左右。</v>
-      </c>
-      <c r="G20" s="12" t="str">
-        <v>I check all three mirrors without focusing intently on the speedometer but rather on maintaining a steady throttle position. Throttle control is based on the road conditions and the need for speed, gradually accelerating to gauge acceleration, thus relying on the sense of acceleration and the external environment to gauge speed. I keep a following distance of about two car lengths.</v>
-      </c>
-      <c r="H20" s="12" t="str">
-        <v>会根据有没有乘客，自己开的时候加速会很快，基本直接踩到预期加速的位置，但有乘客时会缓慢加速</v>
-      </c>
-      <c r="I20" s="12" t="str">
-        <v>Acceleration speed varies depending on whether I have passengers. When driving alone, I accelerate quickly, pressing down to the expected acceleration position, but with passengers, I accelerate more slowly.</v>
-      </c>
-      <c r="J20" s="12" t="str">
-        <v>首先要判断前车的意图，比如走走停停，它可能是要找停车位，可能靠边或者要掉头；突然刹车这一类基本是需要停下；刹车灯没亮时认为车主可能会走神，不会主动超车，然后车靠左行驶，超出边线，给前车一个信号，如果前车刹车灯亮了或者向右，则认为前车看到自己将要超车；还会关注视野，如果是在特殊路况例如幼儿园，公交车站这一类的会慢速行驶。自己也会担心存在鬼探头；以及注意左侧车道路况，相对距离变大或者后车较远自己会采取超车。</v>
-      </c>
-      <c r="K20" s="12" t="str">
-        <v>First, it's essential to discern the intentions of the vehicle ahead. For instance, if it stops intermittently, it might be looking for a parking spot, planning to pull over or make a U-turn; sudden braking usually indicates a need to stop. If the brake lights are not activated, I might assume the driver is distracted and will not attempt to overtake. Instead, I drive close to the left, crossing the line slightly, to signal the vehicle in front. If the vehicle's brake lights turn on or it moves to the right, it likely acknowledges my intention to overtake. I also pay attention to the surroundings, especially in areas with special conditions like near kindergartens or bus stops, where I'll drive slowly to avoid potential hazards and monitor the left lane's condition. If the distance to the vehicle behind increases or it's far away, I might decide to overtake.</v>
-      </c>
-      <c r="L20" s="12" t="str">
-        <v>提前向右靠，给一个更大的掉头空间，主要关注要调入的方向的车道，掉头前看左后视镜，然后看左车窗。
-//认为对向来车很早会提前观察到，松油门滑行，确定轨迹能一把掉过去后会加速调过去，甚至比预期的转弯半径更小就会加速出弯。
-//自己会有一个风险收益的衡量，认为即使调不过去也只会碰到绿化带，所以尝试一把调，判断距离靠车窗右下角，判断右侧车辆也会给自己留空间掉头，依据车与路的标线距离。看了一下人行道，主要觉得自己有认知盈余，所以会多关注一下行人。</v>
-      </c>
-      <c r="M20" s="12" t="str">
-        <v>Leaning to the right in advance allows for a larger space to turn. Main attention is on the lane into which I'm turning, looking at the left rearview mirror and then out the left side window.
-//I assume oncoming traffic will be observed well in advance, coasting with the throttle off to ensure the trajectory allows for a complete turn, then accelerating through the turn, even taking a tighter turn than anticipated.
-//I weigh the risk and reward, considering that a failed turn would only result in hitting a green belt, thus attempting the turn. Distance judgment is made by the car window's bottom right corner, assuming right-side vehicles will also make room for the turn, based on the distance between the car and road markings. I glance at the pedestrian walkway, mainly believing in my cognitive surplus, thus paying extra attention to pedestrians.</v>
+    <row r="20" spans="1:27" ht="138" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -3539,52 +4970,48 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
     </row>
-    <row r="21">
-      <c r="A21" s="14" t="str">
-        <v>D20（普通司机）</v>
-      </c>
-      <c r="B21" s="12" t="str">
-        <v>右转：先看右边的后视镜，看行人、非机动车，再看上面的后视镜，上方后视镜视野广，基本不看左后视镜；先观察正中心离自己最近的车辆，然后看左右，无顺序的扫视，离车道左侧很近；T字路口右转只会看右反光镜来注意辅路情况；打方向会一点点调整而不是一下转很大，自己转弯会尽量划直角，拐大弯，在弯中间就会开始一点点回正方向了，控制方向盘会自己带一点力；转弯前已经减速了，脚会一直在刹车上但可能不会踩，超过人行横道之后才会开始加速。
-//左转：转向前会左右看还有前方路况，行人、自行车等，拐到一半时看右反光镜，看右侧直行车、后方非机动车等；对向车道没车、非机动车没人没车的时候会走小弯</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <v>Turning right: First, check the right-side mirror for pedestrians and non-motorized vehicles, then the upper rearview mirror, which offers a wider field of view, generally not looking at the left rearview mirror. Start by observing the vehicles closest to the center, then glance left and right in no specific order, staying close to the lane's left side. At a T-junction, turning right involves only looking at the right side mirror to monitor the service road; steering adjustments are made gradually rather than in large turns. I tend to make sharp turns, starting to straighten the steering wheel a bit in the middle of the turn, exerting some force on the steering wheel myself. Speed is reduced before the turn, with my foot resting on the brake but not necessarily pressing down, accelerating only after passing the pedestrian crossing.
-Turning left: Before turning, I look left, right, and ahead at the road conditions, pedestrians, and bicycles. Halfway through the turn, I check the right-side mirror for straight-going vehicles and non-motorized vehicles behind. When the opposing lane is clear of vehicles and non-motorized traffic, I take a tighter turn.</v>
-      </c>
-      <c r="D21" s="12" t="str">
-        <v>提前50米左右就会打转向灯，然后提前看主路情况，依然贴近左侧开，担心右侧突然出现行人、非机动车，不看中间的后视镜，会刹车、看左反光镜，看主路车辆情况决定自己在辅路过渡区域的哪个部分进主路，直接并到主路最内侧车道了，因为发现这个车道没有车。</v>
-      </c>
-      <c r="E21" s="12" t="str">
-        <v>About 50 meters in advance, I signal and then check the main road conditions, still driving close to the left side, wary of sudden pedestrians or non-motorized vehicles from the right side. I don't check the center rearview mirror but will brake and look at the left side mirror, deciding where to merge onto the main road from the transition area based on the traffic conditions, directly merging into the innermost lane of the main road because I find it empty.</v>
-      </c>
-      <c r="F21" s="12" t="str">
-        <v>市区限速60左右的没摄像头时候可能会稍微超速到80，环路车况好可能会开更快。一直偏左侧行驶，车上乘客可能会感觉更安全，行驶中和前车距离比较近，保持一个车身。</v>
-      </c>
-      <c r="G21" s="12" t="str">
-        <v>In areas with a speed limit of around 60 km/h without cameras, I might slightly exceed the limit to 80 km/h. On ring roads with good traffic conditions, I might drive even faster. Driving on the left side tends to make passengers feel safer, maintaining a close distance to the vehicle ahead, about one car length.</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12" t="str">
-        <v>往左车道超车时候前先看左反光镜，然后看中间的后视镜，能看到后面几个车道的情况。目测一下后车的距离还有速度，速度和距离够的话自己就会加速超车，在观察后车的同时基本已经开始变道了，没有超车条件后会再把速度降下来，道路空旷和车上有人时候自己会变方向比较慢，但和左后方车车距很小的时候会猛打一下方向，油门刹车轻重取决于车型。</v>
-      </c>
-      <c r="K21" s="12" t="str">
-        <v>When changing lanes to the left for overtaking, I first check the left side mirror, then the center rearview mirror to gauge the traffic conditions behind across several lanes. After estimating the speed and distance of the vehicles behind and finding it safe, I begin to accelerate for overtaking. If overtaking isn't feasible, I'll reduce my speed. When the road is clear, or I have passengers, I change lanes more cautiously. However, if the distance to the vehicle on the left rear side is very short, I might quickly swerve, adjusting the throttle and brake sensitivity based on the vehicle type.</v>
-      </c>
-      <c r="L21" s="12" t="str">
-        <v>会往右靠一点，然后看中间的后视镜，观察后车，然后看对向道路来车，其他左转右转车辆都会看，包括要驶入和自己相同车道的所有车，左右反光镜都会看，观察顺序取决于路况，向右靠目测距离够了之后会直接往左打死，然后会主动回正而不是仅用方向盘自己回正的力，而且很早不踩油门了，靠带速走；对向有车时自己会先探出车头，让对向的车看到自己要掉头，车身完全掉过来有足够空间后就会开始踩油门</v>
-      </c>
-      <c r="M21" s="12" t="str">
-        <v>I edge slightly to the right, then observe through the central rearview mirror, checking the following vehicles, and then the oncoming traffic. I also watch vehicles turning left or right, including all vehicles entering the same lane as mine, checking both side mirrors. The observation order depends on the road conditions. After judging the distance to be sufficient by edging to the right, I steer sharply to the left, then actively straighten the steering wheel rather than relying on its automatic re-centering, and I stop pressing the accelerator early, coasting with momentum. When there's oncoming traffic, I first edge out the car's front to signal my intention to turn, accelerating only after the car has fully turned and there's enough space.</v>
-      </c>
-      <c r="N21" s="12" t="str">
-        <v>整个大视野都会很关注，前方、左右都回看，包括反光镜、车窗等等，没有观察顺序，都会观察，速度也会变慢，认为左右转没什么区别，在这种路况可能会更注意行人，突然要走或者又停下的行人。
-//到路口，任何行人可能出来的开口处自己都会习惯踩一下刹车</v>
-      </c>
-      <c r="O21" s="12" t="str">
-        <v>I pay close attention to the entire field of view, including what's ahead, to the sides, and through the mirrors and windows. There's no specific order to my observations; everything is taken into account. My speed also decreases as I believe there's little difference between turning left or right. In such road conditions, I might pay extra attention to pedestrians, especially those who suddenly decide to walk or stop.
-//Approaching an intersection, I habitually press the brake at any spot where pedestrians might emerge.</v>
-      </c>
+    <row r="21" spans="1:27" ht="322" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -3598,50 +5025,48 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
     </row>
-    <row r="22">
-      <c r="A22" s="14" t="str">
-        <v>D21（普通司机）</v>
-      </c>
-      <c r="B22" s="12" t="str">
-        <v>右转：先看左侧正常行驶车辆、行人，其中重点关注外卖非机动车，确认可以通过后会关注自己右后侧的外卖车和行人。通常拐弯前在人行横道前或停止线前就会轻踩一下刹车，无特殊情况就会直接转过去了，拐弯时可能会轻踩一点刹车，主要靠车怠速通过，确认左后方没有车辆了会给油，方向盘打到一定角度后就会一直保持，在实验中会让方向盘自己回正，但实验中还是主动将方向盘回正了。基本不看左后视镜
-//左转：左侧会有来车，不会看左右后视镜，主要开左右和前车窗，先关注右侧来车，确认右侧可以通过后，马上看左侧有无直行车辆。</v>
-      </c>
-      <c r="C22" s="12" t="str">
-        <v>Turning right: First, observe vehicles and pedestrians moving normally on the left, with special attention to delivery non-motorized vehicles. After ensuring it's safe to proceed, the focus shifts to delivery vehicles and pedestrians on my right rear side. Typically, just before turning, at the crosswalk or the stop line, I lightly press the brake. Unless there are special circumstances, I then proceed with the turn. During the turn, I might lightly tap the brake, mainly relying on the vehicle's idle speed to get through. Once I confirm there's no vehicle on my left rear, I accelerate. After steering the wheel to a certain angle, I maintain it. In experiments, the steering wheel might re-center itself, but I still actively straighten it. I generally do not look at the left rearview mirror.
-Turning left: There will be oncoming traffic on the left. I do not look at the rearview mirrors on the left or right but mainly keep the left, right, and front windows open. First, I pay attention to the oncoming traffic on the right. After ensuring it's safe to pass on the right, I immediately check for straight-going vehicles on the left.</v>
-      </c>
-      <c r="D22" s="12" t="str">
-        <v>提前通过左侧车窗看主路情况，主要是为了避免看不见和自己并行的车，然后会减速，到了进主路的口基本会刹停，不管主路有没有车，然后通过左后视镜看主路情况判断自己什么时候驶入主路，方向盘通常打很小，不会猛变方向</v>
-      </c>
-      <c r="E22" s="12" t="str">
-        <v>I look through the left side window in advance to avoid missing vehicles parallel to mine, then slow down, coming to almost a complete stop at the entrance to the main road, regardless of whether there are vehicles on the main road. Then, using the left rearview mirror to judge when to merge onto the main road, I usually make a slight turn of the steering wheel, avoiding sharp turns.</v>
-      </c>
-      <c r="F22" s="12" t="str">
-        <v>习惯在车道中间行驶，城市内车速40-60之间，通常油门保持一个力度就不动了，不太会选择溜车，车距习惯保持一个车身，堵车时为了避免被加塞，会有意缩短车距</v>
-      </c>
-      <c r="G22" s="12" t="str">
-        <v>I prefer driving in the middle of the lane, with speeds between 40-60 km/h in urban areas, keeping a constant throttle without opting to coast, and maintaining a following distance of about one car length. To prevent being cut off in traffic jams, I intentionally reduce the following distance.</v>
-      </c>
-      <c r="H22" s="12" t="str">
-        <v>根据前方路况，或者右侧有没有入口判断自己要不要加速，比自己均速行驶的时候会观察更多。会慢慢踩油门，不喜欢突然加速，必要情况下可能会踩的实一点但也不是猛加速</v>
-      </c>
-      <c r="I22" s="12" t="str">
-        <v>Acceleration is also based on the road conditions ahead or the presence of entrances on the right, requiring more observation than when cruising at a steady speed. I prefer to gradually press on the accelerator and do not like to accelerate suddenly, applying more force only when necessary but not sharply accelerating.</v>
-      </c>
-      <c r="J22" s="12" t="str">
-        <v>有护栏全是同向行驶车辆时决定要超车时先看左后视镜，借道超车时会探出车头观察对向有无车辆，会超出前车半个到一个车身让后车看到自己的转向灯才会并回原车道，并且回原车道只看右后视镜</v>
-      </c>
-      <c r="K22" s="12" t="str">
-        <v>When there's a guardrail and all vehicles are moving in the same direction, deciding to overtake starts with checking the left rearview mirror. If lane-sharing is required for overtaking, I'll extend the vehicle's front part to check for oncoming traffic, overtaking by half to a full car length to ensure the vehicle behind sees my turn signal before merging back into my lane. I only use the right rearview mirror when returning to my original lane.</v>
-      </c>
-      <c r="L22" s="12" t="str">
-        <v>过了栏杆后关注对向车道情况，并且靠车道右侧行驶，基本不看后视镜了，因为自己不会给后面的车留出掉头的空间，基本过了栏杆自己就掉头，确认能掉头了就会把方向盘打死，不会停下车来打方向，靠怠速通过，油门基本不踩，实验中差不多掉了一半了就开始倒车了来进行二次掉头，判断能不能一次性完成掉头全靠感觉，没有参照物。再起步时自己就会踩油门加速直行，担心自己掉头太久会造成堵车，车很少的时候自己不会主动加油</v>
-      </c>
-      <c r="M22" s="12" t="str">
-        <v>After passing the guardrail, I focus on the oncoming traffic lanes and drive towards the right of my lane, seldom checking the rearview mirror since I don't intend to leave space for vehicles behind me to make U-turns. Once past the guardrail and sure I can make the U-turn, I fully turn the steering wheel without stopping the car, relying on idle speed without pressing the accelerator. During the experiment, I started to reverse about halfway through the turn to attempt a second U-turn, basing the judgment on whether a one-time U-turn is feasible purely on instinct, without any reference points. Upon restarting, I press the accelerator to accelerate straight ahead, concerned that taking too long to turn might cause traffic congestion. When there are few cars, I won't accelerate unnecessarily.</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+    <row r="22" spans="1:27" ht="241.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>418</v>
+      </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -3655,54 +5080,48 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
     </row>
-    <row r="23">
-      <c r="A23" s="14" t="str">
-        <v>D22（普通司机）</v>
-      </c>
-      <c r="B23" s="12" t="str">
-        <v>右转：过停止线后视野范围充足时，停止线前也在看，可能五米左右开始打转向灯，但视野可能受限，先看左边来车，通过左车窗和挡风玻璃，主要看机动车，但非机动车也会观察到。再看右边非机动车和行人，车头快要出弯时开始看左后视镜。
-//关注非机动车更多，认为更危险，尤其是又后视镜看到的非机动车。拐弯幅度正常，习惯左手单手开，只有方向盘需要急转时会两只手控制。转弯前5米左右，脚开始放在刹车上但不一定踩不踩，根据路况决定是否踩刹车。过停止线开始打方向，习惯一边向前开一边转，车快打直时将方向盘回正，看车的情况决定是否需要主动给力回正方向盘。往回打方向盘的时候就会开始给油，车身基本打直后会踩油门更深一点。担心转弯时车飘了所以油门和刹车都会慢踩。</v>
-      </c>
-      <c r="C23" s="12" t="str">
-        <v>Turning right: After crossing the stop line when the field of view is sufficient, I also observe before reaching it, possibly signaling to turn about five meters in advance. However, my view may be limited. First, I look at oncoming vehicles on the left, through the left window and the windshield, focusing mainly on motor vehicles, though non-motorized vehicles are also noted. Then, I check for non-motorized vehicles and pedestrians on the right. As the front of the car is about to complete the turn, I start checking the left rearview mirror.
-I pay more attention to non-motorized vehicles, considering them more dangerous, especially those seen in the rearview mirror. The turning radius is normal, and I'm used to driving with one hand on the left, using both hands only when a quick steering adjustment is needed. About 5 meters before turning, my foot begins to rest on the brake without necessarily pressing it, depending on the road conditions to decide whether to apply the brakes. I start turning the steering wheel after crossing the stop line, accustomed to moving forward while turning. As the car is about to straighten, I recenter the steering wheel, depending on the car's condition to decide whether to actively force the wheel back. As I recenter the steering wheel, I begin to accelerate, pressing the accelerator deeper once the car is nearly straightened. Concerned about the car drifting during the turn, I press both the accelerator and brakes gently.</v>
-      </c>
-      <c r="D23" s="12" t="str">
-        <v>看左后视镜来看主路的车，会踩刹车，进入主路后会提速</v>
-      </c>
-      <c r="E23" s="12" t="str">
-        <v>I use the left rearview mirror to observe traffic on the main road, braking before merging, and then accelerating after entering the main road.</v>
-      </c>
-      <c r="F23" s="12" t="str">
-        <v>限速多少开多少，可能会超速20%以内，而且会习惯超车，车距习惯保持25米左右</v>
-      </c>
-      <c r="G23" s="12" t="str">
-        <v>I drive at the speed limit, potentially exceeding it by up to 20%, and am accustomed to overtaking, keeping a following distance of about 25 meters.</v>
-      </c>
-      <c r="H23" s="12" t="str">
-        <v>路况较好时会油门会踩很重，达到预期速度时会基本送开油门溜车。</v>
-      </c>
-      <c r="I23" s="12" t="str">
-        <v>When road conditions are good, I press the accelerator firmly, releasing it almost completely upon reaching the desired speed to coast.</v>
-      </c>
-      <c r="J23" s="12" t="str">
-        <v>前方车明显低于限速水平的时候会习惯超车。习惯：先看左后视镜，没车先并到左侧，看原道前车情况，是单纯低速还是前方多辆车堵住，然后加速，油门也踩比较急，可能基本会在这个车道上继续行驶了，该车道前方有车才会开回原道。后视镜中能看到左后侧车的距离25米左右，判断可以超车。方向通常打很快变道。并回原道可能需要自己车身超过前车大半个车身后可以回原道，打方向也很大。</v>
-      </c>
-      <c r="K23" s="12" t="str">
-        <v>If a vehicle in front is significantly below the speed limit, I tend to overtake. The habit involves first checking the left rearview mirror, moving to the left if clear, then observing the condition of the vehicle ahead to determine if it's simply moving slowly or if there's a traffic jam. I accelerate quickly, possibly continuing in this lane unless there's a need to merge back. The distance to the vehicle on the left rear side is about 25 meters, deemed safe for overtaking, with rapid lane changes. Returning to the original lane might occur after surpassing the vehicle ahead by more than half a car length, with a significant turn of the steering wheel.</v>
-      </c>
-      <c r="L23" s="12" t="str">
-        <v>先向右打一点方向基本车轮压倒右侧实线的位置，红灯掉头基本直接打过，绿灯时观察对向来车，其他方向来车以及行人非机动车等等，更关注对向更靠近自己车道的来车。转弯自己掉头转到一半的位置后，车基本横过来时，自己就不会管其他方向车辆了，尽量自己快点通过。保证两个车道都没有车时候才会掉头。全程可能带一点油门，或者带速通过，可能轻踩一下然后脚放刹车上，看一次能不能通过，方向都会直接打死，出弯方向往回打的时候就会开始踩油门，或者掉两次的情况倒车结束后也会开始踩油门。可能看后视镜防非机动车。</v>
-      </c>
-      <c r="M23" s="12" t="str">
-        <v>Initially, I slightly steer right, typically until the car's wheels are over the right solid line. For a red light U-turn, I usually turn directly, and at a green light, I observe oncoming traffic, vehicles, pedestrians, and non-motorized vehicles from other directions, paying closer attention to oncoming vehicles closer to my lane. After turning halfway and the car is nearly perpendicular to the road, I stop considering vehicles from other directions and focus on passing quickly, ensuring both lanes are clear before making the U-turn. Throughout, I might slightly press the accelerator or coast, perhaps lightly pressing it then preparing to brake, attempting to complete the turn in one go. Steering is fully committed, and I start accelerating when straightening out from the turn or after completing a two-part turn with a reverse.</v>
-      </c>
-      <c r="N23" s="12" t="str">
-        <v>无信号灯路口：一直看前方和右后视镜，然后直接右转了，快转过来后会浅看一下左后视镜</v>
-      </c>
-      <c r="O23" s="12" t="str">
-        <v>At intersections without traffic signals: I constantly watch the front and the right rearview mirror, then proceed with the right turn. After turning, I briefly glance at the left rearview mirror.</v>
-      </c>
+    <row r="23" spans="1:27" ht="230" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -3716,70 +5135,51 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
     </row>
-    <row r="24">
-      <c r="A24" s="14" t="str">
-        <v>D23（普通司机）</v>
-      </c>
-      <c r="B24" s="12" t="str">
-        <v>1. 观察：右转弯习惯：转之前，慢下来看左侧来车，机动车和非机动车。在停止线之前减速。有车就停，没有就继续转弯。减速取决于路况。右边很容易看到，主要关注左边。转之前会先看右前方。
-车多：刹停不多，按照步行速度行驶
-2. 方向盘：预计车少，一边观察一边转；预计车多，先观察。今天介于两者之间。一边转一边加方向。左右调整。还差20-30°摆正的时候方向盘回方向。
-3. 油门：回方向开始补油了。</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <v>Observation: Right-turning habit: Before turning, slow down to check for oncoming vehicles, both motor and non-motorized, and decelerate before the stop line. If there are vehicles, stop; if not, continue turning. Deceleration depends on the road conditions. The right side is easy to see, so the main focus is on the left. Before turning, I first look to the right front. With heavy traffic: I don’t stop much, moving at walking speed.
-Steering wheel: If I expect less traffic, I observe while turning; if I expect more, I observe first. Today is in between. I adjust the steering as I turn. When about 20-30° from straightening, I return the steering to direction.
-Throttle: I start to accelerate as I straighten the steering wheel.</v>
-      </c>
-      <c r="D24" s="12" t="str">
-        <v>1. 盲区：左后方先看一下。
-2. 慢慢切近主路，
-3. 刹车：进过渡区之前就刹。
-</v>
-      </c>
-      <c r="E24" s="12" t="str">
-        <v>"1. Blind Spot: First, check the left rear side.
-2. Gradually approach the main road.
-3. Braking: Brake before entering the transition area."</v>
-      </c>
-      <c r="F24" s="12" t="str" xml:space="preserve">
-        <v>1. 旁边的车速度为标准， </v>
-      </c>
-      <c r="G24" s="12" t="str">
-        <v>The speed of adjacent vehicles serves as a benchmark,</v>
-      </c>
-      <c r="H24" s="12" t="str">
-        <v>1. 路上有车，车的速度，没车，限速，保持恒定速度</v>
-      </c>
-      <c r="I24" s="12" t="str">
-        <v>The presence of other vehicles, their speed, and the absence of vehicles, as well as the speed limit, dictate maintaining a constant speed.</v>
-      </c>
-      <c r="J24" s="12" t="str">
-        <v>这次没有变道超车。
-看后视镜，看后面的车，安全，就并过去。超车后尽可能留在超车道。
-油门速度提到限速或其他车的速度。限速速度不够超车，那就没必要超。
-后视镜能完整看到车的车头，代表安全了。</v>
-      </c>
-      <c r="K24" s="12" t="str">
-        <v>"This time, I didn't change lanes to overtake. I observed the rearview mirror, gauging the safety based on the traffic behind, and merged if safe, remaining in the overtaking lane as much as possible. I adjust my speed to the limit or match the speed of other vehicles. If the speed limit isn't sufficient for overtaking, there's no need to do so. Safety is indicated when the entire vehicle's front can be seen in the rearview mirror."</v>
-      </c>
-      <c r="L24" s="12" t="str">
-        <v>1. 开始掉头前确保没车，两个车道都没车
-2. 先刹停再起步
-3. 30°左右掉头加油、回方向：取决于路况
-4. 向右借道，获得更多掉头空间</v>
-      </c>
-      <c r="M24" s="12" t="str">
-        <v>"1. Before starting the U-turn, ensure there are no vehicles in both lanes.
-2. Stop completely before starting again.
-3. Turn about 30°, then accelerate and correct the steering depending on road conditions.
-4. Steer right to borrow lane, gaining more space for the U-turn."</v>
-      </c>
-      <c r="N24" s="12" t="str">
-        <v>1. 先看右边，行人</v>
-      </c>
-      <c r="O24" s="12" t="str">
-        <v>First, look to the right for pedestrians.</v>
+    <row r="24" spans="1:27" ht="287.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -3794,97 +5194,51 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
     </row>
-    <row r="25">
-      <c r="A25" s="14" t="str">
-        <v>D24（普通司机）</v>
-      </c>
-      <c r="B25" s="12" t="str">
-        <v>右转弯驾驶习惯：
-1）观察右后视镜镜有没有非机动车，2）然后会计算转弯的力；3）不看左后方；
-右转比左转更难，因为要看非机动车。
-方向盘习惯：
-慢慢线性达到位，边走边打方向盘。回方向盘，60°时，通常通过阻力把车线性回方向盘。当有速度损失的时候，开始补油门。
-A3右转：看不见后视镜，靠车窗。
-右转：提早刹车；</v>
-      </c>
-      <c r="C25" s="12" t="str">
-        <v>Driving habits for right turns:
-1) Check the right rearview mirror for non-motorized vehicles, 2) then calculate the force needed for the turn; 3) do not check the left rear side;
-Right turns are harder than left due to the need to watch for non-motorized vehicles.
-Steering habits:
-Gradually and linearly reach the position, steering as I go. To straighten the wheel, at 60°, I usually use resistance to linearly bring the wheel back. When there's a loss of speed, I start to accelerate.
-A3 right turn: Can’t see the rearview mirror, rely on the car window.
-Right turn: Brake early.</v>
-      </c>
-      <c r="D25" s="12" t="str">
-        <v>
-1）观察，通过眼睛余光瞟一眼，车速快不快，堵不堵车。包括左后视镜。
-2）操作：后面完全没有车，直接连续向左变道至最左车道。</v>
-      </c>
-      <c r="E25" s="12" t="str">
-        <v>
-Observation, glance with peripheral vision to assess if the speed is fast and whether there's congestion, including through the left rearview mirror.
-Maneuvering: If there are no vehicles behind, directly change lanes continuously to the leftmost lane.</v>
-      </c>
-      <c r="F25" s="12" t="str">
-        <v>平时驾驶习惯：
-1）车速，跟着前车的驾驶速度。保持车流是最安全的方式。
-2）车距，不太近也不太远。不能一概而论。跟时间段有关。享受匀速的感觉。大概20米车距
-3）习惯在路偏左。尽量让车贴近左边。</v>
-      </c>
-      <c r="G25" s="12" t="str">
-        <v>"Regular driving habits:
-Speed, following the driving speed of the vehicle ahead. Keeping with the flow of traffic is the safest method.
-Distance, neither too close nor too far, varies with the time of day. Enjoying the sensation of cruising at a steady speed. Approximately 20 meters following distance.
-Preference for driving slightly to the left. Try to keep the car close to the left side."</v>
-      </c>
-      <c r="H25" s="12" t="str">
-        <v>平时习惯：
-1）油门，找到引擎舒适区，让转速和动力都很均衡。让汽车地输出功率是恒定的。
-2）会加速到当前道路限速。</v>
-      </c>
-      <c r="I25" s="12" t="str">
-        <v>"Regular habits include:
-Throttle: Finding the engine’s comfort zone to balance the rpm and power output, ensuring the car's power output is consistent.
-Accelerating to the current road's speed limit."</v>
-      </c>
-      <c r="J25" s="12" t="str">
-        <v>平时习惯：
-1）超车会选择一个相差速度更大的时候，尽可能快地超过它。
-2）观察：超车道后方有没有车，前面的车有没有变道，慢速车前面的车有没有变道意图。
-3）不会把车往左一点点看前车。
-4）当后车在后视镜中的大小变成一点点的时候，快速变道超车。尽快超车，不超过5秒，超车的时候要给地板油。</v>
-      </c>
-      <c r="K25" s="12" t="str">
-        <v>"Regular habits:
-I choose to overtake when there's a significant speed difference, aiming to pass quickly.
-Observation includes checking for vehicles behind in the overtaking lane and whether the vehicles ahead or slow-moving vehicles have intentions to change lanes.
-I don't slightly shift to the left to see ahead of the vehicle in front.
-When the vehicle behind becomes a small dot in the rearview mirror, I quickly change lanes to overtake, completing the maneuver within 5 seconds, pressing the accelerator fully to the floor."</v>
-      </c>
-      <c r="L25" s="12" t="str">
-        <v>驾驶习惯：
-1）追求越快一把过；
-2）观察：对向车流，会综合评估。如果对向车道的车快慢不一，就会不掉头。
-3）还会观察右面的路口；通过右前车窗，不靠后视镜。靠头大幅度地转。
-4）方向盘打死，不看右后视镜。
-5）不靠怠速走，会让车充满动力。</v>
-      </c>
-      <c r="M25" s="12" t="str">
-        <v>"Driving habits:
-1. Aim to complete the turn as quickly as possible in one go.
-2. Observation: Assess the oncoming traffic flow. If the speeds in the oncoming lane vary significantly, I opt not to turn.
-3. Also check the right-side intersections through the front right window, not relying on mirrors. I turn my head significantly.
-4. Fully commit the steering wheel without looking in the right rearview mirror.
-5. Rely on power rather than coasting on idle, ensuring the car is fully powered."</v>
-      </c>
-      <c r="N25" s="12" t="str">
-        <v>无交通信号灯路口：
-1）观察：哪里车辆密集，东西速度快，就看哪里。</v>
-      </c>
-      <c r="O25" s="12" t="str">
-        <v>At intersections without traffic signals:
-Observation: I focus on areas where vehicles are dense and moving quickly.</v>
+    <row r="25" spans="1:27" ht="149.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -3899,22 +5253,52 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+    <row r="26" spans="1:27" ht="161" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>447</v>
+      </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
@@ -3928,8 +5312,8 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
     </row>
-    <row r="27">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3957,8 +5341,8 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -3986,8 +5370,8 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
     </row>
-    <row r="29">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -4015,8 +5399,8 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
     </row>
-    <row r="30">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -4044,8 +5428,8 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
     </row>
-    <row r="31">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -4073,8 +5457,8 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
     </row>
-    <row r="32">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -4102,8 +5486,8 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
     </row>
-    <row r="33">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -4131,8 +5515,8 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
     </row>
-    <row r="34">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -4160,8 +5544,8 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
     </row>
-    <row r="35">
-      <c r="A35" s="11"/>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -4189,8 +5573,8 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
     </row>
-    <row r="36">
-      <c r="A36" s="11"/>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -4218,8 +5602,8 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
     </row>
-    <row r="37">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -4247,8 +5631,8 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
     </row>
-    <row r="38">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -4276,8 +5660,8 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
     </row>
-    <row r="39">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -4305,8 +5689,8 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
     </row>
-    <row r="40">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -4334,8 +5718,8 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
     </row>
-    <row r="41">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -4363,8 +5747,8 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
     </row>
-    <row r="42">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -4392,8 +5776,8 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
     </row>
-    <row r="43">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="19"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -4421,8 +5805,8 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44">
-      <c r="A44" s="11"/>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -4450,8 +5834,8 @@
       <c r="Z44" s="11"/>
       <c r="AA44" s="11"/>
     </row>
-    <row r="45">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -4479,8 +5863,8 @@
       <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
     </row>
-    <row r="46">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -4508,8 +5892,8 @@
       <c r="Z46" s="11"/>
       <c r="AA46" s="11"/>
     </row>
-    <row r="47">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -4537,8 +5921,8 @@
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
     </row>
-    <row r="48">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -4566,8 +5950,8 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="11"/>
     </row>
-    <row r="49">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -4595,8 +5979,8 @@
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
     </row>
-    <row r="50">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A50" s="19"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -4624,8 +6008,8 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
     </row>
-    <row r="51">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -4653,8 +6037,8 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A52" s="19"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -4682,8 +6066,8 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53" s="19"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -4711,8 +6095,8 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="11"/>
     </row>
-    <row r="54">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54" s="19"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -4740,8 +6124,8 @@
       <c r="Z54" s="11"/>
       <c r="AA54" s="11"/>
     </row>
-    <row r="55">
-      <c r="A55" s="11"/>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55" s="19"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -4769,8 +6153,8 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="11"/>
     </row>
-    <row r="56">
-      <c r="A56" s="11"/>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56" s="19"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -4798,8 +6182,8 @@
       <c r="Z56" s="11"/>
       <c r="AA56" s="11"/>
     </row>
-    <row r="57">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57" s="19"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -4827,8 +6211,8 @@
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
     </row>
-    <row r="58">
-      <c r="A58" s="11"/>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58" s="19"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -4856,8 +6240,8 @@
       <c r="Z58" s="11"/>
       <c r="AA58" s="11"/>
     </row>
-    <row r="59">
-      <c r="A59" s="11"/>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A59" s="19"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -4885,8 +6269,8 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -4914,8 +6298,8 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="11"/>
     </row>
-    <row r="61">
-      <c r="A61" s="11"/>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="19"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -4943,8 +6327,8 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="11"/>
     </row>
-    <row r="62">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="19"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -4972,8 +6356,8 @@
       <c r="Z62" s="11"/>
       <c r="AA62" s="11"/>
     </row>
-    <row r="63">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A63" s="19"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -5001,8 +6385,8 @@
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
     </row>
-    <row r="64">
-      <c r="A64" s="11"/>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A64" s="19"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -5030,8 +6414,8 @@
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
     </row>
-    <row r="65">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A65" s="19"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -5059,8 +6443,8 @@
       <c r="Z65" s="11"/>
       <c r="AA65" s="11"/>
     </row>
-    <row r="66">
-      <c r="A66" s="11"/>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -5088,8 +6472,8 @@
       <c r="Z66" s="11"/>
       <c r="AA66" s="11"/>
     </row>
-    <row r="67">
-      <c r="A67" s="11"/>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -5117,8 +6501,8 @@
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
-    <row r="68">
-      <c r="A68" s="11"/>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A68" s="19"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -5146,8 +6530,8 @@
       <c r="Z68" s="11"/>
       <c r="AA68" s="11"/>
     </row>
-    <row r="69">
-      <c r="A69" s="11"/>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -5175,8 +6559,8 @@
       <c r="Z69" s="11"/>
       <c r="AA69" s="11"/>
     </row>
-    <row r="70">
-      <c r="A70" s="11"/>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -5204,8 +6588,8 @@
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
     </row>
-    <row r="71">
-      <c r="A71" s="11"/>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A71" s="19"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -5233,8 +6617,8 @@
       <c r="Z71" s="11"/>
       <c r="AA71" s="11"/>
     </row>
-    <row r="72">
-      <c r="A72" s="11"/>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -5262,8 +6646,8 @@
       <c r="Z72" s="11"/>
       <c r="AA72" s="11"/>
     </row>
-    <row r="73">
-      <c r="A73" s="11"/>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -5291,8 +6675,8 @@
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
     </row>
-    <row r="74">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -5320,8 +6704,8 @@
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
     </row>
-    <row r="75">
-      <c r="A75" s="11"/>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75" s="19"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -5349,8 +6733,8 @@
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
     </row>
-    <row r="76">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -5378,8 +6762,8 @@
       <c r="Z76" s="11"/>
       <c r="AA76" s="11"/>
     </row>
-    <row r="77">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -5407,8 +6791,8 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78">
-      <c r="A78" s="11"/>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -5436,8 +6820,8 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79">
-      <c r="A79" s="11"/>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -5465,8 +6849,8 @@
       <c r="Z79" s="11"/>
       <c r="AA79" s="11"/>
     </row>
-    <row r="80">
-      <c r="A80" s="11"/>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -5494,8 +6878,8 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81">
-      <c r="A81" s="11"/>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -5523,8 +6907,8 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -5552,8 +6936,8 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83">
-      <c r="A83" s="11"/>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -5581,8 +6965,8 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84">
-      <c r="A84" s="11"/>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -5610,8 +6994,8 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85">
-      <c r="A85" s="11"/>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -5639,8 +7023,8 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
-    <row r="86">
-      <c r="A86" s="11"/>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5668,8 +7052,8 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87">
-      <c r="A87" s="11"/>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" s="19"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5697,8 +7081,8 @@
       <c r="Z87" s="11"/>
       <c r="AA87" s="11"/>
     </row>
-    <row r="88">
-      <c r="A88" s="11"/>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" s="19"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5726,8 +7110,8 @@
       <c r="Z88" s="11"/>
       <c r="AA88" s="11"/>
     </row>
-    <row r="89">
-      <c r="A89" s="11"/>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" s="19"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -5755,8 +7139,8 @@
       <c r="Z89" s="11"/>
       <c r="AA89" s="11"/>
     </row>
-    <row r="90">
-      <c r="A90" s="11"/>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -5784,8 +7168,8 @@
       <c r="Z90" s="11"/>
       <c r="AA90" s="11"/>
     </row>
-    <row r="91">
-      <c r="A91" s="11"/>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -5813,8 +7197,8 @@
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
     </row>
-    <row r="92">
-      <c r="A92" s="11"/>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" s="19"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -5842,8 +7226,8 @@
       <c r="Z92" s="11"/>
       <c r="AA92" s="11"/>
     </row>
-    <row r="93">
-      <c r="A93" s="11"/>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" s="19"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -5871,8 +7255,8 @@
       <c r="Z93" s="11"/>
       <c r="AA93" s="11"/>
     </row>
-    <row r="94">
-      <c r="A94" s="11"/>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -5900,8 +7284,8 @@
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
     </row>
-    <row r="95">
-      <c r="A95" s="11"/>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" s="19"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -5929,8 +7313,8 @@
       <c r="Z95" s="11"/>
       <c r="AA95" s="11"/>
     </row>
-    <row r="96">
-      <c r="A96" s="11"/>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" s="19"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -5958,8 +7342,8 @@
       <c r="Z96" s="11"/>
       <c r="AA96" s="11"/>
     </row>
-    <row r="97">
-      <c r="A97" s="11"/>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A97" s="19"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -5987,8 +7371,8 @@
       <c r="Z97" s="11"/>
       <c r="AA97" s="11"/>
     </row>
-    <row r="98">
-      <c r="A98" s="11"/>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A98" s="19"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -6016,8 +7400,8 @@
       <c r="Z98" s="11"/>
       <c r="AA98" s="11"/>
     </row>
-    <row r="99">
-      <c r="A99" s="11"/>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A99" s="19"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -6045,8 +7429,8 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
     </row>
-    <row r="100">
-      <c r="A100" s="11"/>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A100" s="19"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -6074,8 +7458,8 @@
       <c r="Z100" s="11"/>
       <c r="AA100" s="11"/>
     </row>
-    <row r="101">
-      <c r="A101" s="11"/>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A101" s="19"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -6103,8 +7487,8 @@
       <c r="Z101" s="11"/>
       <c r="AA101" s="11"/>
     </row>
-    <row r="102">
-      <c r="A102" s="11"/>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A102" s="19"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -6132,8 +7516,8 @@
       <c r="Z102" s="11"/>
       <c r="AA102" s="11"/>
     </row>
-    <row r="103">
-      <c r="A103" s="11"/>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A103" s="19"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -6161,8 +7545,8 @@
       <c r="Z103" s="11"/>
       <c r="AA103" s="11"/>
     </row>
-    <row r="104">
-      <c r="A104" s="11"/>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A104" s="19"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -6190,8 +7574,8 @@
       <c r="Z104" s="11"/>
       <c r="AA104" s="11"/>
     </row>
-    <row r="105">
-      <c r="A105" s="11"/>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A105" s="19"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -6219,8 +7603,8 @@
       <c r="Z105" s="11"/>
       <c r="AA105" s="11"/>
     </row>
-    <row r="106">
-      <c r="A106" s="11"/>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A106" s="19"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -6248,8 +7632,8 @@
       <c r="Z106" s="11"/>
       <c r="AA106" s="11"/>
     </row>
-    <row r="107">
-      <c r="A107" s="11"/>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A107" s="19"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -6277,8 +7661,8 @@
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
     </row>
-    <row r="108">
-      <c r="A108" s="11"/>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A108" s="19"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -6306,8 +7690,8 @@
       <c r="Z108" s="11"/>
       <c r="AA108" s="11"/>
     </row>
-    <row r="109">
-      <c r="A109" s="11"/>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A109" s="19"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -6335,8 +7719,8 @@
       <c r="Z109" s="11"/>
       <c r="AA109" s="11"/>
     </row>
-    <row r="110">
-      <c r="A110" s="11"/>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A110" s="19"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -6364,8 +7748,8 @@
       <c r="Z110" s="11"/>
       <c r="AA110" s="11"/>
     </row>
-    <row r="111">
-      <c r="A111" s="11"/>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A111" s="19"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -6393,8 +7777,8 @@
       <c r="Z111" s="11"/>
       <c r="AA111" s="11"/>
     </row>
-    <row r="112">
-      <c r="A112" s="11"/>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A112" s="19"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -6422,8 +7806,8 @@
       <c r="Z112" s="11"/>
       <c r="AA112" s="11"/>
     </row>
-    <row r="113">
-      <c r="A113" s="11"/>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A113" s="19"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -6451,8 +7835,8 @@
       <c r="Z113" s="11"/>
       <c r="AA113" s="11"/>
     </row>
-    <row r="114">
-      <c r="A114" s="11"/>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A114" s="19"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -6480,8 +7864,8 @@
       <c r="Z114" s="11"/>
       <c r="AA114" s="11"/>
     </row>
-    <row r="115">
-      <c r="A115" s="11"/>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A115" s="19"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -6509,8 +7893,8 @@
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
     </row>
-    <row r="116">
-      <c r="A116" s="11"/>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A116" s="19"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -6538,8 +7922,8 @@
       <c r="Z116" s="11"/>
       <c r="AA116" s="11"/>
     </row>
-    <row r="117">
-      <c r="A117" s="11"/>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A117" s="19"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -6567,8 +7951,8 @@
       <c r="Z117" s="11"/>
       <c r="AA117" s="11"/>
     </row>
-    <row r="118">
-      <c r="A118" s="11"/>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A118" s="19"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -6596,8 +7980,8 @@
       <c r="Z118" s="11"/>
       <c r="AA118" s="11"/>
     </row>
-    <row r="119">
-      <c r="A119" s="11"/>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A119" s="19"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -6625,8 +8009,8 @@
       <c r="Z119" s="11"/>
       <c r="AA119" s="11"/>
     </row>
-    <row r="120">
-      <c r="A120" s="11"/>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A120" s="19"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -6654,8 +8038,8 @@
       <c r="Z120" s="11"/>
       <c r="AA120" s="11"/>
     </row>
-    <row r="121">
-      <c r="A121" s="11"/>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A121" s="19"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -6683,8 +8067,8 @@
       <c r="Z121" s="11"/>
       <c r="AA121" s="11"/>
     </row>
-    <row r="122">
-      <c r="A122" s="11"/>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A122" s="19"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -6712,8 +8096,8 @@
       <c r="Z122" s="11"/>
       <c r="AA122" s="11"/>
     </row>
-    <row r="123">
-      <c r="A123" s="11"/>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A123" s="19"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -6741,8 +8125,8 @@
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
     </row>
-    <row r="124">
-      <c r="A124" s="11"/>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A124" s="19"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -6770,8 +8154,8 @@
       <c r="Z124" s="11"/>
       <c r="AA124" s="11"/>
     </row>
-    <row r="125">
-      <c r="A125" s="11"/>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A125" s="19"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -6799,8 +8183,8 @@
       <c r="Z125" s="11"/>
       <c r="AA125" s="11"/>
     </row>
-    <row r="126">
-      <c r="A126" s="11"/>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A126" s="19"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -6828,8 +8212,8 @@
       <c r="Z126" s="11"/>
       <c r="AA126" s="11"/>
     </row>
-    <row r="127">
-      <c r="A127" s="11"/>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A127" s="19"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -6857,8 +8241,8 @@
       <c r="Z127" s="11"/>
       <c r="AA127" s="11"/>
     </row>
-    <row r="128">
-      <c r="A128" s="11"/>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A128" s="19"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -6886,8 +8270,8 @@
       <c r="Z128" s="11"/>
       <c r="AA128" s="11"/>
     </row>
-    <row r="129">
-      <c r="A129" s="11"/>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A129" s="19"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -6915,8 +8299,8 @@
       <c r="Z129" s="11"/>
       <c r="AA129" s="11"/>
     </row>
-    <row r="130">
-      <c r="A130" s="11"/>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A130" s="19"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -6944,8 +8328,8 @@
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
     </row>
-    <row r="131">
-      <c r="A131" s="11"/>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A131" s="19"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -6973,8 +8357,8 @@
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
     </row>
-    <row r="132">
-      <c r="A132" s="11"/>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A132" s="19"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -7002,8 +8386,8 @@
       <c r="Z132" s="11"/>
       <c r="AA132" s="11"/>
     </row>
-    <row r="133">
-      <c r="A133" s="11"/>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A133" s="19"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -7031,8 +8415,8 @@
       <c r="Z133" s="11"/>
       <c r="AA133" s="11"/>
     </row>
-    <row r="134">
-      <c r="A134" s="11"/>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A134" s="19"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -7060,8 +8444,8 @@
       <c r="Z134" s="11"/>
       <c r="AA134" s="11"/>
     </row>
-    <row r="135">
-      <c r="A135" s="11"/>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A135" s="19"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -7089,8 +8473,8 @@
       <c r="Z135" s="11"/>
       <c r="AA135" s="11"/>
     </row>
-    <row r="136">
-      <c r="A136" s="11"/>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A136" s="19"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -7118,8 +8502,8 @@
       <c r="Z136" s="11"/>
       <c r="AA136" s="11"/>
     </row>
-    <row r="137">
-      <c r="A137" s="11"/>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A137" s="19"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -7147,8 +8531,8 @@
       <c r="Z137" s="11"/>
       <c r="AA137" s="11"/>
     </row>
-    <row r="138">
-      <c r="A138" s="11"/>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A138" s="19"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -7176,8 +8560,8 @@
       <c r="Z138" s="11"/>
       <c r="AA138" s="11"/>
     </row>
-    <row r="139">
-      <c r="A139" s="11"/>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A139" s="19"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -7205,8 +8589,8 @@
       <c r="Z139" s="11"/>
       <c r="AA139" s="11"/>
     </row>
-    <row r="140">
-      <c r="A140" s="11"/>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A140" s="19"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -7234,8 +8618,8 @@
       <c r="Z140" s="11"/>
       <c r="AA140" s="11"/>
     </row>
-    <row r="141">
-      <c r="A141" s="11"/>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A141" s="19"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -7263,8 +8647,8 @@
       <c r="Z141" s="11"/>
       <c r="AA141" s="11"/>
     </row>
-    <row r="142">
-      <c r="A142" s="11"/>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A142" s="19"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -7292,8 +8676,8 @@
       <c r="Z142" s="11"/>
       <c r="AA142" s="11"/>
     </row>
-    <row r="143">
-      <c r="A143" s="11"/>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A143" s="19"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -7321,8 +8705,8 @@
       <c r="Z143" s="11"/>
       <c r="AA143" s="11"/>
     </row>
-    <row r="144">
-      <c r="A144" s="11"/>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A144" s="19"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -7350,8 +8734,8 @@
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
     </row>
-    <row r="145">
-      <c r="A145" s="11"/>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A145" s="19"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -7379,8 +8763,8 @@
       <c r="Z145" s="11"/>
       <c r="AA145" s="11"/>
     </row>
-    <row r="146">
-      <c r="A146" s="11"/>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A146" s="19"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -7408,8 +8792,8 @@
       <c r="Z146" s="11"/>
       <c r="AA146" s="11"/>
     </row>
-    <row r="147">
-      <c r="A147" s="11"/>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A147" s="19"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -7437,8 +8821,8 @@
       <c r="Z147" s="11"/>
       <c r="AA147" s="11"/>
     </row>
-    <row r="148">
-      <c r="A148" s="11"/>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A148" s="19"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -7466,8 +8850,8 @@
       <c r="Z148" s="11"/>
       <c r="AA148" s="11"/>
     </row>
-    <row r="149">
-      <c r="A149" s="11"/>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A149" s="19"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -7495,8 +8879,8 @@
       <c r="Z149" s="11"/>
       <c r="AA149" s="11"/>
     </row>
-    <row r="150">
-      <c r="A150" s="11"/>
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A150" s="19"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -7524,8 +8908,8 @@
       <c r="Z150" s="11"/>
       <c r="AA150" s="11"/>
     </row>
-    <row r="151">
-      <c r="A151" s="11"/>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A151" s="19"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -7553,8 +8937,8 @@
       <c r="Z151" s="11"/>
       <c r="AA151" s="11"/>
     </row>
-    <row r="152">
-      <c r="A152" s="11"/>
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A152" s="19"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -7582,8 +8966,8 @@
       <c r="Z152" s="11"/>
       <c r="AA152" s="11"/>
     </row>
-    <row r="153">
-      <c r="A153" s="11"/>
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A153" s="19"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -7611,8 +8995,8 @@
       <c r="Z153" s="11"/>
       <c r="AA153" s="11"/>
     </row>
-    <row r="154">
-      <c r="A154" s="11"/>
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A154" s="19"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -7640,8 +9024,8 @@
       <c r="Z154" s="11"/>
       <c r="AA154" s="11"/>
     </row>
-    <row r="155">
-      <c r="A155" s="11"/>
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A155" s="19"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -7669,8 +9053,8 @@
       <c r="Z155" s="11"/>
       <c r="AA155" s="11"/>
     </row>
-    <row r="156">
-      <c r="A156" s="11"/>
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A156" s="19"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -7698,8 +9082,8 @@
       <c r="Z156" s="11"/>
       <c r="AA156" s="11"/>
     </row>
-    <row r="157">
-      <c r="A157" s="11"/>
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A157" s="19"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -7727,8 +9111,8 @@
       <c r="Z157" s="11"/>
       <c r="AA157" s="11"/>
     </row>
-    <row r="158">
-      <c r="A158" s="11"/>
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A158" s="19"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -7756,8 +9140,8 @@
       <c r="Z158" s="11"/>
       <c r="AA158" s="11"/>
     </row>
-    <row r="159">
-      <c r="A159" s="11"/>
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A159" s="19"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -7785,8 +9169,8 @@
       <c r="Z159" s="11"/>
       <c r="AA159" s="11"/>
     </row>
-    <row r="160">
-      <c r="A160" s="11"/>
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A160" s="19"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -7814,8 +9198,8 @@
       <c r="Z160" s="11"/>
       <c r="AA160" s="11"/>
     </row>
-    <row r="161">
-      <c r="A161" s="11"/>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A161" s="19"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -7843,8 +9227,8 @@
       <c r="Z161" s="11"/>
       <c r="AA161" s="11"/>
     </row>
-    <row r="162">
-      <c r="A162" s="11"/>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A162" s="19"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -7872,8 +9256,8 @@
       <c r="Z162" s="11"/>
       <c r="AA162" s="11"/>
     </row>
-    <row r="163">
-      <c r="A163" s="11"/>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A163" s="19"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -7901,8 +9285,8 @@
       <c r="Z163" s="11"/>
       <c r="AA163" s="11"/>
     </row>
-    <row r="164">
-      <c r="A164" s="11"/>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A164" s="19"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -7930,8 +9314,8 @@
       <c r="Z164" s="11"/>
       <c r="AA164" s="11"/>
     </row>
-    <row r="165">
-      <c r="A165" s="11"/>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A165" s="19"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -7959,8 +9343,8 @@
       <c r="Z165" s="11"/>
       <c r="AA165" s="11"/>
     </row>
-    <row r="166">
-      <c r="A166" s="11"/>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A166" s="19"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -7988,8 +9372,8 @@
       <c r="Z166" s="11"/>
       <c r="AA166" s="11"/>
     </row>
-    <row r="167">
-      <c r="A167" s="11"/>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A167" s="19"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -8017,8 +9401,8 @@
       <c r="Z167" s="11"/>
       <c r="AA167" s="11"/>
     </row>
-    <row r="168">
-      <c r="A168" s="11"/>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A168" s="19"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -8046,8 +9430,8 @@
       <c r="Z168" s="11"/>
       <c r="AA168" s="11"/>
     </row>
-    <row r="169">
-      <c r="A169" s="11"/>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A169" s="19"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -8075,8 +9459,8 @@
       <c r="Z169" s="11"/>
       <c r="AA169" s="11"/>
     </row>
-    <row r="170">
-      <c r="A170" s="11"/>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A170" s="19"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -8104,8 +9488,8 @@
       <c r="Z170" s="11"/>
       <c r="AA170" s="11"/>
     </row>
-    <row r="171">
-      <c r="A171" s="11"/>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A171" s="19"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -8133,8 +9517,8 @@
       <c r="Z171" s="11"/>
       <c r="AA171" s="11"/>
     </row>
-    <row r="172">
-      <c r="A172" s="11"/>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A172" s="19"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -8162,8 +9546,8 @@
       <c r="Z172" s="11"/>
       <c r="AA172" s="11"/>
     </row>
-    <row r="173">
-      <c r="A173" s="11"/>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A173" s="19"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -8191,8 +9575,8 @@
       <c r="Z173" s="11"/>
       <c r="AA173" s="11"/>
     </row>
-    <row r="174">
-      <c r="A174" s="11"/>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A174" s="19"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -8220,8 +9604,8 @@
       <c r="Z174" s="11"/>
       <c r="AA174" s="11"/>
     </row>
-    <row r="175">
-      <c r="A175" s="11"/>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A175" s="19"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -8249,8 +9633,8 @@
       <c r="Z175" s="11"/>
       <c r="AA175" s="11"/>
     </row>
-    <row r="176">
-      <c r="A176" s="11"/>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A176" s="19"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -8278,8 +9662,8 @@
       <c r="Z176" s="11"/>
       <c r="AA176" s="11"/>
     </row>
-    <row r="177">
-      <c r="A177" s="11"/>
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A177" s="19"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -8307,8 +9691,8 @@
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
     </row>
-    <row r="178">
-      <c r="A178" s="11"/>
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A178" s="19"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -8336,8 +9720,8 @@
       <c r="Z178" s="11"/>
       <c r="AA178" s="11"/>
     </row>
-    <row r="179">
-      <c r="A179" s="11"/>
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A179" s="19"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -8365,8 +9749,8 @@
       <c r="Z179" s="11"/>
       <c r="AA179" s="11"/>
     </row>
-    <row r="180">
-      <c r="A180" s="11"/>
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A180" s="19"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -8394,8 +9778,8 @@
       <c r="Z180" s="11"/>
       <c r="AA180" s="11"/>
     </row>
-    <row r="181">
-      <c r="A181" s="11"/>
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A181" s="19"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -8423,8 +9807,8 @@
       <c r="Z181" s="11"/>
       <c r="AA181" s="11"/>
     </row>
-    <row r="182">
-      <c r="A182" s="11"/>
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A182" s="19"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -8452,8 +9836,8 @@
       <c r="Z182" s="11"/>
       <c r="AA182" s="11"/>
     </row>
-    <row r="183">
-      <c r="A183" s="11"/>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A183" s="19"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -8481,8 +9865,8 @@
       <c r="Z183" s="11"/>
       <c r="AA183" s="11"/>
     </row>
-    <row r="184">
-      <c r="A184" s="11"/>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A184" s="19"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -8510,8 +9894,8 @@
       <c r="Z184" s="11"/>
       <c r="AA184" s="11"/>
     </row>
-    <row r="185">
-      <c r="A185" s="11"/>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A185" s="19"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -8539,8 +9923,8 @@
       <c r="Z185" s="11"/>
       <c r="AA185" s="11"/>
     </row>
-    <row r="186">
-      <c r="A186" s="11"/>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A186" s="19"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -8568,8 +9952,8 @@
       <c r="Z186" s="11"/>
       <c r="AA186" s="11"/>
     </row>
-    <row r="187">
-      <c r="A187" s="11"/>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A187" s="19"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -8597,8 +9981,8 @@
       <c r="Z187" s="11"/>
       <c r="AA187" s="11"/>
     </row>
-    <row r="188">
-      <c r="A188" s="11"/>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A188" s="19"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -8626,8 +10010,8 @@
       <c r="Z188" s="11"/>
       <c r="AA188" s="11"/>
     </row>
-    <row r="189">
-      <c r="A189" s="11"/>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A189" s="19"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -8655,8 +10039,8 @@
       <c r="Z189" s="11"/>
       <c r="AA189" s="11"/>
     </row>
-    <row r="190">
-      <c r="A190" s="11"/>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A190" s="19"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -8684,8 +10068,8 @@
       <c r="Z190" s="11"/>
       <c r="AA190" s="11"/>
     </row>
-    <row r="191">
-      <c r="A191" s="11"/>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A191" s="19"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -8713,8 +10097,8 @@
       <c r="Z191" s="11"/>
       <c r="AA191" s="11"/>
     </row>
-    <row r="192">
-      <c r="A192" s="11"/>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A192" s="19"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -8742,8 +10126,8 @@
       <c r="Z192" s="11"/>
       <c r="AA192" s="11"/>
     </row>
-    <row r="193">
-      <c r="A193" s="11"/>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A193" s="19"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -8771,8 +10155,8 @@
       <c r="Z193" s="11"/>
       <c r="AA193" s="11"/>
     </row>
-    <row r="194">
-      <c r="A194" s="11"/>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A194" s="19"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -8800,8 +10184,8 @@
       <c r="Z194" s="11"/>
       <c r="AA194" s="11"/>
     </row>
-    <row r="195">
-      <c r="A195" s="11"/>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A195" s="19"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -8829,8 +10213,8 @@
       <c r="Z195" s="11"/>
       <c r="AA195" s="11"/>
     </row>
-    <row r="196">
-      <c r="A196" s="11"/>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A196" s="19"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -8858,8 +10242,8 @@
       <c r="Z196" s="11"/>
       <c r="AA196" s="11"/>
     </row>
-    <row r="197">
-      <c r="A197" s="11"/>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A197" s="19"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -8887,8 +10271,8 @@
       <c r="Z197" s="11"/>
       <c r="AA197" s="11"/>
     </row>
-    <row r="198">
-      <c r="A198" s="11"/>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A198" s="19"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -8916,8 +10300,8 @@
       <c r="Z198" s="11"/>
       <c r="AA198" s="11"/>
     </row>
-    <row r="199">
-      <c r="A199" s="11"/>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A199" s="19"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -8945,8 +10329,8 @@
       <c r="Z199" s="11"/>
       <c r="AA199" s="11"/>
     </row>
-    <row r="200">
-      <c r="A200" s="11"/>
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A200" s="19"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -8974,15 +10358,47 @@
       <c r="Z200" s="11"/>
       <c r="AA200" s="11"/>
     </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A201" s="19"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+      <c r="M201" s="11"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
+      <c r="P201" s="11"/>
+      <c r="Q201" s="11"/>
+      <c r="R201" s="11"/>
+      <c r="S201" s="11"/>
+      <c r="T201" s="11"/>
+      <c r="U201" s="11"/>
+      <c r="V201" s="11"/>
+      <c r="W201" s="11"/>
+      <c r="X201" s="11"/>
+      <c r="Y201" s="11"/>
+      <c r="Z201" s="11"/>
+      <c r="AA201" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="8">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/driving-thinking.xlsx
+++ b/dataset/driving-thinking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\THU\HCI\Driving Style\dataset\Driving-Thinking-Dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD2587-3808-460E-9DC2-AE79A3B1C138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC164CE-6B1E-43C0-B511-8EB0561E1FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1743,10 +1743,6 @@
 Observation: I focus on areas where vehicles are dense and moving quickly.</t>
   </si>
   <si>
-    <t>司机编号/工况类别 Driver Number/Working Condition</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>D01（普通司机 ordinary driver）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1868,6 +1864,10 @@
   </si>
   <si>
     <t>通过路口 Crossing an intersection</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机编号/工况类别 Driver Number/Driving Condition</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2226,9 +2226,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2250,14 +2247,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3859,12 +3859,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="20" customWidth="1"/>
+    <col min="1" max="1" width="18" style="19" customWidth="1"/>
     <col min="2" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
@@ -3875,37 +3875,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="68.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="O1" s="15"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -3920,65 +3920,65 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
     </row>
     <row r="3" spans="1:27" ht="92" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>449</v>
+      <c r="A3" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>279</v>
@@ -4032,8 +4032,8 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="149.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>450</v>
+      <c r="A4" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>178</v>
@@ -4087,8 +4087,8 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="184" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>451</v>
+      <c r="A5" s="20" t="s">
+        <v>450</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>295</v>
@@ -4142,8 +4142,8 @@
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="126.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>452</v>
+      <c r="A6" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>186</v>
@@ -4193,8 +4193,8 @@
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="80.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>453</v>
+      <c r="A7" s="16" t="s">
+        <v>452</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>190</v>
@@ -4248,8 +4248,8 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="184" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>454</v>
+      <c r="A8" s="20" t="s">
+        <v>453</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>194</v>
@@ -4303,8 +4303,8 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="80.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>455</v>
+      <c r="A9" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>199</v>
@@ -4362,8 +4362,8 @@
       <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="115" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>456</v>
+      <c r="A10" s="20" t="s">
+        <v>455</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>205</v>
@@ -4417,8 +4417,8 @@
       <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="80.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>457</v>
+      <c r="A11" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>210</v>
@@ -4472,8 +4472,8 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="92" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>458</v>
+      <c r="A12" s="20" t="s">
+        <v>457</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>215</v>
@@ -4527,7 +4527,7 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="379.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -4582,7 +4582,7 @@
       <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="230" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -4637,8 +4637,8 @@
       <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="391" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>459</v>
+      <c r="A15" s="20" t="s">
+        <v>458</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>365</v>
@@ -4692,8 +4692,8 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>460</v>
+      <c r="A16" s="20" t="s">
+        <v>459</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>234</v>
@@ -4747,8 +4747,8 @@
       <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="1:27" ht="356.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>461</v>
+      <c r="A17" s="20" t="s">
+        <v>460</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>239</v>
@@ -4806,8 +4806,8 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" ht="172.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>470</v>
+      <c r="A18" s="20" t="s">
+        <v>469</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>243</v>
@@ -4857,8 +4857,8 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" ht="161" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>469</v>
+      <c r="A19" s="16" t="s">
+        <v>468</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>248</v>
@@ -4916,8 +4916,8 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" ht="138" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>468</v>
+      <c r="A20" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>253</v>
@@ -4971,8 +4971,8 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" spans="1:27" ht="322" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>467</v>
+      <c r="A21" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>257</v>
@@ -5026,8 +5026,8 @@
       <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="1:27" ht="241.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>466</v>
+      <c r="A22" s="16" t="s">
+        <v>465</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>262</v>
@@ -5081,8 +5081,8 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" ht="230" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>465</v>
+      <c r="A23" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>268</v>
@@ -5136,8 +5136,8 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24" spans="1:27" ht="287.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>464</v>
+      <c r="A24" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>271</v>
@@ -5195,8 +5195,8 @@
       <c r="AA24" s="11"/>
     </row>
     <row r="25" spans="1:27" ht="149.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>463</v>
+      <c r="A25" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>274</v>
@@ -5254,8 +5254,8 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" ht="161" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>462</v>
+      <c r="A26" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>275</v>
@@ -5313,7 +5313,7 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -5342,7 +5342,7 @@
       <c r="AA27" s="11"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -5371,7 +5371,7 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -5400,7 +5400,7 @@
       <c r="AA29" s="11"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -5429,7 +5429,7 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -5458,7 +5458,7 @@
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -5487,7 +5487,7 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -5516,7 +5516,7 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -5545,7 +5545,7 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -5574,7 +5574,7 @@
       <c r="AA35" s="11"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -5603,7 +5603,7 @@
       <c r="AA36" s="11"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -5632,7 +5632,7 @@
       <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -5661,7 +5661,7 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -5690,7 +5690,7 @@
       <c r="AA39" s="11"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -5719,7 +5719,7 @@
       <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -5748,7 +5748,7 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -5777,7 +5777,7 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -5806,7 +5806,7 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -5835,7 +5835,7 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -5864,7 +5864,7 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -5893,7 +5893,7 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -5922,7 +5922,7 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -5951,7 +5951,7 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -5980,7 +5980,7 @@
       <c r="AA49" s="11"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -6009,7 +6009,7 @@
       <c r="AA50" s="11"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -6038,7 +6038,7 @@
       <c r="AA51" s="11"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -6067,7 +6067,7 @@
       <c r="AA52" s="11"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -6096,7 +6096,7 @@
       <c r="AA53" s="11"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -6125,7 +6125,7 @@
       <c r="AA54" s="11"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -6154,7 +6154,7 @@
       <c r="AA55" s="11"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -6183,7 +6183,7 @@
       <c r="AA56" s="11"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -6212,7 +6212,7 @@
       <c r="AA57" s="11"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -6241,7 +6241,7 @@
       <c r="AA58" s="11"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -6270,7 +6270,7 @@
       <c r="AA59" s="11"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -6299,7 +6299,7 @@
       <c r="AA60" s="11"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -6328,7 +6328,7 @@
       <c r="AA61" s="11"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -6357,7 +6357,7 @@
       <c r="AA62" s="11"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="19"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -6386,7 +6386,7 @@
       <c r="AA63" s="11"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -6415,7 +6415,7 @@
       <c r="AA64" s="11"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -6444,7 +6444,7 @@
       <c r="AA65" s="11"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -6473,7 +6473,7 @@
       <c r="AA66" s="11"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -6502,7 +6502,7 @@
       <c r="AA67" s="11"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -6531,7 +6531,7 @@
       <c r="AA68" s="11"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -6560,7 +6560,7 @@
       <c r="AA69" s="11"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -6589,7 +6589,7 @@
       <c r="AA70" s="11"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -6618,7 +6618,7 @@
       <c r="AA71" s="11"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -6647,7 +6647,7 @@
       <c r="AA72" s="11"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -6676,7 +6676,7 @@
       <c r="AA73" s="11"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -6705,7 +6705,7 @@
       <c r="AA74" s="11"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -6734,7 +6734,7 @@
       <c r="AA75" s="11"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -6763,7 +6763,7 @@
       <c r="AA76" s="11"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -6792,7 +6792,7 @@
       <c r="AA77" s="11"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -6821,7 +6821,7 @@
       <c r="AA78" s="11"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -6850,7 +6850,7 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -6879,7 +6879,7 @@
       <c r="AA80" s="11"/>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -6908,7 +6908,7 @@
       <c r="AA81" s="11"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -6937,7 +6937,7 @@
       <c r="AA82" s="11"/>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -6966,7 +6966,7 @@
       <c r="AA83" s="11"/>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -6995,7 +6995,7 @@
       <c r="AA84" s="11"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7024,7 +7024,7 @@
       <c r="AA85" s="11"/>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -7053,7 +7053,7 @@
       <c r="AA86" s="11"/>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -7082,7 +7082,7 @@
       <c r="AA87" s="11"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A88" s="19"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -7111,7 +7111,7 @@
       <c r="AA88" s="11"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -7140,7 +7140,7 @@
       <c r="AA89" s="11"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -7169,7 +7169,7 @@
       <c r="AA90" s="11"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A91" s="19"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -7198,7 +7198,7 @@
       <c r="AA91" s="11"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -7227,7 +7227,7 @@
       <c r="AA92" s="11"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A93" s="19"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -7256,7 +7256,7 @@
       <c r="AA93" s="11"/>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -7285,7 +7285,7 @@
       <c r="AA94" s="11"/>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -7314,7 +7314,7 @@
       <c r="AA95" s="11"/>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -7343,7 +7343,7 @@
       <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -7372,7 +7372,7 @@
       <c r="AA97" s="11"/>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A98" s="19"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -7401,7 +7401,7 @@
       <c r="AA98" s="11"/>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A99" s="19"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -7430,7 +7430,7 @@
       <c r="AA99" s="11"/>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -7459,7 +7459,7 @@
       <c r="AA100" s="11"/>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A101" s="19"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -7488,7 +7488,7 @@
       <c r="AA101" s="11"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A102" s="19"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -7517,7 +7517,7 @@
       <c r="AA102" s="11"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A103" s="19"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -7546,7 +7546,7 @@
       <c r="AA103" s="11"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -7575,7 +7575,7 @@
       <c r="AA104" s="11"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A105" s="19"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -7604,7 +7604,7 @@
       <c r="AA105" s="11"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A106" s="19"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -7633,7 +7633,7 @@
       <c r="AA106" s="11"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A107" s="19"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -7662,7 +7662,7 @@
       <c r="AA107" s="11"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A108" s="19"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -7691,7 +7691,7 @@
       <c r="AA108" s="11"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A109" s="19"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -7720,7 +7720,7 @@
       <c r="AA109" s="11"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="19"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -7749,7 +7749,7 @@
       <c r="AA110" s="11"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -7778,7 +7778,7 @@
       <c r="AA111" s="11"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A112" s="19"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -7807,7 +7807,7 @@
       <c r="AA112" s="11"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -7836,7 +7836,7 @@
       <c r="AA113" s="11"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A114" s="19"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -7865,7 +7865,7 @@
       <c r="AA114" s="11"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A115" s="19"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -7894,7 +7894,7 @@
       <c r="AA115" s="11"/>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A116" s="19"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -7923,7 +7923,7 @@
       <c r="AA116" s="11"/>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A117" s="19"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -7952,7 +7952,7 @@
       <c r="AA117" s="11"/>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A118" s="19"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -7981,7 +7981,7 @@
       <c r="AA118" s="11"/>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A119" s="19"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -8010,7 +8010,7 @@
       <c r="AA119" s="11"/>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A120" s="19"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -8039,7 +8039,7 @@
       <c r="AA120" s="11"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A121" s="19"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -8068,7 +8068,7 @@
       <c r="AA121" s="11"/>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A122" s="19"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -8097,7 +8097,7 @@
       <c r="AA122" s="11"/>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A123" s="19"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -8126,7 +8126,7 @@
       <c r="AA123" s="11"/>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A124" s="19"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -8155,7 +8155,7 @@
       <c r="AA124" s="11"/>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A125" s="19"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -8184,7 +8184,7 @@
       <c r="AA125" s="11"/>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A126" s="19"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -8213,7 +8213,7 @@
       <c r="AA126" s="11"/>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A127" s="19"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -8242,7 +8242,7 @@
       <c r="AA127" s="11"/>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A128" s="19"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -8271,7 +8271,7 @@
       <c r="AA128" s="11"/>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A129" s="19"/>
+      <c r="A129" s="18"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -8300,7 +8300,7 @@
       <c r="AA129" s="11"/>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A130" s="19"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -8329,7 +8329,7 @@
       <c r="AA130" s="11"/>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A131" s="19"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -8358,7 +8358,7 @@
       <c r="AA131" s="11"/>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A132" s="19"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -8387,7 +8387,7 @@
       <c r="AA132" s="11"/>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A133" s="19"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -8416,7 +8416,7 @@
       <c r="AA133" s="11"/>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A134" s="19"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -8445,7 +8445,7 @@
       <c r="AA134" s="11"/>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A135" s="19"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -8474,7 +8474,7 @@
       <c r="AA135" s="11"/>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A136" s="19"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -8503,7 +8503,7 @@
       <c r="AA136" s="11"/>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A137" s="19"/>
+      <c r="A137" s="18"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -8532,7 +8532,7 @@
       <c r="AA137" s="11"/>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A138" s="19"/>
+      <c r="A138" s="18"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -8561,7 +8561,7 @@
       <c r="AA138" s="11"/>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A139" s="19"/>
+      <c r="A139" s="18"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -8590,7 +8590,7 @@
       <c r="AA139" s="11"/>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A140" s="19"/>
+      <c r="A140" s="18"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -8619,7 +8619,7 @@
       <c r="AA140" s="11"/>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A141" s="19"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -8648,7 +8648,7 @@
       <c r="AA141" s="11"/>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A142" s="19"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -8677,7 +8677,7 @@
       <c r="AA142" s="11"/>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="19"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -8706,7 +8706,7 @@
       <c r="AA143" s="11"/>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A144" s="19"/>
+      <c r="A144" s="18"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -8735,7 +8735,7 @@
       <c r="AA144" s="11"/>
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A145" s="19"/>
+      <c r="A145" s="18"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -8764,7 +8764,7 @@
       <c r="AA145" s="11"/>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A146" s="19"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -8793,7 +8793,7 @@
       <c r="AA146" s="11"/>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A147" s="19"/>
+      <c r="A147" s="18"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -8822,7 +8822,7 @@
       <c r="AA147" s="11"/>
     </row>
     <row r="148" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A148" s="19"/>
+      <c r="A148" s="18"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -8851,7 +8851,7 @@
       <c r="AA148" s="11"/>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A149" s="19"/>
+      <c r="A149" s="18"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -8880,7 +8880,7 @@
       <c r="AA149" s="11"/>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A150" s="19"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -8909,7 +8909,7 @@
       <c r="AA150" s="11"/>
     </row>
     <row r="151" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A151" s="19"/>
+      <c r="A151" s="18"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -8938,7 +8938,7 @@
       <c r="AA151" s="11"/>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A152" s="19"/>
+      <c r="A152" s="18"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -8967,7 +8967,7 @@
       <c r="AA152" s="11"/>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A153" s="19"/>
+      <c r="A153" s="18"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -8996,7 +8996,7 @@
       <c r="AA153" s="11"/>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A154" s="19"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -9025,7 +9025,7 @@
       <c r="AA154" s="11"/>
     </row>
     <row r="155" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A155" s="19"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -9054,7 +9054,7 @@
       <c r="AA155" s="11"/>
     </row>
     <row r="156" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A156" s="19"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -9083,7 +9083,7 @@
       <c r="AA156" s="11"/>
     </row>
     <row r="157" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A157" s="19"/>
+      <c r="A157" s="18"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -9112,7 +9112,7 @@
       <c r="AA157" s="11"/>
     </row>
     <row r="158" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A158" s="19"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -9141,7 +9141,7 @@
       <c r="AA158" s="11"/>
     </row>
     <row r="159" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A159" s="19"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -9170,7 +9170,7 @@
       <c r="AA159" s="11"/>
     </row>
     <row r="160" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A160" s="19"/>
+      <c r="A160" s="18"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -9199,7 +9199,7 @@
       <c r="AA160" s="11"/>
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A161" s="19"/>
+      <c r="A161" s="18"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -9228,7 +9228,7 @@
       <c r="AA161" s="11"/>
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A162" s="19"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -9257,7 +9257,7 @@
       <c r="AA162" s="11"/>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A163" s="19"/>
+      <c r="A163" s="18"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -9286,7 +9286,7 @@
       <c r="AA163" s="11"/>
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A164" s="19"/>
+      <c r="A164" s="18"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -9315,7 +9315,7 @@
       <c r="AA164" s="11"/>
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A165" s="19"/>
+      <c r="A165" s="18"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -9344,7 +9344,7 @@
       <c r="AA165" s="11"/>
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A166" s="19"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -9373,7 +9373,7 @@
       <c r="AA166" s="11"/>
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A167" s="19"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -9402,7 +9402,7 @@
       <c r="AA167" s="11"/>
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A168" s="19"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -9431,7 +9431,7 @@
       <c r="AA168" s="11"/>
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A169" s="19"/>
+      <c r="A169" s="18"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -9460,7 +9460,7 @@
       <c r="AA169" s="11"/>
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A170" s="19"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -9489,7 +9489,7 @@
       <c r="AA170" s="11"/>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A171" s="19"/>
+      <c r="A171" s="18"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -9518,7 +9518,7 @@
       <c r="AA171" s="11"/>
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A172" s="19"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -9547,7 +9547,7 @@
       <c r="AA172" s="11"/>
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A173" s="19"/>
+      <c r="A173" s="18"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -9576,7 +9576,7 @@
       <c r="AA173" s="11"/>
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A174" s="19"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -9605,7 +9605,7 @@
       <c r="AA174" s="11"/>
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A175" s="19"/>
+      <c r="A175" s="18"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -9634,7 +9634,7 @@
       <c r="AA175" s="11"/>
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A176" s="19"/>
+      <c r="A176" s="18"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -9663,7 +9663,7 @@
       <c r="AA176" s="11"/>
     </row>
     <row r="177" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A177" s="19"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -9692,7 +9692,7 @@
       <c r="AA177" s="11"/>
     </row>
     <row r="178" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A178" s="19"/>
+      <c r="A178" s="18"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -9721,7 +9721,7 @@
       <c r="AA178" s="11"/>
     </row>
     <row r="179" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A179" s="19"/>
+      <c r="A179" s="18"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -9750,7 +9750,7 @@
       <c r="AA179" s="11"/>
     </row>
     <row r="180" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A180" s="19"/>
+      <c r="A180" s="18"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -9779,7 +9779,7 @@
       <c r="AA180" s="11"/>
     </row>
     <row r="181" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A181" s="19"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -9808,7 +9808,7 @@
       <c r="AA181" s="11"/>
     </row>
     <row r="182" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A182" s="19"/>
+      <c r="A182" s="18"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -9837,7 +9837,7 @@
       <c r="AA182" s="11"/>
     </row>
     <row r="183" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A183" s="19"/>
+      <c r="A183" s="18"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -9866,7 +9866,7 @@
       <c r="AA183" s="11"/>
     </row>
     <row r="184" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A184" s="19"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -9895,7 +9895,7 @@
       <c r="AA184" s="11"/>
     </row>
     <row r="185" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A185" s="19"/>
+      <c r="A185" s="18"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -9924,7 +9924,7 @@
       <c r="AA185" s="11"/>
     </row>
     <row r="186" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A186" s="19"/>
+      <c r="A186" s="18"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -9953,7 +9953,7 @@
       <c r="AA186" s="11"/>
     </row>
     <row r="187" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A187" s="19"/>
+      <c r="A187" s="18"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -9982,7 +9982,7 @@
       <c r="AA187" s="11"/>
     </row>
     <row r="188" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A188" s="19"/>
+      <c r="A188" s="18"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -10011,7 +10011,7 @@
       <c r="AA188" s="11"/>
     </row>
     <row r="189" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A189" s="19"/>
+      <c r="A189" s="18"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -10040,7 +10040,7 @@
       <c r="AA189" s="11"/>
     </row>
     <row r="190" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A190" s="19"/>
+      <c r="A190" s="18"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -10069,7 +10069,7 @@
       <c r="AA190" s="11"/>
     </row>
     <row r="191" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A191" s="19"/>
+      <c r="A191" s="18"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -10098,7 +10098,7 @@
       <c r="AA191" s="11"/>
     </row>
     <row r="192" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A192" s="19"/>
+      <c r="A192" s="18"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -10127,7 +10127,7 @@
       <c r="AA192" s="11"/>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A193" s="19"/>
+      <c r="A193" s="18"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -10156,7 +10156,7 @@
       <c r="AA193" s="11"/>
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A194" s="19"/>
+      <c r="A194" s="18"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -10185,7 +10185,7 @@
       <c r="AA194" s="11"/>
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A195" s="19"/>
+      <c r="A195" s="18"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -10214,7 +10214,7 @@
       <c r="AA195" s="11"/>
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A196" s="19"/>
+      <c r="A196" s="18"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -10243,7 +10243,7 @@
       <c r="AA196" s="11"/>
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A197" s="19"/>
+      <c r="A197" s="18"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -10272,7 +10272,7 @@
       <c r="AA197" s="11"/>
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A198" s="19"/>
+      <c r="A198" s="18"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -10301,7 +10301,7 @@
       <c r="AA198" s="11"/>
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A199" s="19"/>
+      <c r="A199" s="18"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -10330,7 +10330,7 @@
       <c r="AA199" s="11"/>
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A200" s="19"/>
+      <c r="A200" s="18"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -10359,7 +10359,7 @@
       <c r="AA200" s="11"/>
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A201" s="19"/>
+      <c r="A201" s="18"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
